--- a/Project/School/Revenue Cost Model.xlsx
+++ b/Project/School/Revenue Cost Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Product Definition" sheetId="4" r:id="rId1"/>
@@ -15,6 +15,40 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="K24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sudarshan: Amount increased after training of deployment</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -74,16 +108,10 @@
     <t>Trainy</t>
   </si>
   <si>
-    <t>Development</t>
-  </si>
-  <si>
     <t>Office</t>
   </si>
   <si>
     <t>Investment</t>
-  </si>
-  <si>
-    <t>Sales Bonus (5000 for every 5)</t>
   </si>
   <si>
     <t>Employee Bonus (1% of sales)</t>
@@ -133,6 +161,12 @@
   <si>
     <t>Phase II + Online parent login</t>
   </si>
+  <si>
+    <t>Data Migration</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
 </sst>
 </file>
 
@@ -142,7 +176,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_([$INR]\ * #,##0.00_);_([$INR]\ * \(#,##0.00\);_([$INR]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +191,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -667,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -713,8 +760,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -752,12 +797,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -797,6 +840,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,40 +940,40 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>30000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>170000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>290000</c:v>
+                  <c:v>104000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>332000</c:v>
+                  <c:v>156000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>454000</c:v>
+                  <c:v>156000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>576000</c:v>
+                  <c:v>156000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>668000</c:v>
+                  <c:v>186000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>720000</c:v>
+                  <c:v>248000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>772000</c:v>
+                  <c:v>248000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>824000</c:v>
+                  <c:v>248000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -997,40 +1049,40 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>14300</c:v>
+                  <c:v>18200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59600</c:v>
+                  <c:v>18200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104900</c:v>
+                  <c:v>18200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114200</c:v>
+                  <c:v>52400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>242100</c:v>
+                  <c:v>58640</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>151520</c:v>
+                  <c:v>59160</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>295940</c:v>
+                  <c:v>108960</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>251160</c:v>
+                  <c:v>114960</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>296680</c:v>
+                  <c:v>115260</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>561200</c:v>
+                  <c:v>189680</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>370720</c:v>
+                  <c:v>189680</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>375240</c:v>
+                  <c:v>189680</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,11 +1090,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72900992"/>
-        <c:axId val="72902528"/>
+        <c:axId val="77071104"/>
+        <c:axId val="77072640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="72900992"/>
+        <c:axId val="77071104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,14 +1113,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72902528"/>
+        <c:crossAx val="77072640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="72902528"/>
+        <c:axId val="77072640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,7 +1157,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72900992"/>
+        <c:crossAx val="77071104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1129,7 +1181,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1209,40 +1261,40 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>30000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>170000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>290000</c:v>
+                  <c:v>104000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>332000</c:v>
+                  <c:v>156000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>454000</c:v>
+                  <c:v>156000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>576000</c:v>
+                  <c:v>156000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>668000</c:v>
+                  <c:v>186000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>720000</c:v>
+                  <c:v>248000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>772000</c:v>
+                  <c:v>248000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>824000</c:v>
+                  <c:v>248000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1314,40 +1366,40 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>14300</c:v>
+                  <c:v>18200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59600</c:v>
+                  <c:v>18200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104900</c:v>
+                  <c:v>18200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114200</c:v>
+                  <c:v>52400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>242100</c:v>
+                  <c:v>58640</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>151520</c:v>
+                  <c:v>59160</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>295940</c:v>
+                  <c:v>108960</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>251160</c:v>
+                  <c:v>114960</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>296680</c:v>
+                  <c:v>115260</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>561200</c:v>
+                  <c:v>189680</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>370720</c:v>
+                  <c:v>189680</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>375240</c:v>
+                  <c:v>189680</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,40 +1474,40 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>30000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>790000</c:v>
+                  <c:v>304000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1122000</c:v>
+                  <c:v>460000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1576000</c:v>
+                  <c:v>616000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2152000</c:v>
+                  <c:v>772000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2820000</c:v>
+                  <c:v>958000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3540000</c:v>
+                  <c:v>1206000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4312000</c:v>
+                  <c:v>1454000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5136000</c:v>
+                  <c:v>1702000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,40 +1583,40 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>14300</c:v>
+                  <c:v>18200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73900</c:v>
+                  <c:v>36400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>178800</c:v>
+                  <c:v>54600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>293000</c:v>
+                  <c:v>107000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>535100</c:v>
+                  <c:v>165640</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>686620</c:v>
+                  <c:v>224800</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>982560</c:v>
+                  <c:v>333760</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1233720</c:v>
+                  <c:v>448720</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1530400</c:v>
+                  <c:v>563980</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2091600</c:v>
+                  <c:v>753660</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2462320</c:v>
+                  <c:v>943340</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2837560</c:v>
+                  <c:v>1133020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,11 +1624,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70603520"/>
-        <c:axId val="70605056"/>
+        <c:axId val="77120256"/>
+        <c:axId val="77121792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="70603520"/>
+        <c:axId val="77120256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,14 +1645,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70605056"/>
+        <c:crossAx val="77121792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="70605056"/>
+        <c:axId val="77121792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,7 +1670,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70603520"/>
+        <c:crossAx val="77120256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1642,7 +1694,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2003,13 +2055,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F22"/>
+  <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2024,36 +2076,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="15.75" thickBot="1">
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>37</v>
+      <c r="D3" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B4" s="71"/>
-      <c r="C4" s="73"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
@@ -2066,7 +2118,7 @@
     </row>
     <row r="5" spans="2:6" ht="15.75" thickBot="1">
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="8">
         <v>5000</v>
@@ -2077,13 +2129,13 @@
       <c r="E5" s="9">
         <v>5000</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="44">
         <v>5000</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="8">
         <v>5000</v>
@@ -2100,7 +2152,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2">
         <v>5000</v>
@@ -2117,22 +2169,24 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>5000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5000</v>
+      </c>
       <c r="E8" s="5">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="F8" s="5">
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2">
         <v>3000</v>
@@ -2147,95 +2201,106 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2">
         <v>5000</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5">
         <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="6" customHeight="1" thickBot="1">
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-    </row>
-    <row r="12" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B12" s="47" t="s">
+    <row r="12" spans="2:6" ht="6" customHeight="1" thickBot="1">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B13" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49">
-        <f>SUM(D5:D10)</f>
-        <v>15000</v>
-      </c>
-      <c r="E12" s="49">
-        <f>SUM(E5:E10)</f>
-        <v>21000</v>
-      </c>
-      <c r="F12" s="49">
-        <f>SUM(F5:F10)</f>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47">
+        <f>SUM(D5:D11)</f>
+        <v>20000</v>
+      </c>
+      <c r="E13" s="47">
+        <f>SUM(E5:E11)</f>
         <v>26000</v>
       </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="50" t="s">
+      <c r="F13" s="47">
+        <f>SUM(F5:F11)</f>
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="51">
-        <v>20000</v>
-      </c>
-      <c r="D13" s="52">
-        <v>20000</v>
-      </c>
-      <c r="E13" s="52">
-        <v>20000</v>
-      </c>
-      <c r="F13" s="52">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B14" s="53" t="s">
+      <c r="C14" s="49">
+        <v>30000</v>
+      </c>
+      <c r="D14" s="50">
+        <v>30000</v>
+      </c>
+      <c r="E14" s="50">
+        <v>30000</v>
+      </c>
+      <c r="F14" s="50">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B15" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C15" s="52">
         <v>8000</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D15" s="53">
         <v>8000</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E15" s="53">
         <v>8000</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F15" s="53">
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="63">
-        <f t="shared" ref="D15:F15" si="0">SUM(D12:D14)</f>
-        <v>43000</v>
-      </c>
-      <c r="E15" s="63">
-        <f>SUM(E12:E14)</f>
-        <v>49000</v>
-      </c>
-      <c r="F15" s="63">
+    <row r="16" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="61">
+        <f t="shared" ref="D16:F16" si="0">SUM(D13:D15)</f>
+        <v>58000</v>
+      </c>
+      <c r="E16" s="61">
+        <f>SUM(E13:E15)</f>
+        <v>64000</v>
+      </c>
+      <c r="F16" s="61">
         <f t="shared" si="0"/>
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+        <v>69000</v>
+      </c>
     </row>
     <row r="20" spans="5:6">
       <c r="E20" s="1"/>
@@ -2248,6 +2313,10 @@
     <row r="22" spans="5:6">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2264,7 +2333,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:M11"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2273,7 +2342,8 @@
     <col min="2" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1">
@@ -2315,351 +2385,363 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="63">
         <v>2</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="64">
+        <v>2</v>
+      </c>
+      <c r="D3" s="64">
+        <v>2</v>
+      </c>
+      <c r="E3" s="64">
         <v>4</v>
       </c>
-      <c r="D3" s="67">
+      <c r="F3" s="64">
+        <v>4</v>
+      </c>
+      <c r="G3" s="64">
         <v>6</v>
       </c>
-      <c r="E3" s="67">
+      <c r="H3" s="64">
+        <v>6</v>
+      </c>
+      <c r="I3" s="64">
+        <v>6</v>
+      </c>
+      <c r="J3" s="64">
+        <v>6</v>
+      </c>
+      <c r="K3" s="64">
         <v>8</v>
       </c>
-      <c r="F3" s="67">
-        <v>10</v>
-      </c>
-      <c r="G3" s="67">
-        <v>12</v>
-      </c>
-      <c r="H3" s="67">
-        <v>14</v>
-      </c>
-      <c r="I3" s="67">
-        <v>16</v>
-      </c>
-      <c r="J3" s="67">
-        <v>18</v>
-      </c>
-      <c r="K3" s="67">
-        <v>20</v>
-      </c>
-      <c r="L3" s="67">
+      <c r="L3" s="64">
+        <v>8</v>
+      </c>
+      <c r="M3" s="65">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
         <v>22</v>
-      </c>
-      <c r="M3" s="68">
-        <v>24</v>
-      </c>
-      <c r="O3" t="s">
-        <v>24</v>
       </c>
       <c r="P3">
         <f>SUM(B3:M3)</f>
-        <v>156</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="82"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="16">
-        <v>15000</v>
+        <f>'Product Definition'!D13</f>
+        <v>20000</v>
       </c>
       <c r="C4" s="17">
-        <v>15000</v>
+        <f>'Product Definition'!D13</f>
+        <v>20000</v>
       </c>
       <c r="D4" s="17">
-        <v>15000</v>
+        <f>'Product Definition'!D13</f>
+        <v>20000</v>
       </c>
       <c r="E4" s="17">
-        <v>15000</v>
+        <f>'Product Definition'!D13</f>
+        <v>20000</v>
       </c>
       <c r="F4" s="17">
-        <v>21000</v>
+        <f>'Product Definition'!E13</f>
+        <v>26000</v>
       </c>
       <c r="G4" s="17">
-        <v>21000</v>
+        <f>'Product Definition'!E13</f>
+        <v>26000</v>
       </c>
       <c r="H4" s="17">
-        <v>21000</v>
+        <f>'Product Definition'!E13</f>
+        <v>26000</v>
       </c>
       <c r="I4" s="17">
+        <f>'Product Definition'!E13</f>
         <v>26000</v>
       </c>
       <c r="J4" s="17">
-        <v>26000</v>
+        <f>'Product Definition'!F13</f>
+        <v>31000</v>
       </c>
       <c r="K4" s="17">
-        <v>26000</v>
+        <f>'Product Definition'!F13</f>
+        <v>31000</v>
       </c>
       <c r="L4" s="17">
-        <v>26000</v>
+        <f>'Product Definition'!F13</f>
+        <v>31000</v>
       </c>
       <c r="M4" s="18">
-        <v>26000</v>
-      </c>
-      <c r="N4" s="13"/>
+        <f>'Product Definition'!F13</f>
+        <v>31000</v>
+      </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="82"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="32">
         <f>B3*B4</f>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C5" s="33">
         <f>C3*C4</f>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="D5" s="33">
         <f>D3*D4</f>
-        <v>90000</v>
+        <v>40000</v>
       </c>
       <c r="E5" s="33">
         <f t="shared" ref="E5:M5" si="0">E3*E4</f>
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="F5" s="33">
         <f t="shared" si="0"/>
-        <v>210000</v>
+        <v>104000</v>
       </c>
       <c r="G5" s="33">
         <f t="shared" si="0"/>
-        <v>252000</v>
+        <v>156000</v>
       </c>
       <c r="H5" s="33">
         <f t="shared" si="0"/>
-        <v>294000</v>
+        <v>156000</v>
       </c>
       <c r="I5" s="33">
         <f t="shared" si="0"/>
-        <v>416000</v>
+        <v>156000</v>
       </c>
       <c r="J5" s="33">
         <f t="shared" si="0"/>
-        <v>468000</v>
+        <v>186000</v>
       </c>
       <c r="K5" s="33">
         <f t="shared" si="0"/>
-        <v>520000</v>
+        <v>248000</v>
       </c>
       <c r="L5" s="33">
         <f t="shared" si="0"/>
-        <v>572000</v>
+        <v>248000</v>
       </c>
       <c r="M5" s="34">
         <f t="shared" si="0"/>
-        <v>624000</v>
-      </c>
-      <c r="N5" s="14">
+        <v>248000</v>
+      </c>
+      <c r="N5" s="81">
         <f>SUM(B5:M5)</f>
-        <v>3656000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="82" t="s">
+        <v>1702000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="1.5" hidden="1" customHeight="1">
+      <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="19"/>
-      <c r="C6" s="20">
-        <v>2</v>
-      </c>
-      <c r="D6" s="21">
-        <v>4</v>
-      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6" s="21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6" s="21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6" s="21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I6" s="21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J6" s="21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K6" s="21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L6" s="21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M6" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="82"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="1.5" hidden="1" customHeight="1">
+      <c r="A7" s="79"/>
       <c r="B7" s="19"/>
-      <c r="C7" s="21">
-        <v>20000</v>
-      </c>
-      <c r="D7" s="21">
-        <v>20000</v>
-      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="21">
-        <v>20000</v>
+        <f>'Product Definition'!D14 + 'Product Definition'!D15</f>
+        <v>38000</v>
       </c>
       <c r="F7" s="21">
-        <v>20000</v>
+        <f>'Product Definition'!$D14+'Product Definition'!$D15</f>
+        <v>38000</v>
       </c>
       <c r="G7" s="21">
-        <v>20000</v>
+        <f>'Product Definition'!$D14+'Product Definition'!$D15</f>
+        <v>38000</v>
       </c>
       <c r="H7" s="21">
-        <v>20000</v>
+        <f>'Product Definition'!$D14+'Product Definition'!$D15</f>
+        <v>38000</v>
       </c>
       <c r="I7" s="21">
-        <v>20000</v>
+        <f>'Product Definition'!$D14+'Product Definition'!$D15</f>
+        <v>38000</v>
       </c>
       <c r="J7" s="21">
-        <v>20000</v>
+        <f>'Product Definition'!$D14+'Product Definition'!$D15</f>
+        <v>38000</v>
       </c>
       <c r="K7" s="21">
-        <v>20000</v>
+        <f>'Product Definition'!$D14+'Product Definition'!$D15</f>
+        <v>38000</v>
       </c>
       <c r="L7" s="21">
-        <v>20000</v>
+        <f>'Product Definition'!$D14+'Product Definition'!$D15</f>
+        <v>38000</v>
       </c>
       <c r="M7" s="22">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="82"/>
+        <f>'Product Definition'!$D14+'Product Definition'!$D15</f>
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" hidden="1">
+      <c r="A8" s="79"/>
       <c r="B8" s="30">
         <f t="shared" ref="B8" si="1">B6*B7</f>
         <v>0</v>
       </c>
       <c r="C8" s="29">
         <f t="shared" ref="C8" si="2">C6*C7</f>
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="D8" s="29">
         <f t="shared" ref="D8" si="3">D6*D7</f>
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="E8" s="29">
         <f t="shared" ref="E8" si="4">E6*E7</f>
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="29">
         <f t="shared" ref="F8" si="5">F6*F7</f>
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" ref="G8" si="6">G6*G7</f>
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="H8" s="29">
         <f t="shared" ref="H8" si="7">H6*H7</f>
-        <v>160000</v>
+        <v>0</v>
       </c>
       <c r="I8" s="29">
         <f t="shared" ref="I8" si="8">I6*I7</f>
-        <v>160000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="29">
         <f t="shared" ref="J8" si="9">J6*J7</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="29">
         <f t="shared" ref="K8" si="10">K6*K7</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="L8" s="29">
         <f t="shared" ref="L8" si="11">L6*L7</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="M8" s="31">
         <f t="shared" ref="M8" si="12">M6*M7</f>
-        <v>200000</v>
-      </c>
-      <c r="N8" s="26">
+        <v>0</v>
+      </c>
+      <c r="N8" s="82">
         <f>SUM(B8:M8)</f>
-        <v>1480000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="27"/>
-      <c r="B9" s="41">
-        <f>B5+B8</f>
-        <v>30000</v>
-      </c>
-      <c r="C9" s="41">
-        <f t="shared" ref="C9:M9" si="13">C5+C8</f>
-        <v>100000</v>
-      </c>
-      <c r="D9" s="41">
+      <c r="B9" s="39">
+        <f t="shared" ref="B9:M9" si="13">B5+B8</f>
+        <v>40000</v>
+      </c>
+      <c r="C9" s="39">
         <f t="shared" si="13"/>
-        <v>170000</v>
-      </c>
-      <c r="E9" s="41">
+        <v>40000</v>
+      </c>
+      <c r="D9" s="39">
         <f t="shared" si="13"/>
-        <v>200000</v>
-      </c>
-      <c r="F9" s="41">
+        <v>40000</v>
+      </c>
+      <c r="E9" s="39">
         <f t="shared" si="13"/>
-        <v>290000</v>
-      </c>
-      <c r="G9" s="41">
+        <v>80000</v>
+      </c>
+      <c r="F9" s="39">
         <f t="shared" si="13"/>
-        <v>332000</v>
-      </c>
-      <c r="H9" s="41">
+        <v>104000</v>
+      </c>
+      <c r="G9" s="39">
         <f t="shared" si="13"/>
-        <v>454000</v>
-      </c>
-      <c r="I9" s="41">
+        <v>156000</v>
+      </c>
+      <c r="H9" s="39">
         <f t="shared" si="13"/>
-        <v>576000</v>
-      </c>
-      <c r="J9" s="41">
+        <v>156000</v>
+      </c>
+      <c r="I9" s="39">
         <f t="shared" si="13"/>
-        <v>668000</v>
-      </c>
-      <c r="K9" s="41">
+        <v>156000</v>
+      </c>
+      <c r="J9" s="39">
         <f t="shared" si="13"/>
-        <v>720000</v>
-      </c>
-      <c r="L9" s="41">
+        <v>186000</v>
+      </c>
+      <c r="K9" s="39">
         <f t="shared" si="13"/>
-        <v>772000</v>
-      </c>
-      <c r="M9" s="65">
+        <v>248000</v>
+      </c>
+      <c r="L9" s="39">
         <f t="shared" si="13"/>
-        <v>824000</v>
-      </c>
-      <c r="N9" s="64">
+        <v>248000</v>
+      </c>
+      <c r="M9" s="62">
+        <f t="shared" si="13"/>
+        <v>248000</v>
+      </c>
+      <c r="N9" s="83">
         <f>SUM(B9:M9)</f>
-        <v>5136000</v>
+        <v>1702000</v>
       </c>
       <c r="O9" s="26"/>
     </row>
@@ -2677,395 +2759,392 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
-      <c r="N10" s="26"/>
+      <c r="N10" s="82"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1">
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="78"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="74"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="66">
+      <c r="B12" s="63">
         <v>2</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="64">
+        <v>2</v>
+      </c>
+      <c r="D12" s="64">
+        <v>2</v>
+      </c>
+      <c r="E12" s="64">
         <v>4</v>
       </c>
-      <c r="D12" s="67">
+      <c r="F12" s="64">
+        <v>4</v>
+      </c>
+      <c r="G12" s="64">
+        <v>4</v>
+      </c>
+      <c r="H12" s="64">
         <v>6</v>
       </c>
-      <c r="E12" s="67">
+      <c r="I12" s="64">
+        <v>6</v>
+      </c>
+      <c r="J12" s="64">
+        <v>6</v>
+      </c>
+      <c r="K12" s="64">
         <v>8</v>
       </c>
-      <c r="F12" s="67">
-        <v>10</v>
-      </c>
-      <c r="G12" s="67">
-        <v>12</v>
-      </c>
-      <c r="H12" s="67">
-        <v>14</v>
-      </c>
-      <c r="I12" s="67">
-        <v>16</v>
-      </c>
-      <c r="J12" s="67">
-        <v>18</v>
-      </c>
-      <c r="K12" s="67">
-        <v>20</v>
-      </c>
-      <c r="L12" s="67">
-        <v>22</v>
-      </c>
-      <c r="M12" s="68">
-        <v>24</v>
+      <c r="L12" s="64">
+        <v>8</v>
+      </c>
+      <c r="M12" s="65">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="82"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="16">
-        <v>2000</v>
+        <f>B12*2000</f>
+        <v>4000</v>
       </c>
       <c r="C13" s="17">
-        <v>2000</v>
+        <f>C12*2000</f>
+        <v>4000</v>
       </c>
       <c r="D13" s="17">
-        <v>2000</v>
+        <f t="shared" ref="D13:L13" si="14">D12*2000</f>
+        <v>4000</v>
       </c>
       <c r="E13" s="17">
-        <v>2000</v>
+        <f t="shared" si="14"/>
+        <v>8000</v>
       </c>
       <c r="F13" s="17">
-        <v>2000</v>
+        <f t="shared" si="14"/>
+        <v>8000</v>
       </c>
       <c r="G13" s="17">
-        <v>2000</v>
+        <f t="shared" si="14"/>
+        <v>8000</v>
       </c>
       <c r="H13" s="17">
-        <v>2000</v>
+        <f t="shared" si="14"/>
+        <v>12000</v>
       </c>
       <c r="I13" s="17">
-        <v>2000</v>
+        <f t="shared" si="14"/>
+        <v>12000</v>
       </c>
       <c r="J13" s="17">
-        <v>2000</v>
+        <f t="shared" si="14"/>
+        <v>12000</v>
       </c>
       <c r="K13" s="17">
-        <v>2000</v>
+        <f t="shared" si="14"/>
+        <v>16000</v>
       </c>
       <c r="L13" s="17">
-        <v>2000</v>
+        <f t="shared" si="14"/>
+        <v>16000</v>
       </c>
       <c r="M13" s="18">
-        <v>2000</v>
-      </c>
-      <c r="N13" s="13"/>
+        <f>M12*2000</f>
+        <v>16000</v>
+      </c>
       <c r="O13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="82"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="16">
         <v>0</v>
       </c>
       <c r="C14" s="17">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D14" s="17">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E14" s="17">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="17">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G14" s="17">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="H14" s="17">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I14" s="17">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="17">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="17">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="L14" s="17">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="M14" s="18">
-        <v>30000</v>
-      </c>
-      <c r="N14" s="13"/>
-      <c r="O14" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="82"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="16">
         <f>B5*0.01</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C15" s="17">
         <f>C5*0.01</f>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" ref="D15:L15" si="14">D5*0.01</f>
-        <v>900</v>
+        <f t="shared" ref="D15:L15" si="15">D5*0.01</f>
+        <v>400</v>
       </c>
       <c r="E15" s="17">
-        <f t="shared" si="14"/>
-        <v>1200</v>
+        <f t="shared" si="15"/>
+        <v>800</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" si="14"/>
-        <v>2100</v>
+        <f t="shared" si="15"/>
+        <v>1040</v>
       </c>
       <c r="G15" s="17">
-        <f t="shared" si="14"/>
-        <v>2520</v>
+        <f t="shared" si="15"/>
+        <v>1560</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="14"/>
-        <v>2940</v>
+        <f t="shared" si="15"/>
+        <v>1560</v>
       </c>
       <c r="I15" s="17">
-        <f t="shared" si="14"/>
-        <v>4160</v>
+        <f t="shared" si="15"/>
+        <v>1560</v>
       </c>
       <c r="J15" s="17">
-        <f t="shared" si="14"/>
-        <v>4680</v>
+        <f t="shared" si="15"/>
+        <v>1860</v>
       </c>
       <c r="K15" s="17">
-        <f t="shared" si="14"/>
-        <v>5200</v>
+        <f t="shared" si="15"/>
+        <v>2480</v>
       </c>
       <c r="L15" s="17">
-        <f t="shared" si="14"/>
-        <v>5720</v>
+        <f t="shared" si="15"/>
+        <v>2480</v>
       </c>
       <c r="M15" s="18">
         <f>M5*0.01</f>
-        <v>6240</v>
-      </c>
-      <c r="N15" s="13"/>
+        <v>2480</v>
+      </c>
       <c r="O15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="82"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A16" s="78"/>
       <c r="B16" s="30">
         <f>(B12*B13)+B14+B15</f>
-        <v>4300</v>
+        <v>8400</v>
       </c>
       <c r="C16" s="29">
         <f>(C12*C13)+C14+C15</f>
-        <v>13600</v>
+        <v>8400</v>
       </c>
       <c r="D16" s="29">
-        <f t="shared" ref="D16:L16" si="15">(D12*D13)+D14+D15</f>
-        <v>22900</v>
+        <f t="shared" ref="D16:L16" si="16">(D12*D13)+D14+D15</f>
+        <v>8400</v>
       </c>
       <c r="E16" s="29">
-        <f t="shared" si="15"/>
-        <v>27200</v>
+        <f t="shared" si="16"/>
+        <v>32800</v>
       </c>
       <c r="F16" s="29">
-        <f t="shared" si="15"/>
-        <v>32100</v>
+        <f t="shared" si="16"/>
+        <v>33040</v>
       </c>
       <c r="G16" s="29">
-        <f t="shared" si="15"/>
-        <v>41520</v>
+        <f t="shared" si="16"/>
+        <v>33560</v>
       </c>
       <c r="H16" s="29">
-        <f t="shared" si="15"/>
-        <v>50940</v>
+        <f t="shared" si="16"/>
+        <v>73560</v>
       </c>
       <c r="I16" s="29">
-        <f t="shared" si="15"/>
-        <v>56160</v>
+        <f t="shared" si="16"/>
+        <v>73560</v>
       </c>
       <c r="J16" s="29">
-        <f t="shared" si="15"/>
-        <v>60680</v>
+        <f t="shared" si="16"/>
+        <v>73860</v>
       </c>
       <c r="K16" s="29">
-        <f t="shared" si="15"/>
-        <v>70200</v>
+        <f t="shared" si="16"/>
+        <v>130480</v>
       </c>
       <c r="L16" s="29">
-        <f t="shared" si="15"/>
-        <v>79720</v>
+        <f t="shared" si="16"/>
+        <v>130480</v>
       </c>
       <c r="M16" s="31">
         <f>(M12*M13) + M14+M15</f>
-        <v>84240</v>
-      </c>
-      <c r="N16" s="69">
+        <v>130480</v>
+      </c>
+      <c r="N16" s="81">
         <f>SUM(B16:M16) * -1</f>
-        <v>-543560</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="82" t="s">
+        <v>-737020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="0.75" hidden="1" customHeight="1">
+      <c r="A17" s="78" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="19"/>
-      <c r="C17" s="20">
-        <v>2</v>
-      </c>
-      <c r="D17" s="21">
-        <v>4</v>
-      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17" s="21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17" s="21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17" s="21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I17" s="21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J17" s="21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K17" s="21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L17" s="21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M17" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="82"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" hidden="1">
+      <c r="A18" s="78"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="33">
-        <v>18000</v>
-      </c>
-      <c r="D18" s="33">
-        <v>18000</v>
-      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="33">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="F18" s="33">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="G18" s="33">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="H18" s="33">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="I18" s="33">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="J18" s="33">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="K18" s="33">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L18" s="33">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M18" s="34">
-        <v>18000</v>
-      </c>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="82"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="0.75" hidden="1" customHeight="1">
+      <c r="A19" s="78"/>
       <c r="B19" s="30">
-        <f t="shared" ref="B19" si="16">B17*B18</f>
+        <f t="shared" ref="B19" si="17">B17*B18</f>
         <v>0</v>
       </c>
       <c r="C19" s="29">
-        <f t="shared" ref="C19" si="17">C17*C18</f>
-        <v>36000</v>
+        <f t="shared" ref="C19" si="18">C17*C18</f>
+        <v>0</v>
       </c>
       <c r="D19" s="29">
-        <f t="shared" ref="D19" si="18">D17*D18</f>
-        <v>72000</v>
+        <f t="shared" ref="D19" si="19">D17*D18</f>
+        <v>0</v>
       </c>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="19">E17*E18</f>
-        <v>72000</v>
+        <f t="shared" ref="E19" si="20">E17*E18</f>
+        <v>0</v>
       </c>
       <c r="F19" s="29">
-        <f t="shared" ref="F19" si="20">F17*F18</f>
-        <v>72000</v>
+        <f t="shared" ref="F19" si="21">F17*F18</f>
+        <v>0</v>
       </c>
       <c r="G19" s="29">
-        <f t="shared" ref="G19" si="21">G17*G18</f>
-        <v>72000</v>
+        <f t="shared" ref="G19" si="22">G17*G18</f>
+        <v>0</v>
       </c>
       <c r="H19" s="29">
-        <f t="shared" ref="H19" si="22">H17*H18</f>
-        <v>144000</v>
+        <f t="shared" ref="H19" si="23">H17*H18</f>
+        <v>0</v>
       </c>
       <c r="I19" s="29">
-        <f t="shared" ref="I19" si="23">I17*I18</f>
-        <v>144000</v>
+        <f t="shared" ref="I19" si="24">I17*I18</f>
+        <v>0</v>
       </c>
       <c r="J19" s="29">
-        <f t="shared" ref="J19" si="24">J17*J18</f>
-        <v>180000</v>
+        <f t="shared" ref="J19" si="25">J17*J18</f>
+        <v>0</v>
       </c>
       <c r="K19" s="29">
-        <f t="shared" ref="K19" si="25">K17*K18</f>
-        <v>180000</v>
+        <f t="shared" ref="K19" si="26">K17*K18</f>
+        <v>0</v>
       </c>
       <c r="L19" s="29">
-        <f t="shared" ref="L19" si="26">L17*L18</f>
-        <v>180000</v>
+        <f t="shared" ref="L19" si="27">L17*L18</f>
+        <v>0</v>
       </c>
       <c r="M19" s="31">
-        <f t="shared" ref="M19" si="27">M17*M18</f>
-        <v>180000</v>
-      </c>
-      <c r="N19" s="69">
+        <f t="shared" ref="M19" si="28">M17*M18</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="81">
         <f>SUM(B19:M19)*-1</f>
-        <v>-1332000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="70" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="19"/>
@@ -3077,21 +3156,15 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="21">
-        <v>4</v>
-      </c>
-      <c r="L20" s="21">
-        <v>4</v>
-      </c>
-      <c r="M20" s="22">
-        <v>4</v>
-      </c>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="22"/>
       <c r="P20" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="74"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
@@ -3112,62 +3185,62 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="74"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="32">
-        <f t="shared" ref="B22" si="28">B20*B21</f>
+        <f t="shared" ref="B22" si="29">B20*B21</f>
         <v>0</v>
       </c>
       <c r="C22" s="33">
-        <f t="shared" ref="C22" si="29">C20*C21</f>
+        <f t="shared" ref="C22" si="30">C20*C21</f>
         <v>0</v>
       </c>
       <c r="D22" s="33">
-        <f t="shared" ref="D22" si="30">D20*D21</f>
+        <f t="shared" ref="D22" si="31">D20*D21</f>
         <v>0</v>
       </c>
       <c r="E22" s="33">
-        <f t="shared" ref="E22" si="31">E20*E21</f>
+        <f t="shared" ref="E22" si="32">E20*E21</f>
         <v>0</v>
       </c>
       <c r="F22" s="33">
-        <f t="shared" ref="F22" si="32">F20*F21</f>
+        <f t="shared" ref="F22" si="33">F20*F21</f>
         <v>0</v>
       </c>
       <c r="G22" s="33">
-        <f t="shared" ref="G22" si="33">G20*G21</f>
+        <f t="shared" ref="G22" si="34">G20*G21</f>
         <v>0</v>
       </c>
       <c r="H22" s="33">
-        <f t="shared" ref="H22" si="34">H20*H21</f>
+        <f t="shared" ref="H22" si="35">H20*H21</f>
         <v>0</v>
       </c>
       <c r="I22" s="33">
-        <f t="shared" ref="I22" si="35">I20*I21</f>
+        <f t="shared" ref="I22" si="36">I20*I21</f>
         <v>0</v>
       </c>
       <c r="J22" s="33">
-        <f t="shared" ref="J22" si="36">J20*J21</f>
+        <f t="shared" ref="J22" si="37">J20*J21</f>
         <v>0</v>
       </c>
       <c r="K22" s="33">
-        <f t="shared" ref="K22" si="37">K20*K21</f>
-        <v>20000</v>
+        <f t="shared" ref="K22" si="38">K20*K21</f>
+        <v>0</v>
       </c>
       <c r="L22" s="33">
-        <f t="shared" ref="L22" si="38">L20*L21</f>
-        <v>20000</v>
+        <f t="shared" ref="L22" si="39">L20*L21</f>
+        <v>0</v>
       </c>
       <c r="M22" s="34">
-        <f t="shared" ref="M22" si="39">M20*M21</f>
-        <v>20000</v>
-      </c>
-      <c r="N22" s="69">
+        <f t="shared" ref="M22" si="40">M20*M21</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="81">
         <f>SUM(F22:M22)*-1</f>
-        <v>-60000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="70" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="19"/>
@@ -3181,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="21">
         <v>2</v>
@@ -3203,93 +3276,93 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="74"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="36"/>
       <c r="E24" s="36"/>
       <c r="F24" s="37">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="G24" s="37">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="H24" s="37">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="I24" s="37">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="J24" s="37">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="K24" s="37">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L24" s="37">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M24" s="38">
-        <v>8000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="74"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="32">
-        <f t="shared" ref="B25:C25" si="40">B23*B24</f>
+        <f t="shared" ref="B25:C25" si="41">B23*B24</f>
         <v>0</v>
       </c>
       <c r="C25" s="33">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="D25" s="33">
-        <f t="shared" ref="D25" si="41">D23*D24</f>
+        <f t="shared" ref="D25" si="42">D23*D24</f>
         <v>0</v>
       </c>
       <c r="E25" s="33">
-        <f t="shared" ref="E25" si="42">E23*E24</f>
+        <f t="shared" ref="E25" si="43">E23*E24</f>
         <v>0</v>
       </c>
       <c r="F25" s="33">
-        <f t="shared" ref="F25" si="43">F23*F24</f>
-        <v>8000</v>
+        <f t="shared" ref="F25" si="44">F23*F24</f>
+        <v>6000</v>
       </c>
       <c r="G25" s="33">
-        <f t="shared" ref="G25" si="44">G23*G24</f>
-        <v>8000</v>
+        <f t="shared" ref="G25" si="45">G23*G24</f>
+        <v>6000</v>
       </c>
       <c r="H25" s="33">
-        <f t="shared" ref="H25" si="45">H23*H24</f>
-        <v>16000</v>
+        <f t="shared" ref="H25" si="46">H23*H24</f>
+        <v>6000</v>
       </c>
       <c r="I25" s="33">
-        <f t="shared" ref="I25" si="46">I23*I24</f>
-        <v>16000</v>
+        <f t="shared" ref="I25" si="47">I23*I24</f>
+        <v>12000</v>
       </c>
       <c r="J25" s="33">
-        <f t="shared" ref="J25" si="47">J23*J24</f>
-        <v>16000</v>
+        <f t="shared" ref="J25" si="48">J23*J24</f>
+        <v>12000</v>
       </c>
       <c r="K25" s="33">
-        <f t="shared" ref="K25" si="48">K23*K24</f>
-        <v>16000</v>
+        <f t="shared" ref="K25" si="49">K23*K24</f>
+        <v>20000</v>
       </c>
       <c r="L25" s="33">
-        <f t="shared" ref="L25" si="49">L23*L24</f>
-        <v>16000</v>
+        <f t="shared" ref="L25" si="50">L23*L24</f>
+        <v>20000</v>
       </c>
       <c r="M25" s="34">
-        <f t="shared" ref="M25" si="50">M23*M24</f>
-        <v>16000</v>
-      </c>
-      <c r="N25" s="69">
+        <f t="shared" ref="M25" si="51">M23*M24</f>
+        <v>20000</v>
+      </c>
+      <c r="N25" s="81">
         <f>SUM(F25:M25)*-1</f>
-        <v>-112000</v>
+        <v>-102000</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="71" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="19"/>
@@ -3301,18 +3374,12 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="21">
-        <v>2</v>
-      </c>
-      <c r="L26" s="21">
-        <v>2</v>
-      </c>
-      <c r="M26" s="22">
-        <v>2</v>
-      </c>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="22"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="75"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
@@ -3336,58 +3403,58 @@
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="75"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="30">
-        <f t="shared" ref="B28" si="51">B26*B27</f>
+        <f t="shared" ref="B28" si="52">B26*B27</f>
         <v>0</v>
       </c>
       <c r="C28" s="29">
-        <f t="shared" ref="C28" si="52">C26*C27</f>
+        <f t="shared" ref="C28" si="53">C26*C27</f>
         <v>0</v>
       </c>
       <c r="D28" s="29">
-        <f t="shared" ref="D28" si="53">D26*D27</f>
+        <f t="shared" ref="D28" si="54">D26*D27</f>
         <v>0</v>
       </c>
       <c r="E28" s="29">
-        <f t="shared" ref="E28:F28" si="54">E26*E27</f>
+        <f t="shared" ref="E28:F28" si="55">E26*E27</f>
         <v>0</v>
       </c>
       <c r="F28" s="29">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="G28" s="29">
-        <f t="shared" ref="G28" si="55">G26*G27</f>
+        <f t="shared" ref="G28" si="56">G26*G27</f>
         <v>0</v>
       </c>
       <c r="H28" s="29">
-        <f t="shared" ref="H28" si="56">H26*H27</f>
+        <f t="shared" ref="H28" si="57">H26*H27</f>
         <v>0</v>
       </c>
       <c r="I28" s="29">
-        <f t="shared" ref="I28" si="57">I26*I27</f>
+        <f t="shared" ref="I28" si="58">I26*I27</f>
         <v>0</v>
       </c>
       <c r="J28" s="29">
-        <f t="shared" ref="J28" si="58">J26*J27</f>
+        <f t="shared" ref="J28" si="59">J26*J27</f>
         <v>0</v>
       </c>
       <c r="K28" s="29">
-        <f t="shared" ref="K28" si="59">K26*K27</f>
-        <v>20000</v>
+        <f t="shared" ref="K28" si="60">K26*K27</f>
+        <v>0</v>
       </c>
       <c r="L28" s="29">
-        <f t="shared" ref="L28" si="60">L26*L27</f>
-        <v>20000</v>
+        <f t="shared" ref="L28" si="61">L26*L27</f>
+        <v>0</v>
       </c>
       <c r="M28" s="31">
-        <f t="shared" ref="M28" si="61">M26*M27</f>
-        <v>20000</v>
-      </c>
-      <c r="N28" s="69">
+        <f t="shared" ref="M28" si="62">M26*M27</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="81">
         <f>SUM(K28:M28)*-1</f>
-        <v>-60000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3395,100 +3462,90 @@
         <v>16</v>
       </c>
       <c r="B29" s="16">
-        <v>5000</v>
+        <f>600*4*B3</f>
+        <v>4800</v>
       </c>
       <c r="C29" s="17">
-        <v>5000</v>
+        <f>600*4*C12</f>
+        <v>4800</v>
       </c>
       <c r="D29" s="17">
-        <v>5000</v>
+        <f>600*4*D12</f>
+        <v>4800</v>
       </c>
       <c r="E29" s="17">
-        <v>5000</v>
+        <f>600*4*E12</f>
+        <v>9600</v>
       </c>
       <c r="F29" s="21">
-        <v>10000</v>
+        <f>600*4*F12</f>
+        <v>9600</v>
       </c>
       <c r="G29" s="21">
-        <v>10000</v>
+        <f t="shared" ref="G29:L29" si="63">600*4*G12</f>
+        <v>9600</v>
       </c>
       <c r="H29" s="21">
-        <v>10000</v>
+        <f t="shared" si="63"/>
+        <v>14400</v>
       </c>
       <c r="I29" s="21">
-        <v>10000</v>
+        <f t="shared" si="63"/>
+        <v>14400</v>
       </c>
       <c r="J29" s="21">
-        <v>15000</v>
+        <f t="shared" si="63"/>
+        <v>14400</v>
       </c>
       <c r="K29" s="21">
-        <v>15000</v>
+        <f t="shared" si="63"/>
+        <v>19200</v>
       </c>
       <c r="L29" s="21">
-        <v>15000</v>
+        <f t="shared" si="63"/>
+        <v>19200</v>
       </c>
       <c r="M29" s="22">
-        <v>15000</v>
-      </c>
-      <c r="N29" s="14"/>
+        <f>600*4*M12</f>
+        <v>19200</v>
+      </c>
+      <c r="N29" s="81"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
-      <c r="F30" s="21">
-        <v>10000</v>
-      </c>
-      <c r="G30" s="21">
-        <v>10000</v>
-      </c>
-      <c r="H30" s="21">
-        <v>10000</v>
-      </c>
-      <c r="I30" s="21">
-        <v>10000</v>
-      </c>
-      <c r="J30" s="21">
-        <v>10000</v>
-      </c>
-      <c r="K30" s="21">
-        <v>20000</v>
-      </c>
-      <c r="L30" s="21">
-        <v>20000</v>
-      </c>
-      <c r="M30" s="22">
-        <v>20000</v>
-      </c>
-      <c r="N30" s="14"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="81"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
-      <c r="F31" s="21">
-        <v>100000</v>
-      </c>
+      <c r="F31" s="21"/>
       <c r="G31" s="21"/>
-      <c r="H31" s="21">
-        <v>50000</v>
-      </c>
+      <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="21">
-        <v>200000</v>
-      </c>
+      <c r="K31" s="21"/>
       <c r="L31" s="21"/>
       <c r="M31" s="22"/>
-      <c r="N31" s="14"/>
+      <c r="N31" s="81"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="28" t="s">
@@ -3530,169 +3587,169 @@
       <c r="M32" s="34">
         <v>20000</v>
       </c>
-      <c r="N32" s="14"/>
+      <c r="N32" s="81"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1">
       <c r="B33" s="16">
         <f>SUM(B29:B32)</f>
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="C33" s="17">
-        <f t="shared" ref="C33:M33" si="62">SUM(C29:C32)</f>
-        <v>10000</v>
+        <f t="shared" ref="C33:M33" si="64">SUM(C29:C32)</f>
+        <v>9800</v>
       </c>
       <c r="D33" s="17">
-        <f t="shared" si="62"/>
-        <v>10000</v>
+        <f t="shared" si="64"/>
+        <v>9800</v>
       </c>
       <c r="E33" s="17">
-        <f t="shared" si="62"/>
-        <v>15000</v>
+        <f t="shared" si="64"/>
+        <v>19600</v>
       </c>
       <c r="F33" s="17">
-        <f t="shared" si="62"/>
-        <v>130000</v>
+        <f t="shared" si="64"/>
+        <v>19600</v>
       </c>
       <c r="G33" s="17">
-        <f t="shared" si="62"/>
-        <v>30000</v>
+        <f t="shared" si="64"/>
+        <v>19600</v>
       </c>
       <c r="H33" s="17">
-        <f t="shared" si="62"/>
-        <v>85000</v>
+        <f t="shared" si="64"/>
+        <v>29400</v>
       </c>
       <c r="I33" s="17">
-        <f t="shared" si="62"/>
-        <v>35000</v>
+        <f t="shared" si="64"/>
+        <v>29400</v>
       </c>
       <c r="J33" s="17">
-        <f t="shared" si="62"/>
-        <v>40000</v>
+        <f t="shared" si="64"/>
+        <v>29400</v>
       </c>
       <c r="K33" s="17">
-        <f t="shared" si="62"/>
-        <v>255000</v>
+        <f t="shared" si="64"/>
+        <v>39200</v>
       </c>
       <c r="L33" s="17">
-        <f t="shared" si="62"/>
-        <v>55000</v>
+        <f t="shared" si="64"/>
+        <v>39200</v>
       </c>
       <c r="M33" s="18">
-        <f t="shared" si="62"/>
-        <v>55000</v>
-      </c>
-      <c r="N33" s="14">
+        <f t="shared" si="64"/>
+        <v>39200</v>
+      </c>
+      <c r="N33" s="81">
         <f>SUM(B33:M33)*-1</f>
-        <v>-730000</v>
+        <v>-294000</v>
       </c>
     </row>
     <row r="34" spans="2:15" ht="15.75" thickBot="1">
       <c r="B34" s="23">
         <f>B16+B19+B22+B25+B28+B33</f>
-        <v>14300</v>
+        <v>18200</v>
       </c>
       <c r="C34" s="24">
-        <f t="shared" ref="C34:M34" si="63">C16+C19+C22+C25+C28+C33</f>
-        <v>59600</v>
+        <f t="shared" ref="C34:M34" si="65">C16+C19+C22+C25+C28+C33</f>
+        <v>18200</v>
       </c>
       <c r="D34" s="24">
-        <f t="shared" si="63"/>
-        <v>104900</v>
+        <f t="shared" si="65"/>
+        <v>18200</v>
       </c>
       <c r="E34" s="24">
-        <f t="shared" si="63"/>
-        <v>114200</v>
+        <f t="shared" si="65"/>
+        <v>52400</v>
       </c>
       <c r="F34" s="24">
-        <f t="shared" si="63"/>
-        <v>242100</v>
+        <f t="shared" si="65"/>
+        <v>58640</v>
       </c>
       <c r="G34" s="24">
-        <f t="shared" si="63"/>
-        <v>151520</v>
+        <f t="shared" si="65"/>
+        <v>59160</v>
       </c>
       <c r="H34" s="24">
-        <f t="shared" si="63"/>
-        <v>295940</v>
+        <f t="shared" si="65"/>
+        <v>108960</v>
       </c>
       <c r="I34" s="24">
-        <f t="shared" si="63"/>
-        <v>251160</v>
+        <f t="shared" si="65"/>
+        <v>114960</v>
       </c>
       <c r="J34" s="24">
-        <f t="shared" si="63"/>
-        <v>296680</v>
+        <f t="shared" si="65"/>
+        <v>115260</v>
       </c>
       <c r="K34" s="24">
-        <f t="shared" si="63"/>
-        <v>561200</v>
+        <f t="shared" si="65"/>
+        <v>189680</v>
       </c>
       <c r="L34" s="24">
-        <f t="shared" si="63"/>
-        <v>370720</v>
+        <f t="shared" si="65"/>
+        <v>189680</v>
       </c>
       <c r="M34" s="25">
-        <f t="shared" si="63"/>
-        <v>375240</v>
-      </c>
-      <c r="N34" s="40">
+        <f t="shared" si="65"/>
+        <v>189680</v>
+      </c>
+      <c r="N34" s="84">
         <f>SUM(B34:M34)</f>
-        <v>2837560</v>
+        <v>1133020</v>
       </c>
       <c r="O34" s="14"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" thickBot="1">
       <c r="B35" s="23">
-        <f t="shared" ref="B35:M35" si="64">B9-B34</f>
-        <v>15700</v>
+        <f t="shared" ref="B35:M35" si="66">B9-B34</f>
+        <v>21800</v>
       </c>
       <c r="C35" s="24">
-        <f t="shared" si="64"/>
-        <v>40400</v>
+        <f t="shared" si="66"/>
+        <v>21800</v>
       </c>
       <c r="D35" s="24">
-        <f t="shared" si="64"/>
-        <v>65100</v>
+        <f t="shared" si="66"/>
+        <v>21800</v>
       </c>
       <c r="E35" s="24">
-        <f t="shared" si="64"/>
-        <v>85800</v>
+        <f t="shared" si="66"/>
+        <v>27600</v>
       </c>
       <c r="F35" s="24">
-        <f t="shared" si="64"/>
-        <v>47900</v>
+        <f t="shared" si="66"/>
+        <v>45360</v>
       </c>
       <c r="G35" s="24">
-        <f t="shared" si="64"/>
-        <v>180480</v>
+        <f t="shared" si="66"/>
+        <v>96840</v>
       </c>
       <c r="H35" s="24">
-        <f t="shared" si="64"/>
-        <v>158060</v>
+        <f t="shared" si="66"/>
+        <v>47040</v>
       </c>
       <c r="I35" s="24">
-        <f t="shared" si="64"/>
-        <v>324840</v>
+        <f t="shared" si="66"/>
+        <v>41040</v>
       </c>
       <c r="J35" s="24">
-        <f t="shared" si="64"/>
-        <v>371320</v>
+        <f t="shared" si="66"/>
+        <v>70740</v>
       </c>
       <c r="K35" s="24">
-        <f t="shared" si="64"/>
-        <v>158800</v>
+        <f t="shared" si="66"/>
+        <v>58320</v>
       </c>
       <c r="L35" s="24">
-        <f t="shared" si="64"/>
-        <v>401280</v>
+        <f t="shared" si="66"/>
+        <v>58320</v>
       </c>
       <c r="M35" s="25">
-        <f t="shared" si="64"/>
-        <v>448760</v>
-      </c>
-      <c r="N35" s="39">
+        <f t="shared" si="66"/>
+        <v>58320</v>
+      </c>
+      <c r="N35" s="85">
         <f>SUM(B35:M35)</f>
-        <v>2298440</v>
+        <v>568980</v>
       </c>
       <c r="O35" s="14"/>
     </row>
@@ -3709,6 +3766,8 @@
     <mergeCell ref="A17:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3729,7 +3788,7 @@
   <dimension ref="A18:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B20" sqref="B20:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3781,40 +3840,52 @@
         <v>5</v>
       </c>
       <c r="B19" s="13">
-        <v>30000</v>
+        <f>Exact!B9</f>
+        <v>40000</v>
       </c>
       <c r="C19" s="13">
-        <v>100000</v>
+        <f>Exact!C9</f>
+        <v>40000</v>
       </c>
       <c r="D19" s="13">
-        <v>170000</v>
+        <f>Exact!D9</f>
+        <v>40000</v>
       </c>
       <c r="E19" s="13">
-        <v>200000</v>
+        <f>Exact!E9</f>
+        <v>80000</v>
       </c>
       <c r="F19" s="13">
-        <v>290000</v>
+        <f>Exact!F9</f>
+        <v>104000</v>
       </c>
       <c r="G19" s="13">
-        <v>332000</v>
+        <f>Exact!G9</f>
+        <v>156000</v>
       </c>
       <c r="H19" s="13">
-        <v>454000</v>
+        <f>Exact!H9</f>
+        <v>156000</v>
       </c>
       <c r="I19" s="13">
-        <v>576000</v>
+        <f>Exact!I9</f>
+        <v>156000</v>
       </c>
       <c r="J19" s="13">
-        <v>668000</v>
+        <f>Exact!J9</f>
+        <v>186000</v>
       </c>
       <c r="K19" s="13">
-        <v>720000</v>
+        <f>Exact!K9</f>
+        <v>248000</v>
       </c>
       <c r="L19" s="13">
-        <v>772000</v>
+        <f>Exact!L9</f>
+        <v>248000</v>
       </c>
       <c r="M19" s="13">
-        <v>824000</v>
+        <f>Exact!M9</f>
+        <v>248000</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
@@ -3824,40 +3895,52 @@
         <v>6</v>
       </c>
       <c r="B20" s="13">
-        <v>14300</v>
+        <f>Exact!B34</f>
+        <v>18200</v>
       </c>
       <c r="C20" s="13">
-        <v>59600</v>
+        <f>Exact!C34</f>
+        <v>18200</v>
       </c>
       <c r="D20" s="13">
-        <v>104900</v>
+        <f>Exact!D34</f>
+        <v>18200</v>
       </c>
       <c r="E20" s="13">
-        <v>114200</v>
+        <f>Exact!E34</f>
+        <v>52400</v>
       </c>
       <c r="F20" s="13">
-        <v>242100</v>
+        <f>Exact!F34</f>
+        <v>58640</v>
       </c>
       <c r="G20" s="13">
-        <v>151520</v>
+        <f>Exact!G34</f>
+        <v>59160</v>
       </c>
       <c r="H20" s="13">
-        <v>295940</v>
+        <f>Exact!H34</f>
+        <v>108960</v>
       </c>
       <c r="I20" s="13">
-        <v>251160</v>
+        <f>Exact!I34</f>
+        <v>114960</v>
       </c>
       <c r="J20" s="13">
-        <v>296680</v>
+        <f>Exact!J34</f>
+        <v>115260</v>
       </c>
       <c r="K20" s="13">
-        <v>561200</v>
+        <f>Exact!K34</f>
+        <v>189680</v>
       </c>
       <c r="L20" s="13">
-        <v>370720</v>
+        <f>Exact!L34</f>
+        <v>189680</v>
       </c>
       <c r="M20" s="13">
-        <v>375240</v>
+        <f>Exact!M34</f>
+        <v>189680</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
@@ -3872,9 +3955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A19:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3927,40 +4008,52 @@
         <v>5</v>
       </c>
       <c r="B20" s="13">
-        <v>30000</v>
+        <f>Exact!B9</f>
+        <v>40000</v>
       </c>
       <c r="C20" s="13">
-        <v>100000</v>
+        <f>Exact!C9</f>
+        <v>40000</v>
       </c>
       <c r="D20" s="13">
-        <v>170000</v>
+        <f>Exact!D9</f>
+        <v>40000</v>
       </c>
       <c r="E20" s="13">
-        <v>200000</v>
+        <f>Exact!E9</f>
+        <v>80000</v>
       </c>
       <c r="F20" s="13">
-        <v>290000</v>
+        <f>Exact!F9</f>
+        <v>104000</v>
       </c>
       <c r="G20" s="13">
-        <v>332000</v>
+        <f>Exact!G9</f>
+        <v>156000</v>
       </c>
       <c r="H20" s="13">
-        <v>454000</v>
+        <f>Exact!H9</f>
+        <v>156000</v>
       </c>
       <c r="I20" s="13">
-        <v>576000</v>
+        <f>Exact!I9</f>
+        <v>156000</v>
       </c>
       <c r="J20" s="13">
-        <v>668000</v>
+        <f>Exact!J9</f>
+        <v>186000</v>
       </c>
       <c r="K20" s="13">
-        <v>720000</v>
+        <f>Exact!K9</f>
+        <v>248000</v>
       </c>
       <c r="L20" s="13">
-        <v>772000</v>
+        <f>Exact!L9</f>
+        <v>248000</v>
       </c>
       <c r="M20" s="13">
-        <v>824000</v>
+        <f>Exact!M9</f>
+        <v>248000</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
@@ -3970,40 +4063,52 @@
         <v>6</v>
       </c>
       <c r="B21" s="13">
-        <v>14300</v>
+        <f>Exact!B34</f>
+        <v>18200</v>
       </c>
       <c r="C21" s="13">
-        <v>59600</v>
+        <f>Exact!C34</f>
+        <v>18200</v>
       </c>
       <c r="D21" s="13">
-        <v>104900</v>
+        <f>Exact!D34</f>
+        <v>18200</v>
       </c>
       <c r="E21" s="13">
-        <v>114200</v>
+        <f>Exact!E34</f>
+        <v>52400</v>
       </c>
       <c r="F21" s="13">
-        <v>242100</v>
+        <f>Exact!F34</f>
+        <v>58640</v>
       </c>
       <c r="G21" s="13">
-        <v>151520</v>
+        <f>Exact!G34</f>
+        <v>59160</v>
       </c>
       <c r="H21" s="13">
-        <v>295940</v>
+        <f>Exact!H34</f>
+        <v>108960</v>
       </c>
       <c r="I21" s="13">
-        <v>251160</v>
+        <f>Exact!I34</f>
+        <v>114960</v>
       </c>
       <c r="J21" s="13">
-        <v>296680</v>
+        <f>Exact!J34</f>
+        <v>115260</v>
       </c>
       <c r="K21" s="13">
-        <v>561200</v>
+        <f>Exact!K34</f>
+        <v>189680</v>
       </c>
       <c r="L21" s="13">
-        <v>370720</v>
+        <f>Exact!L34</f>
+        <v>189680</v>
       </c>
       <c r="M21" s="13">
-        <v>375240</v>
+        <f>Exact!M34</f>
+        <v>189680</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
@@ -4014,51 +4119,51 @@
       </c>
       <c r="B22" s="13">
         <f>SUM($B$20:B20)</f>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C22" s="13">
         <f>SUM($B$20:C20)</f>
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="D22" s="13">
         <f>SUM($B$20:D20)</f>
-        <v>300000</v>
+        <v>120000</v>
       </c>
       <c r="E22" s="13">
         <f>SUM($B$20:E20)</f>
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="F22" s="13">
         <f>SUM($B$20:F20)</f>
-        <v>790000</v>
+        <v>304000</v>
       </c>
       <c r="G22" s="13">
         <f>SUM($B$20:G20)</f>
-        <v>1122000</v>
+        <v>460000</v>
       </c>
       <c r="H22" s="13">
         <f>SUM($B$20:H20)</f>
-        <v>1576000</v>
+        <v>616000</v>
       </c>
       <c r="I22" s="13">
         <f>SUM($B$20:I20)</f>
-        <v>2152000</v>
+        <v>772000</v>
       </c>
       <c r="J22" s="13">
         <f>SUM($B$20:J20)</f>
-        <v>2820000</v>
+        <v>958000</v>
       </c>
       <c r="K22" s="13">
         <f>SUM($B$20:K20)</f>
-        <v>3540000</v>
+        <v>1206000</v>
       </c>
       <c r="L22" s="13">
         <f>SUM($B$20:L20)</f>
-        <v>4312000</v>
+        <v>1454000</v>
       </c>
       <c r="M22" s="13">
         <f>SUM($B$20:M20)</f>
-        <v>5136000</v>
+        <v>1702000</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -4067,51 +4172,51 @@
       </c>
       <c r="B23" s="13">
         <f>SUM($B$21:B21)</f>
-        <v>14300</v>
+        <v>18200</v>
       </c>
       <c r="C23" s="13">
         <f>SUM($B$21:C21)</f>
-        <v>73900</v>
+        <v>36400</v>
       </c>
       <c r="D23" s="13">
         <f>SUM($B$21:D21)</f>
-        <v>178800</v>
+        <v>54600</v>
       </c>
       <c r="E23" s="13">
         <f>SUM($B$21:E21)</f>
-        <v>293000</v>
+        <v>107000</v>
       </c>
       <c r="F23" s="13">
         <f>SUM($B$21:F21)</f>
-        <v>535100</v>
+        <v>165640</v>
       </c>
       <c r="G23" s="13">
         <f>SUM($B$21:G21)</f>
-        <v>686620</v>
+        <v>224800</v>
       </c>
       <c r="H23" s="13">
         <f>SUM($B$21:H21)</f>
-        <v>982560</v>
+        <v>333760</v>
       </c>
       <c r="I23" s="13">
         <f>SUM($B$21:I21)</f>
-        <v>1233720</v>
+        <v>448720</v>
       </c>
       <c r="J23" s="13">
         <f>SUM($B$21:J21)</f>
-        <v>1530400</v>
+        <v>563980</v>
       </c>
       <c r="K23" s="13">
         <f>SUM($B$21:K21)</f>
-        <v>2091600</v>
+        <v>753660</v>
       </c>
       <c r="L23" s="13">
         <f>SUM($B$21:L21)</f>
-        <v>2462320</v>
+        <v>943340</v>
       </c>
       <c r="M23" s="13">
         <f>SUM($B$21:M21)</f>
-        <v>2837560</v>
+        <v>1133020</v>
       </c>
     </row>
     <row r="24" spans="1:15">

--- a/Project/School/Revenue Cost Model.xlsx
+++ b/Project/School/Revenue Cost Model.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Product Definition" sheetId="4" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Cost - Benifit" sheetId="1" r:id="rId4"/>
     <sheet name="Cumulative" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -171,12 +171,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_([$INR]\ * #,##0.00_);_([$INR]\ * \(#,##0.00\);_([$INR]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,6 +801,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -843,12 +849,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,12 +865,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1089,19 +1101,30 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="77071104"/>
-        <c:axId val="77072640"/>
+        <c:smooth val="0"/>
+        <c:axId val="117355648"/>
+        <c:axId val="117357184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="77071104"/>
+        <c:axId val="117355648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1113,17 +1136,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77072640"/>
+        <c:crossAx val="117357184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="77072640"/>
+        <c:axId val="117357184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1143,9 +1167,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1157,7 +1183,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77071104"/>
+        <c:crossAx val="117355648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1165,6 +1191,7 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1178,6 +1205,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1189,12 +1217,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
+      <c:areaChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1257,46 +1297,6 @@
           <c:val>
             <c:numRef>
               <c:f>Cumulative!$B$20:$M$20</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>104000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>156000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>156000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>156000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>186000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>248000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>248000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>248000</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1362,46 +1362,6 @@
           <c:val>
             <c:numRef>
               <c:f>Cumulative!$B$21:$M$21</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>18200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>52400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58640</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59160</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>108960</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>114960</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>115260</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>189680</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>189680</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>189680</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1419,9 +1379,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Cumulative!$B$19:$M$19</c:f>
@@ -1512,7 +1469,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1528,9 +1484,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Cumulative!$B$19:$M$19</c:f>
@@ -1621,19 +1574,28 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="1"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="77120256"/>
-        <c:axId val="77121792"/>
-      </c:lineChart>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="117769728"/>
+        <c:axId val="117771264"/>
+      </c:areaChart>
       <c:dateAx>
-        <c:axId val="77120256"/>
+        <c:axId val="117769728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1645,20 +1607,23 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77121792"/>
+        <c:crossAx val="117771264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="77121792"/>
+        <c:axId val="117771264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1670,14 +1635,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77120256"/>
+        <c:crossAx val="117769728"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1691,6 +1657,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1845,6 +1812,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1879,6 +1847,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2054,17 +2023,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
@@ -2075,7 +2044,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1">
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="41" t="s">
         <v>28</v>
       </c>
@@ -2086,11 +2055,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="68" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="74" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="40" t="s">
@@ -2103,9 +2072,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B4" s="67"/>
-      <c r="C4" s="69"/>
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="73"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
@@ -2116,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15.75" thickBot="1">
+    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
@@ -2133,7 +2102,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
@@ -2150,7 +2119,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>31</v>
       </c>
@@ -2167,7 +2136,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>36</v>
       </c>
@@ -2184,7 +2153,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>26</v>
       </c>
@@ -2199,7 +2168,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
@@ -2214,7 +2183,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>33</v>
       </c>
@@ -2227,14 +2196,14 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="6" customHeight="1" thickBot="1">
+    <row r="12" spans="2:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="56"/>
       <c r="C12" s="57"/>
       <c r="D12" s="58"/>
       <c r="E12" s="58"/>
       <c r="F12" s="58"/>
     </row>
-    <row r="13" spans="2:6" ht="15.75" thickBot="1">
+    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="45" t="s">
         <v>4</v>
       </c>
@@ -2252,7 +2221,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="48" t="s">
         <v>2</v>
       </c>
@@ -2269,7 +2238,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15.75" thickBot="1">
+    <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="51" t="s">
         <v>3</v>
       </c>
@@ -2286,7 +2255,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15.75" thickBot="1">
+    <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="54"/>
       <c r="C16" s="55"/>
       <c r="D16" s="61">
@@ -2302,19 +2271,19 @@
         <v>69000</v>
       </c>
     </row>
-    <row r="20" spans="5:6">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="5:6">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="5:6">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="5:6">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
@@ -2329,24 +2298,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="28" customWidth="1"/>
     <col min="2" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="66" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="15">
         <v>42370</v>
       </c>
@@ -2384,24 +2353,24 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="B2" s="75" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="78" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="63">
@@ -2448,8 +2417,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="78"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="84"/>
       <c r="B4" s="16">
         <f>'Product Definition'!D13</f>
         <v>20000</v>
@@ -2502,8 +2471,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="78"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="84"/>
       <c r="B5" s="32">
         <f>B3*B4</f>
         <v>40000</v>
@@ -2552,13 +2521,13 @@
         <f t="shared" si="0"/>
         <v>248000</v>
       </c>
-      <c r="N5" s="81">
+      <c r="N5" s="67">
         <f>SUM(B5:M5)</f>
         <v>1702000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="1.5" hidden="1" customHeight="1">
-      <c r="A6" s="79" t="s">
+    <row r="6" spans="1:16" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="85" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="19"/>
@@ -2592,8 +2561,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="1.5" hidden="1" customHeight="1">
-      <c r="A7" s="79"/>
+    <row r="7" spans="1:16" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="85"/>
       <c r="B7" s="19"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -2634,8 +2603,8 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1">
-      <c r="A8" s="79"/>
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="85"/>
       <c r="B8" s="30">
         <f t="shared" ref="B8" si="1">B6*B7</f>
         <v>0</v>
@@ -2684,12 +2653,12 @@
         <f t="shared" ref="M8" si="12">M6*M7</f>
         <v>0</v>
       </c>
-      <c r="N8" s="82">
+      <c r="N8" s="68">
         <f>SUM(B8:M8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27"/>
       <c r="B9" s="39">
         <f t="shared" ref="B9:M9" si="13">B5+B8</f>
@@ -2739,13 +2708,13 @@
         <f t="shared" si="13"/>
         <v>248000</v>
       </c>
-      <c r="N9" s="83">
+      <c r="N9" s="69">
         <f>SUM(B9:M9)</f>
         <v>1702000</v>
       </c>
       <c r="O9" s="26"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -2759,26 +2728,26 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
-      <c r="N10" s="82"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1">
-      <c r="B11" s="72" t="s">
+      <c r="N10" s="68"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="74"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="78" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="84" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="63">
@@ -2818,8 +2787,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="78"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="84"/>
       <c r="B13" s="16">
         <f>B12*2000</f>
         <v>4000</v>
@@ -2872,8 +2841,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="78"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="84"/>
       <c r="B14" s="16">
         <v>0</v>
       </c>
@@ -2911,8 +2880,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="78"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="84"/>
       <c r="B15" s="16">
         <f>B5*0.01</f>
         <v>400</v>
@@ -2965,8 +2934,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A16" s="78"/>
+    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="84"/>
       <c r="B16" s="30">
         <f>(B12*B13)+B14+B15</f>
         <v>8400</v>
@@ -3015,13 +2984,13 @@
         <f>(M12*M13) + M14+M15</f>
         <v>130480</v>
       </c>
-      <c r="N16" s="81">
+      <c r="N16" s="67">
         <f>SUM(B16:M16) * -1</f>
         <v>-737020</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="0.75" hidden="1" customHeight="1">
-      <c r="A17" s="78" t="s">
+    <row r="17" spans="1:16" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="84" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="19"/>
@@ -3055,8 +3024,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1">
-      <c r="A18" s="78"/>
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="84"/>
       <c r="B18" s="32"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -3088,8 +3057,8 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="0.75" hidden="1" customHeight="1">
-      <c r="A19" s="78"/>
+    <row r="19" spans="1:16" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="84"/>
       <c r="B19" s="30">
         <f t="shared" ref="B19" si="17">B17*B18</f>
         <v>0</v>
@@ -3138,13 +3107,13 @@
         <f t="shared" ref="M19" si="28">M17*M18</f>
         <v>0</v>
       </c>
-      <c r="N19" s="81">
+      <c r="N19" s="67">
         <f>SUM(B19:M19)*-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="70" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="76" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="19"/>
@@ -3163,8 +3132,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="70"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="76"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
@@ -3184,8 +3153,8 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="70"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="76"/>
       <c r="B22" s="32">
         <f t="shared" ref="B22" si="29">B20*B21</f>
         <v>0</v>
@@ -3234,13 +3203,13 @@
         <f t="shared" ref="M22" si="40">M20*M21</f>
         <v>0</v>
       </c>
-      <c r="N22" s="81">
+      <c r="N22" s="67">
         <f>SUM(F22:M22)*-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="70" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="76" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="19"/>
@@ -3275,8 +3244,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="70"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="76"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="36"/>
@@ -3306,8 +3275,8 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="70"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="76"/>
       <c r="B25" s="32">
         <f t="shared" ref="B25:C25" si="41">B23*B24</f>
         <v>0</v>
@@ -3356,13 +3325,13 @@
         <f t="shared" ref="M25" si="51">M23*M24</f>
         <v>20000</v>
       </c>
-      <c r="N25" s="81">
+      <c r="N25" s="67">
         <f>SUM(F25:M25)*-1</f>
         <v>-102000</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="71" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="77" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="19"/>
@@ -3378,8 +3347,8 @@
       <c r="L26" s="21"/>
       <c r="M26" s="22"/>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="71"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="77"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
@@ -3402,8 +3371,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="71"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="77"/>
       <c r="B28" s="30">
         <f t="shared" ref="B28" si="52">B26*B27</f>
         <v>0</v>
@@ -3452,12 +3421,12 @@
         <f t="shared" ref="M28" si="62">M26*M27</f>
         <v>0</v>
       </c>
-      <c r="N28" s="81">
+      <c r="N28" s="67">
         <f>SUM(K28:M28)*-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>16</v>
       </c>
@@ -3509,9 +3478,9 @@
         <f>600*4*M12</f>
         <v>19200</v>
       </c>
-      <c r="N29" s="81"/>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="N29" s="67"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>18</v>
       </c>
@@ -3527,9 +3496,9 @@
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
       <c r="M30" s="22"/>
-      <c r="N30" s="81"/>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="N30" s="67"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>19</v>
       </c>
@@ -3545,9 +3514,9 @@
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
       <c r="M31" s="22"/>
-      <c r="N31" s="81"/>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="N31" s="67"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>15</v>
       </c>
@@ -3587,9 +3556,9 @@
       <c r="M32" s="34">
         <v>20000</v>
       </c>
-      <c r="N32" s="81"/>
-    </row>
-    <row r="33" spans="2:15" ht="15.75" thickBot="1">
+      <c r="N32" s="67"/>
+    </row>
+    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16">
         <f>SUM(B29:B32)</f>
         <v>9800</v>
@@ -3638,12 +3607,12 @@
         <f t="shared" si="64"/>
         <v>39200</v>
       </c>
-      <c r="N33" s="81">
+      <c r="N33" s="67">
         <f>SUM(B33:M33)*-1</f>
         <v>-294000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="15.75" thickBot="1">
+    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="23">
         <f>B16+B19+B22+B25+B28+B33</f>
         <v>18200</v>
@@ -3692,13 +3661,13 @@
         <f t="shared" si="65"/>
         <v>189680</v>
       </c>
-      <c r="N34" s="84">
+      <c r="N34" s="70">
         <f>SUM(B34:M34)</f>
         <v>1133020</v>
       </c>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="2:15" ht="15.75" thickBot="1">
+    <row r="35" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="23">
         <f t="shared" ref="B35:M35" si="66">B9-B34</f>
         <v>21800</v>
@@ -3747,7 +3716,7 @@
         <f t="shared" si="66"/>
         <v>58320</v>
       </c>
-      <c r="N35" s="85">
+      <c r="N35" s="71">
         <f>SUM(B35:M35)</f>
         <v>568980</v>
       </c>
@@ -3772,32 +3741,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A18:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:M20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>42370</v>
       </c>
@@ -3835,7 +3802,7 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -3890,7 +3857,7 @@
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -3952,12 +3919,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A19:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -3965,7 +3932,7 @@
     <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>42370</v>
       </c>
@@ -4003,7 +3970,7 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -4058,7 +4025,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -4113,7 +4080,7 @@
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -4166,7 +4133,7 @@
         <v>1702000</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -4219,7 +4186,7 @@
         <v>1133020</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>

--- a/Project/School/Revenue Cost Model.xlsx
+++ b/Project/School/Revenue Cost Model.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Definition" sheetId="4" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Cost - Benifit" sheetId="1" r:id="rId4"/>
     <sheet name="Cumulative" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -47,12 +47,286 @@
         </r>
       </text>
     </comment>
+    <comment ref="B31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Initial development cost</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Phase II development cost</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Office setup and laptop</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Office setup and laptop</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Phase III development cost</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="K17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sudarshan: Amount increased after training of deployment</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Initial development cost</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Phase II development cost</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Office setup and laptop</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Office setup and laptop</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Phase III development cost</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>Software Modules</t>
   </si>
@@ -114,9 +388,6 @@
     <t>Investment</t>
   </si>
   <si>
-    <t>Employee Bonus (1% of sales)</t>
-  </si>
-  <si>
     <t>Set Up Cost</t>
   </si>
   <si>
@@ -126,57 +397,108 @@
     <t>Sales Commision</t>
   </si>
   <si>
-    <t>Student Management</t>
+    <t>Deployment</t>
   </si>
   <si>
-    <t>Fees Management</t>
+    <t>Basic</t>
   </si>
   <si>
-    <t>Marks Management</t>
+    <t>Standard</t>
   </si>
   <si>
-    <t>Student/Billing</t>
+    <t>Extended</t>
   </si>
   <si>
-    <t>Phase I</t>
+    <t>Extreme</t>
   </si>
   <si>
-    <t>Phase II</t>
+    <t>Premium</t>
   </si>
   <si>
-    <t>Phase III</t>
+    <t>Price / Anum</t>
   </si>
   <si>
-    <t>SMS Broadcasting</t>
+    <t>SM + FM + DM</t>
   </si>
   <si>
-    <t>Admission Management</t>
+    <t>Subscription</t>
   </si>
   <si>
-    <t>Online Parent Login</t>
+    <t>Student Management (SM)</t>
   </si>
   <si>
-    <t>+ Marks + Admission</t>
+    <t>Fees Management (FM)</t>
   </si>
   <si>
-    <t>Phase II + Online parent login</t>
+    <t>SMS Broadcasting (SB)</t>
   </si>
   <si>
-    <t>Data Migration</t>
+    <t>Data Migration (DM)</t>
   </si>
   <si>
-    <t>Deployment</t>
+    <t>Marks Management (MM)</t>
+  </si>
+  <si>
+    <t>Admission Management (AM)</t>
+  </si>
+  <si>
+    <t>Online Login (OL)</t>
+  </si>
+  <si>
+    <t>Trasport Management (TM)</t>
+  </si>
+  <si>
+    <t>Pond</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Sea</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Primium</t>
+  </si>
+  <si>
+    <t>AMC</t>
+  </si>
+  <si>
+    <t>SM + FM + DM + MM + AM</t>
+  </si>
+  <si>
+    <t>SM + FM + DM + MM + AM + OL + TM</t>
+  </si>
+  <si>
+    <t>Employee Bonus</t>
+  </si>
+  <si>
+    <t>Profit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_([$INR]\ * #,##0.00_);_([$INR]\ * \(#,##0.00\);_([$INR]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,8 +527,21 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +596,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -525,17 +866,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -625,56 +955,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -710,11 +990,125 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -740,9 +1134,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -751,62 +1145,62 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,19 +1213,28 @@
     <xf numFmtId="3" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -849,6 +1252,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,24 +1306,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-IN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -952,40 +1381,40 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>40000</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40000</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40000</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80000</c:v>
+                  <c:v>86400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>104000</c:v>
+                  <c:v>216400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>156000</c:v>
+                  <c:v>324600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>156000</c:v>
+                  <c:v>324600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>156000</c:v>
+                  <c:v>324600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>186000</c:v>
+                  <c:v>426000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>248000</c:v>
+                  <c:v>568000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>248000</c:v>
+                  <c:v>568000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>248000</c:v>
+                  <c:v>568000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1061,70 +1490,59 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>18200</c:v>
+                  <c:v>118120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18200</c:v>
+                  <c:v>18120</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18200</c:v>
+                  <c:v>18120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52400</c:v>
+                  <c:v>136240</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58640</c:v>
+                  <c:v>165240</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59160</c:v>
+                  <c:v>76060</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>108960</c:v>
+                  <c:v>89860</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>114960</c:v>
+                  <c:v>195860</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>115260</c:v>
+                  <c:v>206000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>189680</c:v>
+                  <c:v>142000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>189680</c:v>
+                  <c:v>142000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>189680</c:v>
+                  <c:v>142000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="117355648"/>
-        <c:axId val="117357184"/>
+        <c:axId val="78448128"/>
+        <c:axId val="78449664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="117355648"/>
+        <c:axId val="78448128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1136,18 +1554,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117357184"/>
+        <c:crossAx val="78449664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="117357184"/>
+        <c:axId val="78449664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1167,11 +1584,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1183,7 +1598,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117355648"/>
+        <c:crossAx val="78448128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1191,7 +1606,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1205,11 +1619,10 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1217,24 +1630,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-IN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1362,6 +1763,46 @@
           <c:val>
             <c:numRef>
               <c:f>Cumulative!$B$21:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>118120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76060</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89860</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>195860</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>206000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>142000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>142000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>142000</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1431,40 +1872,40 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>40000</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80000</c:v>
+                  <c:v>86400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120000</c:v>
+                  <c:v>129600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200000</c:v>
+                  <c:v>216000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>304000</c:v>
+                  <c:v>432400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>460000</c:v>
+                  <c:v>757000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>616000</c:v>
+                  <c:v>1081600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>772000</c:v>
+                  <c:v>1406200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>958000</c:v>
+                  <c:v>1832200</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1206000</c:v>
+                  <c:v>2400200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1454000</c:v>
+                  <c:v>2968200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1702000</c:v>
+                  <c:v>3536200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1536,66 +1977,55 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>18200</c:v>
+                  <c:v>118120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36400</c:v>
+                  <c:v>136240</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54600</c:v>
+                  <c:v>154360</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107000</c:v>
+                  <c:v>290600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165640</c:v>
+                  <c:v>455840</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>224800</c:v>
+                  <c:v>531900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>333760</c:v>
+                  <c:v>621760</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>448720</c:v>
+                  <c:v>817620</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>563980</c:v>
+                  <c:v>1023620</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>753660</c:v>
+                  <c:v>1165620</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>943340</c:v>
+                  <c:v>1307620</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1133020</c:v>
+                  <c:v>1449620</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="117769728"/>
-        <c:axId val="117771264"/>
+        <c:axId val="78806016"/>
+        <c:axId val="78816000"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="117769728"/>
+        <c:axId val="78806016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1607,23 +2037,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117771264"/>
+        <c:crossAx val="78816000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="117771264"/>
+        <c:axId val="78816000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1635,7 +2062,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117769728"/>
+        <c:crossAx val="78806016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1643,7 +2070,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1656,12 +2082,11 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1812,7 +2237,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1847,7 +2271,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2023,274 +2446,477 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="41" t="s">
+    <row r="2" spans="2:10" ht="15.75" thickBot="1">
+      <c r="E2" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="J2" s="76"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="E3" s="68" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="73"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="69"/>
+      <c r="I3" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="69"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B4" s="71"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C5" s="8">
         <v>5000</v>
       </c>
-      <c r="D5" s="9">
-        <v>5000</v>
-      </c>
+      <c r="D5" s="8"/>
       <c r="E5" s="9">
         <v>5000</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="62"/>
+      <c r="G5" s="9">
         <v>5000</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="62"/>
+      <c r="I5" s="9">
+        <f>C5</f>
+        <v>5000</v>
+      </c>
+      <c r="J5" s="62"/>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5">
+        <f>C6</f>
+        <v>7000</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="5">
+        <f>C6</f>
+        <v>7000</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="5">
+        <f>C6</f>
+        <v>7000</v>
+      </c>
+      <c r="J6" s="63"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>12000</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5">
+        <f>C7+D7</f>
+        <v>15000</v>
+      </c>
+      <c r="H7" s="5">
+        <f>D7</f>
+        <v>12000</v>
+      </c>
+      <c r="I7" s="5">
+        <f>C7+D7</f>
+        <v>15000</v>
+      </c>
+      <c r="J7" s="5">
+        <f>D7</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5">
+        <f>C8</f>
+        <v>6000</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5">
+        <f>C8</f>
+        <v>6000</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="5">
+        <f t="shared" ref="I7:I12" si="0">C8</f>
+        <v>6000</v>
+      </c>
+      <c r="J8" s="63"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5">
+        <f>C9</f>
+        <v>5000</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="5">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="5">
+        <f>C10</f>
+        <v>5000</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8000</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="5">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="5">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="10"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="10"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B15" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="61">
+        <v>0.3</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52">
+        <f>(E5*$C$15)+(E6*$C$15)+(E7*$C$15)+(E9*$C$15)+(E10*$C$15)+(E11*$C$15)+(E12*$C$15)</f>
+        <v>3600</v>
+      </c>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52">
+        <f>(G5*$C$15)+(G6*$C$15)+(G7*$C$15)+(G9*$C$15)+(G10*$C$15)+(G11*$C$15)+(G12*$C$15)</f>
+        <v>11100</v>
+      </c>
+      <c r="H15" s="52">
+        <f>H7</f>
+        <v>12000</v>
+      </c>
+      <c r="I15" s="52">
+        <f>(I5*$C$15)+(I6*$C$15)+(I7*$C$15)+(I9*$C$15)+(I10*$C$15)+(I11*$C$15)+(I12*$C$15)</f>
+        <v>15000</v>
+      </c>
+      <c r="J15" s="52">
+        <f>J7</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B16" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55">
+        <f>SUM(E5:E14)</f>
+        <v>18000</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55">
+        <f t="shared" ref="F16:J16" si="1">SUM(G5:G14)</f>
+        <v>43000</v>
+      </c>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55">
+        <f t="shared" si="1"/>
+        <v>56000</v>
+      </c>
+      <c r="J16" s="55"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8">
+        <v>25000</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="56">
+        <f>C17</f>
+        <v>25000</v>
+      </c>
+      <c r="F17" s="64"/>
+      <c r="G17" s="56">
+        <v>20000</v>
+      </c>
+      <c r="H17" s="64"/>
+      <c r="I17" s="56">
+        <v>20000</v>
+      </c>
+      <c r="J17" s="64"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B18" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="51">
+        <v>8000</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52">
+        <v>8000</v>
+      </c>
+      <c r="F18" s="65"/>
+      <c r="G18" s="52">
+        <v>8000</v>
+      </c>
+      <c r="H18" s="65"/>
+      <c r="I18" s="52">
+        <v>8000</v>
+      </c>
+      <c r="J18" s="65"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="E19" s="4">
+        <f t="shared" ref="E19:J19" si="2">SUM(E16:E18)</f>
+        <v>51000</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <f>SUM(G16:G18)</f>
+        <v>71000</v>
+      </c>
+      <c r="H19" s="4">
+        <f>SUM(H16:H18)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>84000</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="E23" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="E24" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="E25" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8">
-        <v>5000</v>
-      </c>
-      <c r="D6" s="5">
-        <v>5000</v>
-      </c>
-      <c r="E6" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F6" s="5">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D7" s="5">
-        <v>5000</v>
-      </c>
-      <c r="E7" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F7" s="5">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D8" s="5">
-        <v>5000</v>
-      </c>
-      <c r="E8" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F8" s="5">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="F25" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5">
-        <v>3000</v>
-      </c>
-      <c r="F9" s="5">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5">
-        <v>3000</v>
-      </c>
-      <c r="F10" s="5">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47">
-        <f>SUM(D5:D11)</f>
-        <v>20000</v>
-      </c>
-      <c r="E13" s="47">
-        <f>SUM(E5:E11)</f>
-        <v>26000</v>
-      </c>
-      <c r="F13" s="47">
-        <f>SUM(F5:F11)</f>
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="49">
-        <v>30000</v>
-      </c>
-      <c r="D14" s="50">
-        <v>30000</v>
-      </c>
-      <c r="E14" s="50">
-        <v>30000</v>
-      </c>
-      <c r="F14" s="50">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="52">
-        <v>8000</v>
-      </c>
-      <c r="D15" s="53">
-        <v>8000</v>
-      </c>
-      <c r="E15" s="53">
-        <v>8000</v>
-      </c>
-      <c r="F15" s="53">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="61">
-        <f t="shared" ref="D16:F16" si="0">SUM(D13:D15)</f>
-        <v>58000</v>
-      </c>
-      <c r="E16" s="61">
-        <f>SUM(E13:E15)</f>
-        <v>64000</v>
-      </c>
-      <c r="F16" s="61">
-        <f t="shared" si="0"/>
-        <v>69000</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="G25" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="12">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2298,24 +2924,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="28" customWidth="1"/>
-    <col min="2" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="42" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="B1" s="15">
         <v>42370</v>
       </c>
@@ -2353,184 +2978,184 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+    <row r="2" spans="1:16">
+      <c r="B2" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="98">
         <v>2</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="40">
         <v>2</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="40">
         <v>2</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="40">
         <v>4</v>
       </c>
-      <c r="F3" s="64">
+      <c r="F3" s="40">
         <v>4</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="40">
         <v>6</v>
       </c>
-      <c r="H3" s="64">
+      <c r="H3" s="40">
         <v>6</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="40">
         <v>6</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="40">
         <v>6</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="40">
         <v>8</v>
       </c>
-      <c r="L3" s="64">
+      <c r="L3" s="40">
         <v>8</v>
       </c>
-      <c r="M3" s="65">
+      <c r="M3" s="99">
         <v>8</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P3">
         <f>SUM(B3:M3)</f>
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="16">
-        <f>'Product Definition'!D13</f>
-        <v>20000</v>
+    <row r="4" spans="1:16">
+      <c r="A4" s="85"/>
+      <c r="B4" s="100">
+        <f>'Product Definition'!E16</f>
+        <v>18000</v>
       </c>
       <c r="C4" s="17">
-        <f>'Product Definition'!D13</f>
-        <v>20000</v>
+        <f>'Product Definition'!E16</f>
+        <v>18000</v>
       </c>
       <c r="D4" s="17">
-        <f>'Product Definition'!D13</f>
-        <v>20000</v>
+        <f>'Product Definition'!E16</f>
+        <v>18000</v>
       </c>
       <c r="E4" s="17">
-        <f>'Product Definition'!D13</f>
-        <v>20000</v>
+        <f>'Product Definition'!E16</f>
+        <v>18000</v>
       </c>
       <c r="F4" s="17">
-        <f>'Product Definition'!E13</f>
-        <v>26000</v>
+        <f>'Product Definition'!G16</f>
+        <v>43000</v>
       </c>
       <c r="G4" s="17">
-        <f>'Product Definition'!E13</f>
-        <v>26000</v>
+        <f>'Product Definition'!G16</f>
+        <v>43000</v>
       </c>
       <c r="H4" s="17">
-        <f>'Product Definition'!E13</f>
-        <v>26000</v>
+        <f>'Product Definition'!G16</f>
+        <v>43000</v>
       </c>
       <c r="I4" s="17">
-        <f>'Product Definition'!E13</f>
-        <v>26000</v>
+        <f>'Product Definition'!G16</f>
+        <v>43000</v>
       </c>
       <c r="J4" s="17">
-        <f>'Product Definition'!F13</f>
-        <v>31000</v>
+        <f>'Product Definition'!I16</f>
+        <v>56000</v>
       </c>
       <c r="K4" s="17">
-        <f>'Product Definition'!F13</f>
-        <v>31000</v>
+        <f>'Product Definition'!I16</f>
+        <v>56000</v>
       </c>
       <c r="L4" s="17">
-        <f>'Product Definition'!F13</f>
-        <v>31000</v>
-      </c>
-      <c r="M4" s="18">
-        <f>'Product Definition'!F13</f>
-        <v>31000</v>
+        <f>'Product Definition'!I16</f>
+        <v>56000</v>
+      </c>
+      <c r="M4" s="101">
+        <f>'Product Definition'!I16</f>
+        <v>56000</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="32">
-        <f>B3*B4</f>
-        <v>40000</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="85"/>
+      <c r="B5" s="102">
+        <f>'Product Definition'!E15</f>
+        <v>3600</v>
       </c>
       <c r="C5" s="33">
-        <f>C3*C4</f>
-        <v>40000</v>
+        <f>'Product Definition'!E15</f>
+        <v>3600</v>
       </c>
       <c r="D5" s="33">
-        <f>D3*D4</f>
-        <v>40000</v>
+        <f>'Product Definition'!E15</f>
+        <v>3600</v>
       </c>
       <c r="E5" s="33">
-        <f t="shared" ref="E5:M5" si="0">E3*E4</f>
-        <v>80000</v>
+        <f>'Product Definition'!E15</f>
+        <v>3600</v>
       </c>
       <c r="F5" s="33">
-        <f t="shared" si="0"/>
-        <v>104000</v>
+        <f>'Product Definition'!G15</f>
+        <v>11100</v>
       </c>
       <c r="G5" s="33">
-        <f t="shared" si="0"/>
-        <v>156000</v>
+        <f>'Product Definition'!G15</f>
+        <v>11100</v>
       </c>
       <c r="H5" s="33">
-        <f t="shared" si="0"/>
-        <v>156000</v>
+        <f>'Product Definition'!G15</f>
+        <v>11100</v>
       </c>
       <c r="I5" s="33">
-        <f t="shared" si="0"/>
-        <v>156000</v>
+        <f>'Product Definition'!G15</f>
+        <v>11100</v>
       </c>
       <c r="J5" s="33">
-        <f t="shared" si="0"/>
-        <v>186000</v>
+        <f>'Product Definition'!I15</f>
+        <v>15000</v>
       </c>
       <c r="K5" s="33">
-        <f t="shared" si="0"/>
-        <v>248000</v>
+        <f>'Product Definition'!I15</f>
+        <v>15000</v>
       </c>
       <c r="L5" s="33">
-        <f t="shared" si="0"/>
-        <v>248000</v>
-      </c>
-      <c r="M5" s="34">
-        <f t="shared" si="0"/>
-        <v>248000</v>
-      </c>
-      <c r="N5" s="67">
+        <f>'Product Definition'!I15</f>
+        <v>15000</v>
+      </c>
+      <c r="M5" s="103">
+        <f>'Product Definition'!I15</f>
+        <v>15000</v>
+      </c>
+      <c r="N5" s="43">
         <f>SUM(B5:M5)</f>
-        <v>1702000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
+        <v>118800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21">
@@ -2557,164 +3182,164 @@
       <c r="L6" s="21">
         <v>0</v>
       </c>
-      <c r="M6" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="19"/>
+      <c r="M6" s="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="94"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21">
         <f>'Product Definition'!D14 + 'Product Definition'!D15</f>
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="21">
         <f>'Product Definition'!$D14+'Product Definition'!$D15</f>
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="21">
         <f>'Product Definition'!$D14+'Product Definition'!$D15</f>
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="H7" s="21">
         <f>'Product Definition'!$D14+'Product Definition'!$D15</f>
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="I7" s="21">
         <f>'Product Definition'!$D14+'Product Definition'!$D15</f>
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="21">
         <f>'Product Definition'!$D14+'Product Definition'!$D15</f>
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="21">
         <f>'Product Definition'!$D14+'Product Definition'!$D15</f>
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="L7" s="21">
         <f>'Product Definition'!$D14+'Product Definition'!$D15</f>
-        <v>38000</v>
-      </c>
-      <c r="M7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="104">
         <f>'Product Definition'!$D14+'Product Definition'!$D15</f>
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="30">
-        <f t="shared" ref="B8" si="1">B6*B7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="94"/>
+      <c r="B8" s="106">
+        <f t="shared" ref="B8" si="0">B6*B7</f>
         <v>0</v>
       </c>
       <c r="C8" s="29">
-        <f t="shared" ref="C8" si="2">C6*C7</f>
+        <f t="shared" ref="C8" si="1">C6*C7</f>
         <v>0</v>
       </c>
       <c r="D8" s="29">
-        <f t="shared" ref="D8" si="3">D6*D7</f>
+        <f t="shared" ref="D8" si="2">D6*D7</f>
         <v>0</v>
       </c>
       <c r="E8" s="29">
-        <f t="shared" ref="E8" si="4">E6*E7</f>
+        <f t="shared" ref="E8" si="3">E6*E7</f>
         <v>0</v>
       </c>
       <c r="F8" s="29">
-        <f t="shared" ref="F8" si="5">F6*F7</f>
+        <f t="shared" ref="F8" si="4">F6*F7</f>
         <v>0</v>
       </c>
       <c r="G8" s="29">
-        <f t="shared" ref="G8" si="6">G6*G7</f>
+        <f t="shared" ref="G8" si="5">G6*G7</f>
         <v>0</v>
       </c>
       <c r="H8" s="29">
-        <f t="shared" ref="H8" si="7">H6*H7</f>
+        <f t="shared" ref="H8" si="6">H6*H7</f>
         <v>0</v>
       </c>
       <c r="I8" s="29">
-        <f t="shared" ref="I8" si="8">I6*I7</f>
+        <f t="shared" ref="I8" si="7">I6*I7</f>
         <v>0</v>
       </c>
       <c r="J8" s="29">
-        <f t="shared" ref="J8" si="9">J6*J7</f>
+        <f t="shared" ref="J8" si="8">J6*J7</f>
         <v>0</v>
       </c>
       <c r="K8" s="29">
-        <f t="shared" ref="K8" si="10">K6*K7</f>
+        <f t="shared" ref="K8" si="9">K6*K7</f>
         <v>0</v>
       </c>
       <c r="L8" s="29">
-        <f t="shared" ref="L8" si="11">L6*L7</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="31">
-        <f t="shared" ref="M8" si="12">M6*M7</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="68">
+        <f t="shared" ref="L8" si="10">L6*L7</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="107">
+        <f t="shared" ref="M8" si="11">M6*M7</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="44">
         <f>SUM(B8:M8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="27"/>
-      <c r="B9" s="39">
-        <f t="shared" ref="B9:M9" si="13">B5+B8</f>
-        <v>40000</v>
-      </c>
-      <c r="C9" s="39">
-        <f t="shared" si="13"/>
-        <v>40000</v>
-      </c>
-      <c r="D9" s="39">
-        <f t="shared" si="13"/>
-        <v>40000</v>
-      </c>
-      <c r="E9" s="39">
-        <f t="shared" si="13"/>
-        <v>80000</v>
-      </c>
-      <c r="F9" s="39">
-        <f t="shared" si="13"/>
-        <v>104000</v>
-      </c>
-      <c r="G9" s="39">
-        <f t="shared" si="13"/>
-        <v>156000</v>
-      </c>
-      <c r="H9" s="39">
-        <f t="shared" si="13"/>
-        <v>156000</v>
-      </c>
-      <c r="I9" s="39">
-        <f t="shared" si="13"/>
-        <v>156000</v>
-      </c>
-      <c r="J9" s="39">
-        <f t="shared" si="13"/>
-        <v>186000</v>
-      </c>
-      <c r="K9" s="39">
-        <f t="shared" si="13"/>
-        <v>248000</v>
-      </c>
-      <c r="L9" s="39">
-        <f t="shared" si="13"/>
-        <v>248000</v>
-      </c>
-      <c r="M9" s="62">
-        <f t="shared" si="13"/>
-        <v>248000</v>
-      </c>
-      <c r="N9" s="69">
+      <c r="B9" s="108">
+        <f>(B4+B5+B8)*B3</f>
+        <v>43200</v>
+      </c>
+      <c r="C9" s="109">
+        <f t="shared" ref="C9:M9" si="12">(C4+C5+C8)*C3</f>
+        <v>43200</v>
+      </c>
+      <c r="D9" s="109">
+        <f t="shared" si="12"/>
+        <v>43200</v>
+      </c>
+      <c r="E9" s="109">
+        <f t="shared" si="12"/>
+        <v>86400</v>
+      </c>
+      <c r="F9" s="109">
+        <f t="shared" si="12"/>
+        <v>216400</v>
+      </c>
+      <c r="G9" s="109">
+        <f t="shared" si="12"/>
+        <v>324600</v>
+      </c>
+      <c r="H9" s="109">
+        <f t="shared" si="12"/>
+        <v>324600</v>
+      </c>
+      <c r="I9" s="109">
+        <f t="shared" si="12"/>
+        <v>324600</v>
+      </c>
+      <c r="J9" s="109">
+        <f t="shared" si="12"/>
+        <v>426000</v>
+      </c>
+      <c r="K9" s="109">
+        <f t="shared" si="12"/>
+        <v>568000</v>
+      </c>
+      <c r="L9" s="109">
+        <f t="shared" si="12"/>
+        <v>568000</v>
+      </c>
+      <c r="M9" s="110">
+        <f t="shared" si="12"/>
+        <v>568000</v>
+      </c>
+      <c r="N9" s="45">
         <f>SUM(B9:M9)</f>
-        <v>1702000</v>
+        <v>3536200</v>
       </c>
       <c r="O9" s="26"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1">
       <c r="A10" s="27"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -2728,67 +3353,67 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
-      <c r="N10" s="68"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="78" t="s">
+      <c r="N10" s="112"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B11" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="63">
+      <c r="B12" s="39">
         <v>2</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="40">
         <v>2</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="40">
         <v>2</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="40">
         <v>4</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="40">
         <v>4</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="40">
         <v>4</v>
       </c>
-      <c r="H12" s="64">
+      <c r="H12" s="40">
         <v>6</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="40">
         <v>6</v>
       </c>
-      <c r="J12" s="64">
+      <c r="J12" s="40">
         <v>6</v>
       </c>
-      <c r="K12" s="64">
+      <c r="K12" s="40">
         <v>8</v>
       </c>
-      <c r="L12" s="64">
+      <c r="L12" s="40">
         <v>8</v>
       </c>
-      <c r="M12" s="65">
+      <c r="M12" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
+    <row r="13" spans="1:16">
+      <c r="A13" s="85"/>
       <c r="B13" s="16">
         <f>B12*2000</f>
         <v>4000</v>
@@ -2798,39 +3423,39 @@
         <v>4000</v>
       </c>
       <c r="D13" s="17">
-        <f t="shared" ref="D13:L13" si="14">D12*2000</f>
+        <f t="shared" ref="D13:L13" si="13">D12*2000</f>
         <v>4000</v>
       </c>
       <c r="E13" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>8000</v>
       </c>
       <c r="F13" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>8000</v>
       </c>
       <c r="G13" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>8000</v>
       </c>
       <c r="H13" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>12000</v>
       </c>
       <c r="I13" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>12000</v>
       </c>
       <c r="J13" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>12000</v>
       </c>
       <c r="K13" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>16000</v>
       </c>
       <c r="L13" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>16000</v>
       </c>
       <c r="M13" s="18">
@@ -2838,11 +3463,11 @@
         <v>16000</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="85"/>
       <c r="B14" s="16">
         <v>0</v>
       </c>
@@ -2880,117 +3505,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
+    <row r="15" spans="1:16">
+      <c r="A15" s="85"/>
       <c r="B15" s="16">
-        <f>B5*0.01</f>
-        <v>400</v>
+        <f>B9*$P$15</f>
+        <v>4320</v>
       </c>
       <c r="C15" s="17">
-        <f>C5*0.01</f>
-        <v>400</v>
+        <f t="shared" ref="C15:M15" si="14">C9*$P$15</f>
+        <v>4320</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" ref="D15:L15" si="15">D5*0.01</f>
-        <v>400</v>
+        <f t="shared" si="14"/>
+        <v>4320</v>
       </c>
       <c r="E15" s="17">
+        <f t="shared" si="14"/>
+        <v>8640</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" si="14"/>
+        <v>21640</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" si="14"/>
+        <v>32460</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" si="14"/>
+        <v>32460</v>
+      </c>
+      <c r="I15" s="17">
+        <f t="shared" si="14"/>
+        <v>32460</v>
+      </c>
+      <c r="J15" s="17">
+        <f t="shared" si="14"/>
+        <v>42600</v>
+      </c>
+      <c r="K15" s="17">
+        <f t="shared" si="14"/>
+        <v>56800</v>
+      </c>
+      <c r="L15" s="17">
+        <f t="shared" si="14"/>
+        <v>56800</v>
+      </c>
+      <c r="M15" s="18">
+        <f t="shared" si="14"/>
+        <v>56800</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="92">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1">
+      <c r="A16" s="85"/>
+      <c r="B16" s="30">
+        <f>B15+B13</f>
+        <v>8320</v>
+      </c>
+      <c r="C16" s="29">
+        <f t="shared" ref="C16:M16" si="15">C15+C13</f>
+        <v>8320</v>
+      </c>
+      <c r="D16" s="29">
         <f t="shared" si="15"/>
-        <v>800</v>
-      </c>
-      <c r="F15" s="17">
+        <v>8320</v>
+      </c>
+      <c r="E16" s="29">
         <f t="shared" si="15"/>
-        <v>1040</v>
-      </c>
-      <c r="G15" s="17">
+        <v>16640</v>
+      </c>
+      <c r="F16" s="29">
         <f t="shared" si="15"/>
-        <v>1560</v>
-      </c>
-      <c r="H15" s="17">
+        <v>29640</v>
+      </c>
+      <c r="G16" s="29">
         <f t="shared" si="15"/>
-        <v>1560</v>
-      </c>
-      <c r="I15" s="17">
+        <v>40460</v>
+      </c>
+      <c r="H16" s="29">
         <f t="shared" si="15"/>
-        <v>1560</v>
-      </c>
-      <c r="J15" s="17">
+        <v>44460</v>
+      </c>
+      <c r="I16" s="29">
         <f t="shared" si="15"/>
-        <v>1860</v>
-      </c>
-      <c r="K15" s="17">
+        <v>44460</v>
+      </c>
+      <c r="J16" s="29">
         <f t="shared" si="15"/>
-        <v>2480</v>
-      </c>
-      <c r="L15" s="17">
+        <v>54600</v>
+      </c>
+      <c r="K16" s="29">
         <f t="shared" si="15"/>
-        <v>2480</v>
-      </c>
-      <c r="M15" s="18">
-        <f>M5*0.01</f>
-        <v>2480</v>
-      </c>
-      <c r="O15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="30">
-        <f>(B12*B13)+B14+B15</f>
-        <v>8400</v>
-      </c>
-      <c r="C16" s="29">
-        <f>(C12*C13)+C14+C15</f>
-        <v>8400</v>
-      </c>
-      <c r="D16" s="29">
-        <f t="shared" ref="D16:L16" si="16">(D12*D13)+D14+D15</f>
-        <v>8400</v>
-      </c>
-      <c r="E16" s="29">
-        <f t="shared" si="16"/>
-        <v>32800</v>
-      </c>
-      <c r="F16" s="29">
-        <f t="shared" si="16"/>
-        <v>33040</v>
-      </c>
-      <c r="G16" s="29">
-        <f t="shared" si="16"/>
-        <v>33560</v>
-      </c>
-      <c r="H16" s="29">
-        <f t="shared" si="16"/>
-        <v>73560</v>
-      </c>
-      <c r="I16" s="29">
-        <f t="shared" si="16"/>
-        <v>73560</v>
-      </c>
-      <c r="J16" s="29">
-        <f t="shared" si="16"/>
-        <v>73860</v>
-      </c>
-      <c r="K16" s="29">
-        <f t="shared" si="16"/>
-        <v>130480</v>
+        <v>72800</v>
       </c>
       <c r="L16" s="29">
-        <f t="shared" si="16"/>
-        <v>130480</v>
+        <f t="shared" si="15"/>
+        <v>72800</v>
       </c>
       <c r="M16" s="31">
-        <f>(M12*M13) + M14+M15</f>
-        <v>130480</v>
-      </c>
-      <c r="N16" s="67">
+        <f t="shared" si="15"/>
+        <v>72800</v>
+      </c>
+      <c r="N16" s="46">
         <f>SUM(B16:M16) * -1</f>
-        <v>-737020</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84" t="s">
+        <v>-473620</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A17" s="85" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="19"/>
@@ -3024,8 +3652,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
+    <row r="18" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A18" s="85"/>
       <c r="B18" s="32"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -3057,63 +3685,63 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
+    <row r="19" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A19" s="85"/>
       <c r="B19" s="30">
-        <f t="shared" ref="B19" si="17">B17*B18</f>
+        <f t="shared" ref="B19" si="16">B17*B18</f>
         <v>0</v>
       </c>
       <c r="C19" s="29">
-        <f t="shared" ref="C19" si="18">C17*C18</f>
+        <f t="shared" ref="C19" si="17">C17*C18</f>
         <v>0</v>
       </c>
       <c r="D19" s="29">
-        <f t="shared" ref="D19" si="19">D17*D18</f>
+        <f t="shared" ref="D19" si="18">D17*D18</f>
         <v>0</v>
       </c>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="20">E17*E18</f>
+        <f t="shared" ref="E19" si="19">E17*E18</f>
         <v>0</v>
       </c>
       <c r="F19" s="29">
-        <f t="shared" ref="F19" si="21">F17*F18</f>
+        <f t="shared" ref="F19" si="20">F17*F18</f>
         <v>0</v>
       </c>
       <c r="G19" s="29">
-        <f t="shared" ref="G19" si="22">G17*G18</f>
+        <f t="shared" ref="G19" si="21">G17*G18</f>
         <v>0</v>
       </c>
       <c r="H19" s="29">
-        <f t="shared" ref="H19" si="23">H17*H18</f>
+        <f t="shared" ref="H19" si="22">H17*H18</f>
         <v>0</v>
       </c>
       <c r="I19" s="29">
-        <f t="shared" ref="I19" si="24">I17*I18</f>
+        <f t="shared" ref="I19" si="23">I17*I18</f>
         <v>0</v>
       </c>
       <c r="J19" s="29">
-        <f t="shared" ref="J19" si="25">J17*J18</f>
+        <f t="shared" ref="J19" si="24">J17*J18</f>
         <v>0</v>
       </c>
       <c r="K19" s="29">
-        <f t="shared" ref="K19" si="26">K17*K18</f>
+        <f t="shared" ref="K19" si="25">K17*K18</f>
         <v>0</v>
       </c>
       <c r="L19" s="29">
-        <f t="shared" ref="L19" si="27">L17*L18</f>
+        <f t="shared" ref="L19" si="26">L17*L18</f>
         <v>0</v>
       </c>
       <c r="M19" s="31">
-        <f t="shared" ref="M19" si="28">M17*M18</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="67">
+        <f t="shared" ref="M19" si="27">M17*M18</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="46">
         <f>SUM(B19:M19)*-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="76" t="s">
+    <row r="20" spans="1:16">
+      <c r="A20" s="77" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="19"/>
@@ -3129,11 +3757,11 @@
       <c r="L20" s="21"/>
       <c r="M20" s="22"/>
       <c r="P20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="77"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
@@ -3153,63 +3781,63 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
+    <row r="22" spans="1:16">
+      <c r="A22" s="77"/>
       <c r="B22" s="32">
-        <f t="shared" ref="B22" si="29">B20*B21</f>
+        <f t="shared" ref="B22" si="28">B20*B21</f>
         <v>0</v>
       </c>
       <c r="C22" s="33">
-        <f t="shared" ref="C22" si="30">C20*C21</f>
+        <f t="shared" ref="C22" si="29">C20*C21</f>
         <v>0</v>
       </c>
       <c r="D22" s="33">
-        <f t="shared" ref="D22" si="31">D20*D21</f>
+        <f t="shared" ref="D22" si="30">D20*D21</f>
         <v>0</v>
       </c>
       <c r="E22" s="33">
-        <f t="shared" ref="E22" si="32">E20*E21</f>
+        <f t="shared" ref="E22" si="31">E20*E21</f>
         <v>0</v>
       </c>
       <c r="F22" s="33">
-        <f t="shared" ref="F22" si="33">F20*F21</f>
+        <f t="shared" ref="F22" si="32">F20*F21</f>
         <v>0</v>
       </c>
       <c r="G22" s="33">
-        <f t="shared" ref="G22" si="34">G20*G21</f>
+        <f t="shared" ref="G22" si="33">G20*G21</f>
         <v>0</v>
       </c>
       <c r="H22" s="33">
-        <f t="shared" ref="H22" si="35">H20*H21</f>
+        <f t="shared" ref="H22" si="34">H20*H21</f>
         <v>0</v>
       </c>
       <c r="I22" s="33">
-        <f t="shared" ref="I22" si="36">I20*I21</f>
+        <f t="shared" ref="I22" si="35">I20*I21</f>
         <v>0</v>
       </c>
       <c r="J22" s="33">
-        <f t="shared" ref="J22" si="37">J20*J21</f>
+        <f t="shared" ref="J22" si="36">J20*J21</f>
         <v>0</v>
       </c>
       <c r="K22" s="33">
-        <f t="shared" ref="K22" si="38">K20*K21</f>
+        <f t="shared" ref="K22" si="37">K20*K21</f>
         <v>0</v>
       </c>
       <c r="L22" s="33">
-        <f t="shared" ref="L22" si="39">L20*L21</f>
+        <f t="shared" ref="L22" si="38">L20*L21</f>
         <v>0</v>
       </c>
       <c r="M22" s="34">
-        <f t="shared" ref="M22" si="40">M20*M21</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="67">
+        <f t="shared" ref="M22" si="39">M20*M21</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="46">
         <f>SUM(F22:M22)*-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="76" t="s">
+    <row r="23" spans="1:16">
+      <c r="A23" s="77" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="19"/>
@@ -3244,8 +3872,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
+    <row r="24" spans="1:16">
+      <c r="A24" s="77"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="36"/>
@@ -3275,63 +3903,63 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
+    <row r="25" spans="1:16">
+      <c r="A25" s="77"/>
       <c r="B25" s="32">
-        <f t="shared" ref="B25:C25" si="41">B23*B24</f>
+        <f t="shared" ref="B25:C25" si="40">B23*B24</f>
         <v>0</v>
       </c>
       <c r="C25" s="33">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="D25" s="33">
-        <f t="shared" ref="D25" si="42">D23*D24</f>
+        <f t="shared" ref="D25" si="41">D23*D24</f>
         <v>0</v>
       </c>
       <c r="E25" s="33">
-        <f t="shared" ref="E25" si="43">E23*E24</f>
+        <f t="shared" ref="E25" si="42">E23*E24</f>
         <v>0</v>
       </c>
       <c r="F25" s="33">
-        <f t="shared" ref="F25" si="44">F23*F24</f>
+        <f t="shared" ref="F25" si="43">F23*F24</f>
         <v>6000</v>
       </c>
       <c r="G25" s="33">
-        <f t="shared" ref="G25" si="45">G23*G24</f>
+        <f t="shared" ref="G25" si="44">G23*G24</f>
         <v>6000</v>
       </c>
       <c r="H25" s="33">
-        <f t="shared" ref="H25" si="46">H23*H24</f>
+        <f t="shared" ref="H25" si="45">H23*H24</f>
         <v>6000</v>
       </c>
       <c r="I25" s="33">
-        <f t="shared" ref="I25" si="47">I23*I24</f>
+        <f t="shared" ref="I25" si="46">I23*I24</f>
         <v>12000</v>
       </c>
       <c r="J25" s="33">
-        <f t="shared" ref="J25" si="48">J23*J24</f>
+        <f t="shared" ref="J25" si="47">J23*J24</f>
         <v>12000</v>
       </c>
       <c r="K25" s="33">
-        <f t="shared" ref="K25" si="49">K23*K24</f>
+        <f t="shared" ref="K25" si="48">K23*K24</f>
         <v>20000</v>
       </c>
       <c r="L25" s="33">
-        <f t="shared" ref="L25" si="50">L23*L24</f>
+        <f t="shared" ref="L25" si="49">L23*L24</f>
         <v>20000</v>
       </c>
       <c r="M25" s="34">
-        <f t="shared" ref="M25" si="51">M23*M24</f>
+        <f t="shared" ref="M25" si="50">M23*M24</f>
         <v>20000</v>
       </c>
-      <c r="N25" s="67">
+      <c r="N25" s="46">
         <f>SUM(F25:M25)*-1</f>
         <v>-102000</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="77" t="s">
+    <row r="26" spans="1:16">
+      <c r="A26" s="78" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="19"/>
@@ -3347,8 +3975,8 @@
       <c r="L26" s="21"/>
       <c r="M26" s="22"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
+    <row r="27" spans="1:16">
+      <c r="A27" s="78"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
@@ -3371,62 +3999,62 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
+    <row r="28" spans="1:16">
+      <c r="A28" s="78"/>
       <c r="B28" s="30">
-        <f t="shared" ref="B28" si="52">B26*B27</f>
+        <f t="shared" ref="B28" si="51">B26*B27</f>
         <v>0</v>
       </c>
       <c r="C28" s="29">
-        <f t="shared" ref="C28" si="53">C26*C27</f>
+        <f t="shared" ref="C28" si="52">C26*C27</f>
         <v>0</v>
       </c>
       <c r="D28" s="29">
-        <f t="shared" ref="D28" si="54">D26*D27</f>
+        <f t="shared" ref="D28" si="53">D26*D27</f>
         <v>0</v>
       </c>
       <c r="E28" s="29">
-        <f t="shared" ref="E28:F28" si="55">E26*E27</f>
+        <f t="shared" ref="E28:F28" si="54">E26*E27</f>
         <v>0</v>
       </c>
       <c r="F28" s="29">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="G28" s="29">
-        <f t="shared" ref="G28" si="56">G26*G27</f>
+        <f t="shared" ref="G28" si="55">G26*G27</f>
         <v>0</v>
       </c>
       <c r="H28" s="29">
-        <f t="shared" ref="H28" si="57">H26*H27</f>
+        <f t="shared" ref="H28" si="56">H26*H27</f>
         <v>0</v>
       </c>
       <c r="I28" s="29">
-        <f t="shared" ref="I28" si="58">I26*I27</f>
+        <f t="shared" ref="I28" si="57">I26*I27</f>
         <v>0</v>
       </c>
       <c r="J28" s="29">
-        <f t="shared" ref="J28" si="59">J26*J27</f>
+        <f t="shared" ref="J28" si="58">J26*J27</f>
         <v>0</v>
       </c>
       <c r="K28" s="29">
-        <f t="shared" ref="K28" si="60">K26*K27</f>
+        <f t="shared" ref="K28" si="59">K26*K27</f>
         <v>0</v>
       </c>
       <c r="L28" s="29">
-        <f t="shared" ref="L28" si="61">L26*L27</f>
+        <f t="shared" ref="L28" si="60">L26*L27</f>
         <v>0</v>
       </c>
       <c r="M28" s="31">
-        <f t="shared" ref="M28" si="62">M26*M27</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="67">
+        <f t="shared" ref="M28" si="61">M26*M27</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="46">
         <f>SUM(K28:M28)*-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="28" t="s">
         <v>16</v>
       </c>
@@ -3451,36 +4079,36 @@
         <v>9600</v>
       </c>
       <c r="G29" s="21">
-        <f t="shared" ref="G29:L29" si="63">600*4*G12</f>
+        <f t="shared" ref="G29:L29" si="62">600*4*G12</f>
         <v>9600</v>
       </c>
       <c r="H29" s="21">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>14400</v>
       </c>
       <c r="I29" s="21">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>14400</v>
       </c>
       <c r="J29" s="21">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>14400</v>
       </c>
       <c r="K29" s="21">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>19200</v>
       </c>
       <c r="L29" s="21">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>19200</v>
       </c>
       <c r="M29" s="22">
         <f>600*4*M12</f>
         <v>19200</v>
       </c>
-      <c r="N29" s="67"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N29" s="43"/>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="28" t="s">
         <v>18</v>
       </c>
@@ -3488,35 +4116,61 @@
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="67"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F30" s="21">
+        <v>10000</v>
+      </c>
+      <c r="G30" s="21">
+        <v>10000</v>
+      </c>
+      <c r="H30" s="21">
+        <v>10000</v>
+      </c>
+      <c r="I30" s="21">
+        <v>10000</v>
+      </c>
+      <c r="J30" s="21">
+        <v>10000</v>
+      </c>
+      <c r="K30" s="21">
+        <v>10000</v>
+      </c>
+      <c r="L30" s="21">
+        <v>10000</v>
+      </c>
+      <c r="M30" s="22">
+        <v>10000</v>
+      </c>
+      <c r="N30" s="43"/>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="16"/>
+      <c r="B31" s="16">
+        <v>100000</v>
+      </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="21"/>
+      <c r="E31" s="17">
+        <v>100000</v>
+      </c>
+      <c r="F31" s="21">
+        <v>100000</v>
+      </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="I31" s="21">
+        <v>100000</v>
+      </c>
+      <c r="J31" s="17">
+        <v>100000</v>
+      </c>
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
       <c r="M31" s="22"/>
-      <c r="N31" s="67"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N31" s="43"/>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="28" t="s">
         <v>15</v>
       </c>
@@ -3556,169 +4210,169 @@
       <c r="M32" s="34">
         <v>20000</v>
       </c>
-      <c r="N32" s="67"/>
-    </row>
-    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N32" s="43"/>
+    </row>
+    <row r="33" spans="2:15" ht="15.75" thickBot="1">
       <c r="B33" s="16">
         <f>SUM(B29:B32)</f>
+        <v>109800</v>
+      </c>
+      <c r="C33" s="17">
+        <f t="shared" ref="C33:M33" si="63">SUM(C29:C32)</f>
         <v>9800</v>
       </c>
-      <c r="C33" s="17">
-        <f t="shared" ref="C33:M33" si="64">SUM(C29:C32)</f>
+      <c r="D33" s="17">
+        <f t="shared" si="63"/>
         <v>9800</v>
       </c>
-      <c r="D33" s="17">
-        <f t="shared" si="64"/>
-        <v>9800</v>
-      </c>
       <c r="E33" s="17">
-        <f t="shared" si="64"/>
-        <v>19600</v>
+        <f t="shared" si="63"/>
+        <v>119600</v>
       </c>
       <c r="F33" s="17">
-        <f t="shared" si="64"/>
-        <v>19600</v>
+        <f t="shared" si="63"/>
+        <v>129600</v>
       </c>
       <c r="G33" s="17">
-        <f t="shared" si="64"/>
-        <v>19600</v>
+        <f t="shared" si="63"/>
+        <v>29600</v>
       </c>
       <c r="H33" s="17">
-        <f t="shared" si="64"/>
-        <v>29400</v>
+        <f t="shared" si="63"/>
+        <v>39400</v>
       </c>
       <c r="I33" s="17">
-        <f t="shared" si="64"/>
-        <v>29400</v>
+        <f t="shared" si="63"/>
+        <v>139400</v>
       </c>
       <c r="J33" s="17">
-        <f t="shared" si="64"/>
-        <v>29400</v>
+        <f t="shared" si="63"/>
+        <v>139400</v>
       </c>
       <c r="K33" s="17">
-        <f t="shared" si="64"/>
-        <v>39200</v>
+        <f t="shared" si="63"/>
+        <v>49200</v>
       </c>
       <c r="L33" s="17">
-        <f t="shared" si="64"/>
-        <v>39200</v>
+        <f t="shared" si="63"/>
+        <v>49200</v>
       </c>
       <c r="M33" s="18">
-        <f t="shared" si="64"/>
-        <v>39200</v>
-      </c>
-      <c r="N33" s="67">
+        <f t="shared" si="63"/>
+        <v>49200</v>
+      </c>
+      <c r="N33" s="46">
         <f>SUM(B33:M33)*-1</f>
-        <v>-294000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-874000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="15.75" thickBot="1">
       <c r="B34" s="23">
         <f>B16+B19+B22+B25+B28+B33</f>
-        <v>18200</v>
+        <v>118120</v>
       </c>
       <c r="C34" s="24">
-        <f t="shared" ref="C34:M34" si="65">C16+C19+C22+C25+C28+C33</f>
-        <v>18200</v>
+        <f t="shared" ref="C34:M34" si="64">C16+C19+C22+C25+C28+C33</f>
+        <v>18120</v>
       </c>
       <c r="D34" s="24">
+        <f t="shared" si="64"/>
+        <v>18120</v>
+      </c>
+      <c r="E34" s="24">
+        <f t="shared" si="64"/>
+        <v>136240</v>
+      </c>
+      <c r="F34" s="24">
+        <f t="shared" si="64"/>
+        <v>165240</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="64"/>
+        <v>76060</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" si="64"/>
+        <v>89860</v>
+      </c>
+      <c r="I34" s="24">
+        <f t="shared" si="64"/>
+        <v>195860</v>
+      </c>
+      <c r="J34" s="24">
+        <f t="shared" si="64"/>
+        <v>206000</v>
+      </c>
+      <c r="K34" s="24">
+        <f t="shared" si="64"/>
+        <v>142000</v>
+      </c>
+      <c r="L34" s="24">
+        <f t="shared" si="64"/>
+        <v>142000</v>
+      </c>
+      <c r="M34" s="25">
+        <f t="shared" si="64"/>
+        <v>142000</v>
+      </c>
+      <c r="N34" s="46">
+        <f>SUM(B34:M34)</f>
+        <v>1449620</v>
+      </c>
+      <c r="O34" s="14"/>
+    </row>
+    <row r="35" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B35" s="23">
+        <f t="shared" ref="B35:M35" si="65">B9-B34</f>
+        <v>-74920</v>
+      </c>
+      <c r="C35" s="24">
         <f t="shared" si="65"/>
-        <v>18200</v>
-      </c>
-      <c r="E34" s="24">
+        <v>25080</v>
+      </c>
+      <c r="D35" s="24">
         <f t="shared" si="65"/>
-        <v>52400</v>
-      </c>
-      <c r="F34" s="24">
+        <v>25080</v>
+      </c>
+      <c r="E35" s="24">
         <f t="shared" si="65"/>
-        <v>58640</v>
-      </c>
-      <c r="G34" s="24">
+        <v>-49840</v>
+      </c>
+      <c r="F35" s="24">
         <f t="shared" si="65"/>
-        <v>59160</v>
-      </c>
-      <c r="H34" s="24">
+        <v>51160</v>
+      </c>
+      <c r="G35" s="24">
         <f t="shared" si="65"/>
-        <v>108960</v>
-      </c>
-      <c r="I34" s="24">
+        <v>248540</v>
+      </c>
+      <c r="H35" s="24">
         <f t="shared" si="65"/>
-        <v>114960</v>
-      </c>
-      <c r="J34" s="24">
+        <v>234740</v>
+      </c>
+      <c r="I35" s="24">
         <f t="shared" si="65"/>
-        <v>115260</v>
-      </c>
-      <c r="K34" s="24">
+        <v>128740</v>
+      </c>
+      <c r="J35" s="24">
         <f t="shared" si="65"/>
-        <v>189680</v>
-      </c>
-      <c r="L34" s="24">
+        <v>220000</v>
+      </c>
+      <c r="K35" s="24">
         <f t="shared" si="65"/>
-        <v>189680</v>
-      </c>
-      <c r="M34" s="25">
+        <v>426000</v>
+      </c>
+      <c r="L35" s="24">
         <f t="shared" si="65"/>
-        <v>189680</v>
-      </c>
-      <c r="N34" s="70">
-        <f>SUM(B34:M34)</f>
-        <v>1133020</v>
-      </c>
-      <c r="O34" s="14"/>
-    </row>
-    <row r="35" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="23">
-        <f t="shared" ref="B35:M35" si="66">B9-B34</f>
-        <v>21800</v>
-      </c>
-      <c r="C35" s="24">
-        <f t="shared" si="66"/>
-        <v>21800</v>
-      </c>
-      <c r="D35" s="24">
-        <f t="shared" si="66"/>
-        <v>21800</v>
-      </c>
-      <c r="E35" s="24">
-        <f t="shared" si="66"/>
-        <v>27600</v>
-      </c>
-      <c r="F35" s="24">
-        <f t="shared" si="66"/>
-        <v>45360</v>
-      </c>
-      <c r="G35" s="24">
-        <f t="shared" si="66"/>
-        <v>96840</v>
-      </c>
-      <c r="H35" s="24">
-        <f t="shared" si="66"/>
-        <v>47040</v>
-      </c>
-      <c r="I35" s="24">
-        <f t="shared" si="66"/>
-        <v>41040</v>
-      </c>
-      <c r="J35" s="24">
-        <f t="shared" si="66"/>
-        <v>70740</v>
-      </c>
-      <c r="K35" s="24">
-        <f t="shared" si="66"/>
-        <v>58320</v>
-      </c>
-      <c r="L35" s="24">
-        <f t="shared" si="66"/>
-        <v>58320</v>
+        <v>426000</v>
       </c>
       <c r="M35" s="25">
-        <f t="shared" si="66"/>
-        <v>58320</v>
-      </c>
-      <c r="N35" s="71">
+        <f t="shared" si="65"/>
+        <v>426000</v>
+      </c>
+      <c r="N35" s="47">
         <f>SUM(B35:M35)</f>
-        <v>568980</v>
+        <v>2086580</v>
       </c>
       <c r="O35" s="14"/>
     </row>
@@ -3741,30 +4395,1223 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:M25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="48" customWidth="1"/>
+    <col min="2" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B1" s="15">
+        <v>42370</v>
+      </c>
+      <c r="C1" s="15">
+        <v>42401</v>
+      </c>
+      <c r="D1" s="15">
+        <v>42430</v>
+      </c>
+      <c r="E1" s="15">
+        <v>42461</v>
+      </c>
+      <c r="F1" s="15">
+        <v>42491</v>
+      </c>
+      <c r="G1" s="15">
+        <v>42522</v>
+      </c>
+      <c r="H1" s="15">
+        <v>42552</v>
+      </c>
+      <c r="I1" s="15">
+        <v>42583</v>
+      </c>
+      <c r="J1" s="15">
+        <v>42614</v>
+      </c>
+      <c r="K1" s="15">
+        <v>42644</v>
+      </c>
+      <c r="L1" s="15">
+        <v>42675</v>
+      </c>
+      <c r="M1" s="15">
+        <v>42705</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="B2" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="39">
+        <v>2</v>
+      </c>
+      <c r="C3" s="40">
+        <v>2</v>
+      </c>
+      <c r="D3" s="40">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40">
+        <v>4</v>
+      </c>
+      <c r="F3" s="40">
+        <v>4</v>
+      </c>
+      <c r="G3" s="40">
+        <v>6</v>
+      </c>
+      <c r="H3" s="40">
+        <v>6</v>
+      </c>
+      <c r="I3" s="40">
+        <v>6</v>
+      </c>
+      <c r="J3" s="40">
+        <v>6</v>
+      </c>
+      <c r="K3" s="40">
+        <v>8</v>
+      </c>
+      <c r="L3" s="40">
+        <v>8</v>
+      </c>
+      <c r="M3" s="41">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3">
+        <f>SUM(B3:M3)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="85"/>
+      <c r="B4" s="16">
+        <f>'Product Definition'!E16</f>
+        <v>18000</v>
+      </c>
+      <c r="C4" s="17">
+        <f>'Product Definition'!E16</f>
+        <v>18000</v>
+      </c>
+      <c r="D4" s="17">
+        <f>'Product Definition'!E16</f>
+        <v>18000</v>
+      </c>
+      <c r="E4" s="17">
+        <f>'Product Definition'!E16</f>
+        <v>18000</v>
+      </c>
+      <c r="F4" s="17">
+        <f>'Product Definition'!G16</f>
+        <v>43000</v>
+      </c>
+      <c r="G4" s="17">
+        <f>'Product Definition'!G16</f>
+        <v>43000</v>
+      </c>
+      <c r="H4" s="17">
+        <f>'Product Definition'!G16</f>
+        <v>43000</v>
+      </c>
+      <c r="I4" s="17">
+        <f>'Product Definition'!G16</f>
+        <v>43000</v>
+      </c>
+      <c r="J4" s="17">
+        <f>'Product Definition'!I16</f>
+        <v>56000</v>
+      </c>
+      <c r="K4" s="17">
+        <f>'Product Definition'!I16</f>
+        <v>56000</v>
+      </c>
+      <c r="L4" s="17">
+        <f>'Product Definition'!I16</f>
+        <v>56000</v>
+      </c>
+      <c r="M4" s="18">
+        <f>'Product Definition'!I16</f>
+        <v>56000</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A5" s="85"/>
+      <c r="B5" s="16">
+        <f>'Product Definition'!E15</f>
+        <v>3600</v>
+      </c>
+      <c r="C5" s="17">
+        <f>'Product Definition'!E15</f>
+        <v>3600</v>
+      </c>
+      <c r="D5" s="17">
+        <f>'Product Definition'!E15</f>
+        <v>3600</v>
+      </c>
+      <c r="E5" s="17">
+        <f>'Product Definition'!E15</f>
+        <v>3600</v>
+      </c>
+      <c r="F5" s="17">
+        <f>'Product Definition'!G15</f>
+        <v>11100</v>
+      </c>
+      <c r="G5" s="17">
+        <f>'Product Definition'!G15</f>
+        <v>11100</v>
+      </c>
+      <c r="H5" s="17">
+        <f>'Product Definition'!G15</f>
+        <v>11100</v>
+      </c>
+      <c r="I5" s="17">
+        <f>'Product Definition'!G15</f>
+        <v>11100</v>
+      </c>
+      <c r="J5" s="17">
+        <f>'Product Definition'!I15</f>
+        <v>15000</v>
+      </c>
+      <c r="K5" s="17">
+        <f>'Product Definition'!I15</f>
+        <v>15000</v>
+      </c>
+      <c r="L5" s="17">
+        <f>'Product Definition'!I15</f>
+        <v>15000</v>
+      </c>
+      <c r="M5" s="18">
+        <f>'Product Definition'!I15</f>
+        <v>15000</v>
+      </c>
+      <c r="N5" s="43"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="87"/>
+      <c r="B6" s="88">
+        <f>B3*(B4 + B5)</f>
+        <v>43200</v>
+      </c>
+      <c r="C6" s="89">
+        <f>C3*(C4 + C5)</f>
+        <v>43200</v>
+      </c>
+      <c r="D6" s="89">
+        <f t="shared" ref="D6:L6" si="0">D3*(D4 + D5)</f>
+        <v>43200</v>
+      </c>
+      <c r="E6" s="89">
+        <f t="shared" si="0"/>
+        <v>86400</v>
+      </c>
+      <c r="F6" s="89">
+        <f t="shared" si="0"/>
+        <v>216400</v>
+      </c>
+      <c r="G6" s="89">
+        <f t="shared" si="0"/>
+        <v>324600</v>
+      </c>
+      <c r="H6" s="89">
+        <f t="shared" si="0"/>
+        <v>324600</v>
+      </c>
+      <c r="I6" s="89">
+        <f t="shared" si="0"/>
+        <v>324600</v>
+      </c>
+      <c r="J6" s="89">
+        <f t="shared" si="0"/>
+        <v>426000</v>
+      </c>
+      <c r="K6" s="89">
+        <f t="shared" si="0"/>
+        <v>568000</v>
+      </c>
+      <c r="L6" s="89">
+        <f t="shared" si="0"/>
+        <v>568000</v>
+      </c>
+      <c r="M6" s="90">
+        <f>M3*(M4 + M5)</f>
+        <v>568000</v>
+      </c>
+      <c r="N6" s="45">
+        <f>SUM(B6:M6)</f>
+        <v>3536200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A7" s="49"/>
+      <c r="B7" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="81"/>
+      <c r="O7" s="26"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1">
+      <c r="A8" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="39">
+        <v>2</v>
+      </c>
+      <c r="C8" s="40">
+        <v>2</v>
+      </c>
+      <c r="D8" s="40">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40">
+        <v>4</v>
+      </c>
+      <c r="F8" s="40">
+        <v>4</v>
+      </c>
+      <c r="G8" s="40">
+        <v>4</v>
+      </c>
+      <c r="H8" s="40">
+        <v>6</v>
+      </c>
+      <c r="I8" s="40">
+        <v>6</v>
+      </c>
+      <c r="J8" s="40">
+        <v>6</v>
+      </c>
+      <c r="K8" s="40">
+        <v>8</v>
+      </c>
+      <c r="L8" s="40">
+        <v>8</v>
+      </c>
+      <c r="M8" s="41">
+        <v>8</v>
+      </c>
+      <c r="N8" s="44"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="86"/>
+      <c r="B9" s="16">
+        <f>B8*2000</f>
+        <v>4000</v>
+      </c>
+      <c r="C9" s="17">
+        <f>C8*2000</f>
+        <v>4000</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" ref="D9:L9" si="1">D8*2000</f>
+        <v>4000</v>
+      </c>
+      <c r="E9" s="17">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="K9" s="17">
+        <f t="shared" si="1"/>
+        <v>16000</v>
+      </c>
+      <c r="L9" s="17">
+        <f t="shared" si="1"/>
+        <v>16000</v>
+      </c>
+      <c r="M9" s="18">
+        <f>M8*2000</f>
+        <v>16000</v>
+      </c>
+      <c r="O9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1">
+      <c r="A10" s="86"/>
+      <c r="B10" s="16">
+        <v>0</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
+        <v>0</v>
+      </c>
+      <c r="L10" s="17">
+        <v>0</v>
+      </c>
+      <c r="M10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="86"/>
+      <c r="B11" s="16">
+        <f>B6*$P$11</f>
+        <v>4320</v>
+      </c>
+      <c r="C11" s="17">
+        <f>C6*$P$11</f>
+        <v>4320</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" ref="D11:L11" si="2">D6*$P$11</f>
+        <v>4320</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" si="2"/>
+        <v>8640</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="2"/>
+        <v>21640</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="2"/>
+        <v>32460</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="2"/>
+        <v>32460</v>
+      </c>
+      <c r="I11" s="17">
+        <f t="shared" si="2"/>
+        <v>32460</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="2"/>
+        <v>42600</v>
+      </c>
+      <c r="K11" s="17">
+        <f t="shared" si="2"/>
+        <v>56800</v>
+      </c>
+      <c r="L11" s="17">
+        <f t="shared" si="2"/>
+        <v>56800</v>
+      </c>
+      <c r="M11" s="18">
+        <f>M6*$P$11</f>
+        <v>56800</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="92">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="87"/>
+      <c r="B12" s="30">
+        <f>B11+B9</f>
+        <v>8320</v>
+      </c>
+      <c r="C12" s="29">
+        <f>C11+C9</f>
+        <v>8320</v>
+      </c>
+      <c r="D12" s="29">
+        <f t="shared" ref="D12:M12" si="3">D11+D9</f>
+        <v>8320</v>
+      </c>
+      <c r="E12" s="29">
+        <f t="shared" si="3"/>
+        <v>16640</v>
+      </c>
+      <c r="F12" s="29">
+        <f t="shared" si="3"/>
+        <v>29640</v>
+      </c>
+      <c r="G12" s="29">
+        <f t="shared" si="3"/>
+        <v>40460</v>
+      </c>
+      <c r="H12" s="29">
+        <f t="shared" si="3"/>
+        <v>44460</v>
+      </c>
+      <c r="I12" s="29">
+        <f t="shared" si="3"/>
+        <v>44460</v>
+      </c>
+      <c r="J12" s="29">
+        <f t="shared" si="3"/>
+        <v>54600</v>
+      </c>
+      <c r="K12" s="29">
+        <f t="shared" si="3"/>
+        <v>72800</v>
+      </c>
+      <c r="L12" s="29">
+        <f t="shared" si="3"/>
+        <v>72800</v>
+      </c>
+      <c r="M12" s="31">
+        <f t="shared" si="3"/>
+        <v>72800</v>
+      </c>
+      <c r="N12" s="46">
+        <f>SUM(B12:M12) * -1</f>
+        <v>-473620</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1">
+      <c r="A13" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A14" s="91"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37">
+        <v>5000</v>
+      </c>
+      <c r="L14" s="37">
+        <v>5000</v>
+      </c>
+      <c r="M14" s="38">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A15" s="91"/>
+      <c r="B15" s="32">
+        <f t="shared" ref="B15:M15" si="4">B13*B14</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="43">
+        <f>SUM(B15:M15)*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A16" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21">
+        <v>1</v>
+      </c>
+      <c r="G16" s="21">
+        <v>1</v>
+      </c>
+      <c r="H16" s="21">
+        <v>1</v>
+      </c>
+      <c r="I16" s="21">
+        <v>2</v>
+      </c>
+      <c r="J16" s="21">
+        <v>2</v>
+      </c>
+      <c r="K16" s="21">
+        <v>2</v>
+      </c>
+      <c r="L16" s="21">
+        <v>2</v>
+      </c>
+      <c r="M16" s="22">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="91"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37">
+        <v>6000</v>
+      </c>
+      <c r="G17" s="37">
+        <v>6000</v>
+      </c>
+      <c r="H17" s="37">
+        <v>6000</v>
+      </c>
+      <c r="I17" s="37">
+        <v>6000</v>
+      </c>
+      <c r="J17" s="37">
+        <v>6000</v>
+      </c>
+      <c r="K17" s="37">
+        <v>10000</v>
+      </c>
+      <c r="L17" s="37">
+        <v>10000</v>
+      </c>
+      <c r="M17" s="38">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="91"/>
+      <c r="B18" s="32">
+        <f t="shared" ref="B18:M18" si="5">B16*B17</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="33">
+        <f t="shared" si="5"/>
+        <v>6000</v>
+      </c>
+      <c r="G18" s="33">
+        <f t="shared" si="5"/>
+        <v>6000</v>
+      </c>
+      <c r="H18" s="33">
+        <f t="shared" si="5"/>
+        <v>6000</v>
+      </c>
+      <c r="I18" s="33">
+        <f t="shared" si="5"/>
+        <v>12000</v>
+      </c>
+      <c r="J18" s="33">
+        <f t="shared" si="5"/>
+        <v>12000</v>
+      </c>
+      <c r="K18" s="33">
+        <f t="shared" si="5"/>
+        <v>20000</v>
+      </c>
+      <c r="L18" s="33">
+        <f t="shared" si="5"/>
+        <v>20000</v>
+      </c>
+      <c r="M18" s="34">
+        <f t="shared" si="5"/>
+        <v>20000</v>
+      </c>
+      <c r="N18" s="46">
+        <f>SUM(B18:M18) * -1</f>
+        <v>-102000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="22"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="91"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37">
+        <v>10000</v>
+      </c>
+      <c r="L20" s="37">
+        <v>10000</v>
+      </c>
+      <c r="M20" s="38">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="91"/>
+      <c r="B21" s="30">
+        <f t="shared" ref="B21:M21" si="6">B19*B20</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="43">
+        <f>SUM(B21:M21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="16">
+        <f>600*4*B3</f>
+        <v>4800</v>
+      </c>
+      <c r="C22" s="17">
+        <f>600*4*C8</f>
+        <v>4800</v>
+      </c>
+      <c r="D22" s="17">
+        <f>600*4*D8</f>
+        <v>4800</v>
+      </c>
+      <c r="E22" s="17">
+        <f>600*4*E8</f>
+        <v>9600</v>
+      </c>
+      <c r="F22" s="21">
+        <f>600*4*F8</f>
+        <v>9600</v>
+      </c>
+      <c r="G22" s="21">
+        <f t="shared" ref="G22:L22" si="7">600*4*G8</f>
+        <v>9600</v>
+      </c>
+      <c r="H22" s="21">
+        <f t="shared" si="7"/>
+        <v>14400</v>
+      </c>
+      <c r="I22" s="21">
+        <f t="shared" si="7"/>
+        <v>14400</v>
+      </c>
+      <c r="J22" s="21">
+        <f t="shared" si="7"/>
+        <v>14400</v>
+      </c>
+      <c r="K22" s="21">
+        <f t="shared" si="7"/>
+        <v>19200</v>
+      </c>
+      <c r="L22" s="21">
+        <f t="shared" si="7"/>
+        <v>19200</v>
+      </c>
+      <c r="M22" s="22">
+        <f>600*4*M8</f>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="21">
+        <v>10000</v>
+      </c>
+      <c r="G23" s="21">
+        <v>10000</v>
+      </c>
+      <c r="H23" s="21">
+        <v>10000</v>
+      </c>
+      <c r="I23" s="21">
+        <v>10000</v>
+      </c>
+      <c r="J23" s="21">
+        <v>10000</v>
+      </c>
+      <c r="K23" s="21">
+        <v>10000</v>
+      </c>
+      <c r="L23" s="21">
+        <v>10000</v>
+      </c>
+      <c r="M23" s="22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="16">
+        <v>100000</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17">
+        <v>100000</v>
+      </c>
+      <c r="F24" s="21">
+        <v>100000</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21">
+        <v>100000</v>
+      </c>
+      <c r="J24" s="17">
+        <v>100000</v>
+      </c>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="43"/>
+      <c r="O24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="32">
+        <v>5000</v>
+      </c>
+      <c r="C25" s="33">
+        <v>5000</v>
+      </c>
+      <c r="D25" s="33">
+        <v>5000</v>
+      </c>
+      <c r="E25" s="33">
+        <v>10000</v>
+      </c>
+      <c r="F25" s="33">
+        <v>10000</v>
+      </c>
+      <c r="G25" s="33">
+        <v>10000</v>
+      </c>
+      <c r="H25" s="33">
+        <v>15000</v>
+      </c>
+      <c r="I25" s="33">
+        <v>15000</v>
+      </c>
+      <c r="J25" s="33">
+        <v>15000</v>
+      </c>
+      <c r="K25" s="33">
+        <v>20000</v>
+      </c>
+      <c r="L25" s="33">
+        <v>20000</v>
+      </c>
+      <c r="M25" s="34">
+        <v>20000</v>
+      </c>
+      <c r="N25" s="43"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1">
+      <c r="B26" s="16">
+        <f>SUM(B22:B25)</f>
+        <v>109800</v>
+      </c>
+      <c r="C26" s="17">
+        <f t="shared" ref="C26:M26" si="8">SUM(C22:C25)</f>
+        <v>9800</v>
+      </c>
+      <c r="D26" s="17">
+        <f t="shared" si="8"/>
+        <v>9800</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="8"/>
+        <v>119600</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="8"/>
+        <v>129600</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="8"/>
+        <v>29600</v>
+      </c>
+      <c r="H26" s="17">
+        <f t="shared" si="8"/>
+        <v>39400</v>
+      </c>
+      <c r="I26" s="17">
+        <f t="shared" si="8"/>
+        <v>139400</v>
+      </c>
+      <c r="J26" s="17">
+        <f t="shared" si="8"/>
+        <v>139400</v>
+      </c>
+      <c r="K26" s="17">
+        <f t="shared" si="8"/>
+        <v>49200</v>
+      </c>
+      <c r="L26" s="17">
+        <f t="shared" si="8"/>
+        <v>49200</v>
+      </c>
+      <c r="M26" s="18">
+        <f t="shared" si="8"/>
+        <v>49200</v>
+      </c>
+      <c r="N26" s="43"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" thickBot="1">
+      <c r="B27" s="23">
+        <f>B12+B15+B18+B26</f>
+        <v>118120</v>
+      </c>
+      <c r="C27" s="24">
+        <f>C12+C15+C18+C26</f>
+        <v>18120</v>
+      </c>
+      <c r="D27" s="24">
+        <f t="shared" ref="D27:L27" si="9">D12+D15+D18+D26</f>
+        <v>18120</v>
+      </c>
+      <c r="E27" s="24">
+        <f t="shared" si="9"/>
+        <v>136240</v>
+      </c>
+      <c r="F27" s="24">
+        <f t="shared" si="9"/>
+        <v>165240</v>
+      </c>
+      <c r="G27" s="24">
+        <f t="shared" si="9"/>
+        <v>76060</v>
+      </c>
+      <c r="H27" s="24">
+        <f t="shared" si="9"/>
+        <v>89860</v>
+      </c>
+      <c r="I27" s="24">
+        <f t="shared" si="9"/>
+        <v>195860</v>
+      </c>
+      <c r="J27" s="24">
+        <f t="shared" si="9"/>
+        <v>206000</v>
+      </c>
+      <c r="K27" s="24">
+        <f t="shared" si="9"/>
+        <v>142000</v>
+      </c>
+      <c r="L27" s="24">
+        <f t="shared" si="9"/>
+        <v>142000</v>
+      </c>
+      <c r="M27" s="25">
+        <f>M12+M15+M18+M21+M26</f>
+        <v>142000</v>
+      </c>
+      <c r="N27" s="46">
+        <f>SUM(B27:M27) * -1</f>
+        <v>-1449620</v>
+      </c>
+      <c r="O27" s="21"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" thickBot="1">
+      <c r="B28" s="23">
+        <f>B6-B27</f>
+        <v>-74920</v>
+      </c>
+      <c r="C28" s="24">
+        <f>C6-C27</f>
+        <v>25080</v>
+      </c>
+      <c r="D28" s="24">
+        <f>D6-D27</f>
+        <v>25080</v>
+      </c>
+      <c r="E28" s="24">
+        <f>E6-E27</f>
+        <v>-49840</v>
+      </c>
+      <c r="F28" s="24">
+        <f>F6-F27</f>
+        <v>51160</v>
+      </c>
+      <c r="G28" s="24">
+        <f>G6-G27</f>
+        <v>248540</v>
+      </c>
+      <c r="H28" s="24">
+        <f>H6-H27</f>
+        <v>234740</v>
+      </c>
+      <c r="I28" s="24">
+        <f>I6-I27</f>
+        <v>128740</v>
+      </c>
+      <c r="J28" s="24">
+        <f>J6-J27</f>
+        <v>220000</v>
+      </c>
+      <c r="K28" s="24">
+        <f>K6-K27</f>
+        <v>426000</v>
+      </c>
+      <c r="L28" s="24">
+        <f>L6-L27</f>
+        <v>426000</v>
+      </c>
+      <c r="M28" s="25">
+        <f>M6-M27</f>
+        <v>426000</v>
+      </c>
+      <c r="N28" s="47">
+        <f>SUM(B28:M28)</f>
+        <v>2086580</v>
+      </c>
+      <c r="O28" s="93" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="N29" s="43"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="N31" s="14"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="O32" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B7:M7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A18:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:M20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="B18" s="12">
         <v>42370</v>
       </c>
@@ -3802,112 +5649,112 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="13">
-        <f>Exact!B9</f>
-        <v>40000</v>
+        <f>'Software - Profit'!B6</f>
+        <v>43200</v>
       </c>
       <c r="C19" s="13">
-        <f>Exact!C9</f>
-        <v>40000</v>
+        <f>'Software - Profit'!C6</f>
+        <v>43200</v>
       </c>
       <c r="D19" s="13">
-        <f>Exact!D9</f>
-        <v>40000</v>
+        <f>'Software - Profit'!D6</f>
+        <v>43200</v>
       </c>
       <c r="E19" s="13">
-        <f>Exact!E9</f>
-        <v>80000</v>
+        <f>'Software - Profit'!E6</f>
+        <v>86400</v>
       </c>
       <c r="F19" s="13">
-        <f>Exact!F9</f>
-        <v>104000</v>
+        <f>'Software - Profit'!F6</f>
+        <v>216400</v>
       </c>
       <c r="G19" s="13">
-        <f>Exact!G9</f>
-        <v>156000</v>
+        <f>'Software - Profit'!G6</f>
+        <v>324600</v>
       </c>
       <c r="H19" s="13">
-        <f>Exact!H9</f>
-        <v>156000</v>
+        <f>'Software - Profit'!H6</f>
+        <v>324600</v>
       </c>
       <c r="I19" s="13">
-        <f>Exact!I9</f>
-        <v>156000</v>
+        <f>'Software - Profit'!I6</f>
+        <v>324600</v>
       </c>
       <c r="J19" s="13">
-        <f>Exact!J9</f>
-        <v>186000</v>
+        <f>'Software - Profit'!J6</f>
+        <v>426000</v>
       </c>
       <c r="K19" s="13">
-        <f>Exact!K9</f>
-        <v>248000</v>
+        <f>'Software - Profit'!K6</f>
+        <v>568000</v>
       </c>
       <c r="L19" s="13">
-        <f>Exact!L9</f>
-        <v>248000</v>
+        <f>'Software - Profit'!L6</f>
+        <v>568000</v>
       </c>
       <c r="M19" s="13">
-        <f>Exact!M9</f>
-        <v>248000</v>
+        <f>'Software - Profit'!M6</f>
+        <v>568000</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="13">
-        <f>Exact!B34</f>
-        <v>18200</v>
+        <f>'Software - Profit'!B27</f>
+        <v>118120</v>
       </c>
       <c r="C20" s="13">
-        <f>Exact!C34</f>
-        <v>18200</v>
+        <f>'Software - Profit'!C27</f>
+        <v>18120</v>
       </c>
       <c r="D20" s="13">
-        <f>Exact!D34</f>
-        <v>18200</v>
+        <f>'Software - Profit'!D27</f>
+        <v>18120</v>
       </c>
       <c r="E20" s="13">
-        <f>Exact!E34</f>
-        <v>52400</v>
+        <f>'Software - Profit'!E27</f>
+        <v>136240</v>
       </c>
       <c r="F20" s="13">
-        <f>Exact!F34</f>
-        <v>58640</v>
+        <f>'Software - Profit'!F27</f>
+        <v>165240</v>
       </c>
       <c r="G20" s="13">
-        <f>Exact!G34</f>
-        <v>59160</v>
+        <f>'Software - Profit'!G27</f>
+        <v>76060</v>
       </c>
       <c r="H20" s="13">
-        <f>Exact!H34</f>
-        <v>108960</v>
+        <f>'Software - Profit'!H27</f>
+        <v>89860</v>
       </c>
       <c r="I20" s="13">
-        <f>Exact!I34</f>
-        <v>114960</v>
+        <f>'Software - Profit'!I27</f>
+        <v>195860</v>
       </c>
       <c r="J20" s="13">
-        <f>Exact!J34</f>
-        <v>115260</v>
+        <f>'Software - Profit'!J27</f>
+        <v>206000</v>
       </c>
       <c r="K20" s="13">
-        <f>Exact!K34</f>
-        <v>189680</v>
+        <f>'Software - Profit'!K27</f>
+        <v>142000</v>
       </c>
       <c r="L20" s="13">
-        <f>Exact!L34</f>
-        <v>189680</v>
+        <f>'Software - Profit'!L27</f>
+        <v>142000</v>
       </c>
       <c r="M20" s="13">
-        <f>Exact!M34</f>
-        <v>189680</v>
+        <f>'Software - Profit'!M27</f>
+        <v>142000</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
@@ -3919,12 +5766,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A19:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -3932,7 +5781,7 @@
     <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="B19" s="12">
         <v>42370</v>
       </c>
@@ -3970,223 +5819,223 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" hidden="1">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="13">
-        <f>Exact!B9</f>
-        <v>40000</v>
+        <f>'Software - Profit'!B6</f>
+        <v>43200</v>
       </c>
       <c r="C20" s="13">
-        <f>Exact!C9</f>
-        <v>40000</v>
+        <f>'Software - Profit'!C6</f>
+        <v>43200</v>
       </c>
       <c r="D20" s="13">
-        <f>Exact!D9</f>
-        <v>40000</v>
+        <f>'Software - Profit'!D6</f>
+        <v>43200</v>
       </c>
       <c r="E20" s="13">
-        <f>Exact!E9</f>
-        <v>80000</v>
+        <f>'Software - Profit'!E6</f>
+        <v>86400</v>
       </c>
       <c r="F20" s="13">
-        <f>Exact!F9</f>
-        <v>104000</v>
+        <f>'Software - Profit'!F6</f>
+        <v>216400</v>
       </c>
       <c r="G20" s="13">
-        <f>Exact!G9</f>
-        <v>156000</v>
+        <f>'Software - Profit'!G6</f>
+        <v>324600</v>
       </c>
       <c r="H20" s="13">
-        <f>Exact!H9</f>
-        <v>156000</v>
+        <f>'Software - Profit'!H6</f>
+        <v>324600</v>
       </c>
       <c r="I20" s="13">
-        <f>Exact!I9</f>
-        <v>156000</v>
+        <f>'Software - Profit'!I6</f>
+        <v>324600</v>
       </c>
       <c r="J20" s="13">
-        <f>Exact!J9</f>
-        <v>186000</v>
+        <f>'Software - Profit'!J6</f>
+        <v>426000</v>
       </c>
       <c r="K20" s="13">
-        <f>Exact!K9</f>
-        <v>248000</v>
+        <f>'Software - Profit'!K6</f>
+        <v>568000</v>
       </c>
       <c r="L20" s="13">
-        <f>Exact!L9</f>
-        <v>248000</v>
+        <f>'Software - Profit'!L6</f>
+        <v>568000</v>
       </c>
       <c r="M20" s="13">
-        <f>Exact!M9</f>
-        <v>248000</v>
+        <f>'Software - Profit'!M6</f>
+        <v>568000</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="0.75" customHeight="1">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="13">
-        <f>Exact!B34</f>
-        <v>18200</v>
+        <f>'Software - Profit'!B27</f>
+        <v>118120</v>
       </c>
       <c r="C21" s="13">
-        <f>Exact!C34</f>
-        <v>18200</v>
+        <f>'Software - Profit'!C27</f>
+        <v>18120</v>
       </c>
       <c r="D21" s="13">
-        <f>Exact!D34</f>
-        <v>18200</v>
+        <f>'Software - Profit'!D27</f>
+        <v>18120</v>
       </c>
       <c r="E21" s="13">
-        <f>Exact!E34</f>
-        <v>52400</v>
+        <f>'Software - Profit'!E27</f>
+        <v>136240</v>
       </c>
       <c r="F21" s="13">
-        <f>Exact!F34</f>
-        <v>58640</v>
+        <f>'Software - Profit'!F27</f>
+        <v>165240</v>
       </c>
       <c r="G21" s="13">
-        <f>Exact!G34</f>
-        <v>59160</v>
+        <f>'Software - Profit'!G27</f>
+        <v>76060</v>
       </c>
       <c r="H21" s="13">
-        <f>Exact!H34</f>
-        <v>108960</v>
+        <f>'Software - Profit'!H27</f>
+        <v>89860</v>
       </c>
       <c r="I21" s="13">
-        <f>Exact!I34</f>
-        <v>114960</v>
+        <f>'Software - Profit'!I27</f>
+        <v>195860</v>
       </c>
       <c r="J21" s="13">
-        <f>Exact!J34</f>
-        <v>115260</v>
+        <f>'Software - Profit'!J27</f>
+        <v>206000</v>
       </c>
       <c r="K21" s="13">
-        <f>Exact!K34</f>
-        <v>189680</v>
+        <f>'Software - Profit'!K27</f>
+        <v>142000</v>
       </c>
       <c r="L21" s="13">
-        <f>Exact!L34</f>
-        <v>189680</v>
+        <f>'Software - Profit'!L27</f>
+        <v>142000</v>
       </c>
       <c r="M21" s="13">
-        <f>Exact!M34</f>
-        <v>189680</v>
+        <f>'Software - Profit'!M27</f>
+        <v>142000</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="13">
         <f>SUM($B$20:B20)</f>
-        <v>40000</v>
+        <v>43200</v>
       </c>
       <c r="C22" s="13">
         <f>SUM($B$20:C20)</f>
-        <v>80000</v>
+        <v>86400</v>
       </c>
       <c r="D22" s="13">
         <f>SUM($B$20:D20)</f>
-        <v>120000</v>
+        <v>129600</v>
       </c>
       <c r="E22" s="13">
         <f>SUM($B$20:E20)</f>
-        <v>200000</v>
+        <v>216000</v>
       </c>
       <c r="F22" s="13">
         <f>SUM($B$20:F20)</f>
-        <v>304000</v>
+        <v>432400</v>
       </c>
       <c r="G22" s="13">
         <f>SUM($B$20:G20)</f>
-        <v>460000</v>
+        <v>757000</v>
       </c>
       <c r="H22" s="13">
         <f>SUM($B$20:H20)</f>
-        <v>616000</v>
+        <v>1081600</v>
       </c>
       <c r="I22" s="13">
         <f>SUM($B$20:I20)</f>
-        <v>772000</v>
+        <v>1406200</v>
       </c>
       <c r="J22" s="13">
         <f>SUM($B$20:J20)</f>
-        <v>958000</v>
+        <v>1832200</v>
       </c>
       <c r="K22" s="13">
         <f>SUM($B$20:K20)</f>
-        <v>1206000</v>
+        <v>2400200</v>
       </c>
       <c r="L22" s="13">
         <f>SUM($B$20:L20)</f>
-        <v>1454000</v>
+        <v>2968200</v>
       </c>
       <c r="M22" s="13">
         <f>SUM($B$20:M20)</f>
-        <v>1702000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3536200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="13">
         <f>SUM($B$21:B21)</f>
-        <v>18200</v>
+        <v>118120</v>
       </c>
       <c r="C23" s="13">
         <f>SUM($B$21:C21)</f>
-        <v>36400</v>
+        <v>136240</v>
       </c>
       <c r="D23" s="13">
         <f>SUM($B$21:D21)</f>
-        <v>54600</v>
+        <v>154360</v>
       </c>
       <c r="E23" s="13">
         <f>SUM($B$21:E21)</f>
-        <v>107000</v>
+        <v>290600</v>
       </c>
       <c r="F23" s="13">
         <f>SUM($B$21:F21)</f>
-        <v>165640</v>
+        <v>455840</v>
       </c>
       <c r="G23" s="13">
         <f>SUM($B$21:G21)</f>
-        <v>224800</v>
+        <v>531900</v>
       </c>
       <c r="H23" s="13">
         <f>SUM($B$21:H21)</f>
-        <v>333760</v>
+        <v>621760</v>
       </c>
       <c r="I23" s="13">
         <f>SUM($B$21:I21)</f>
-        <v>448720</v>
+        <v>817620</v>
       </c>
       <c r="J23" s="13">
         <f>SUM($B$21:J21)</f>
-        <v>563980</v>
+        <v>1023620</v>
       </c>
       <c r="K23" s="13">
         <f>SUM($B$21:K21)</f>
-        <v>753660</v>
+        <v>1165620</v>
       </c>
       <c r="L23" s="13">
         <f>SUM($B$21:L21)</f>
-        <v>943340</v>
+        <v>1307620</v>
       </c>
       <c r="M23" s="13">
         <f>SUM($B$21:M21)</f>
-        <v>1133020</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1449620</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>

--- a/Project/School/Revenue Cost Model.xlsx
+++ b/Project/School/Revenue Cost Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Product Definition" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Approx cost, Generally charges based on per sms (minimum 1000)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
@@ -171,7 +205,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
@@ -1183,24 +1217,29 @@
     <xf numFmtId="4" fontId="0" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1222,6 +1261,24 @@
     <xf numFmtId="165" fontId="0" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1237,6 +1294,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1246,50 +1324,6 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1531,11 +1565,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78448128"/>
-        <c:axId val="78449664"/>
+        <c:axId val="82903040"/>
+        <c:axId val="82904576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78448128"/>
+        <c:axId val="82903040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,14 +1588,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78449664"/>
+        <c:crossAx val="82904576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78449664"/>
+        <c:axId val="82904576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1583,7 +1617,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1598,14 +1631,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78448128"/>
+        <c:crossAx val="82903040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1622,7 +1654,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2016,11 +2048,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78806016"/>
-        <c:axId val="78816000"/>
+        <c:axId val="82964864"/>
+        <c:axId val="82966400"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="78806016"/>
+        <c:axId val="82964864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2037,14 +2069,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78816000"/>
+        <c:crossAx val="82966400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78816000"/>
+        <c:axId val="82966400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,14 +2094,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78806016"/>
+        <c:crossAx val="82964864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2086,7 +2117,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2449,11 +2480,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2472,46 +2503,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" thickBot="1">
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75" t="s">
+      <c r="F2" s="89"/>
+      <c r="G2" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76" t="s">
+      <c r="H2" s="90"/>
+      <c r="I2" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="76"/>
+      <c r="J2" s="91"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="68" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="68" t="s">
+      <c r="H3" s="97"/>
+      <c r="I3" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="69"/>
+      <c r="J3" s="97"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B4" s="71"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="11" t="s">
         <v>1</v>
       </c>
@@ -2625,7 +2656,7 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="5">
-        <f t="shared" ref="I7:I12" si="0">C8</f>
+        <f t="shared" ref="I8:I12" si="0">C8</f>
         <v>6000</v>
       </c>
       <c r="J8" s="63"/>
@@ -2776,7 +2807,7 @@
       </c>
       <c r="F16" s="55"/>
       <c r="G16" s="55">
-        <f t="shared" ref="F16:J16" si="1">SUM(G5:G14)</f>
+        <f t="shared" ref="G16:I16" si="1">SUM(G5:G14)</f>
         <v>43000</v>
       </c>
       <c r="H16" s="55"/>
@@ -2798,15 +2829,15 @@
         <f>C17</f>
         <v>25000</v>
       </c>
-      <c r="F17" s="64"/>
+      <c r="F17" s="92"/>
       <c r="G17" s="56">
         <v>20000</v>
       </c>
-      <c r="H17" s="64"/>
+      <c r="H17" s="92"/>
       <c r="I17" s="56">
         <v>20000</v>
       </c>
-      <c r="J17" s="64"/>
+      <c r="J17" s="92"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" thickBot="1">
       <c r="B18" s="50" t="s">
@@ -2819,15 +2850,15 @@
       <c r="E18" s="52">
         <v>8000</v>
       </c>
-      <c r="F18" s="65"/>
+      <c r="F18" s="93"/>
       <c r="G18" s="52">
         <v>8000</v>
       </c>
-      <c r="H18" s="65"/>
+      <c r="H18" s="93"/>
       <c r="I18" s="52">
         <v>8000</v>
       </c>
-      <c r="J18" s="65"/>
+      <c r="J18" s="93"/>
     </row>
     <row r="19" spans="2:10">
       <c r="E19" s="4">
@@ -2905,11 +2936,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="J17:J18"/>
@@ -2917,9 +2943,15 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2979,26 +3011,26 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="98">
+      <c r="B3" s="70">
         <v>2</v>
       </c>
       <c r="C3" s="40">
@@ -3031,7 +3063,7 @@
       <c r="L3" s="40">
         <v>8</v>
       </c>
-      <c r="M3" s="99">
+      <c r="M3" s="71">
         <v>8</v>
       </c>
       <c r="O3" t="s">
@@ -3043,8 +3075,8 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="85"/>
-      <c r="B4" s="100">
+      <c r="A4" s="106"/>
+      <c r="B4" s="72">
         <f>'Product Definition'!E16</f>
         <v>18000</v>
       </c>
@@ -3088,7 +3120,7 @@
         <f>'Product Definition'!I16</f>
         <v>56000</v>
       </c>
-      <c r="M4" s="101">
+      <c r="M4" s="73">
         <f>'Product Definition'!I16</f>
         <v>56000</v>
       </c>
@@ -3097,8 +3129,8 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="85"/>
-      <c r="B5" s="102">
+      <c r="A5" s="106"/>
+      <c r="B5" s="74">
         <f>'Product Definition'!E15</f>
         <v>3600</v>
       </c>
@@ -3142,7 +3174,7 @@
         <f>'Product Definition'!I15</f>
         <v>15000</v>
       </c>
-      <c r="M5" s="103">
+      <c r="M5" s="75">
         <f>'Product Definition'!I15</f>
         <v>15000</v>
       </c>
@@ -3152,10 +3184,10 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21">
@@ -3182,13 +3214,13 @@
       <c r="L6" s="21">
         <v>0</v>
       </c>
-      <c r="M6" s="104">
+      <c r="M6" s="76">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="94"/>
-      <c r="B7" s="111"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21">
@@ -3223,14 +3255,14 @@
         <f>'Product Definition'!$D14+'Product Definition'!$D15</f>
         <v>0</v>
       </c>
-      <c r="M7" s="104">
+      <c r="M7" s="76">
         <f>'Product Definition'!$D14+'Product Definition'!$D15</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="94"/>
-      <c r="B8" s="106">
+      <c r="A8" s="107"/>
+      <c r="B8" s="78">
         <f t="shared" ref="B8" si="0">B6*B7</f>
         <v>0</v>
       </c>
@@ -3274,7 +3306,7 @@
         <f t="shared" ref="L8" si="10">L6*L7</f>
         <v>0</v>
       </c>
-      <c r="M8" s="107">
+      <c r="M8" s="79">
         <f t="shared" ref="M8" si="11">M6*M7</f>
         <v>0</v>
       </c>
@@ -3285,51 +3317,51 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="27"/>
-      <c r="B9" s="108">
+      <c r="B9" s="80">
         <f>(B4+B5+B8)*B3</f>
         <v>43200</v>
       </c>
-      <c r="C9" s="109">
+      <c r="C9" s="81">
         <f t="shared" ref="C9:M9" si="12">(C4+C5+C8)*C3</f>
         <v>43200</v>
       </c>
-      <c r="D9" s="109">
+      <c r="D9" s="81">
         <f t="shared" si="12"/>
         <v>43200</v>
       </c>
-      <c r="E9" s="109">
+      <c r="E9" s="81">
         <f t="shared" si="12"/>
         <v>86400</v>
       </c>
-      <c r="F9" s="109">
+      <c r="F9" s="81">
         <f t="shared" si="12"/>
         <v>216400</v>
       </c>
-      <c r="G9" s="109">
+      <c r="G9" s="81">
         <f t="shared" si="12"/>
         <v>324600</v>
       </c>
-      <c r="H9" s="109">
+      <c r="H9" s="81">
         <f t="shared" si="12"/>
         <v>324600</v>
       </c>
-      <c r="I9" s="109">
+      <c r="I9" s="81">
         <f t="shared" si="12"/>
         <v>324600</v>
       </c>
-      <c r="J9" s="109">
+      <c r="J9" s="81">
         <f t="shared" si="12"/>
         <v>426000</v>
       </c>
-      <c r="K9" s="109">
+      <c r="K9" s="81">
         <f t="shared" si="12"/>
         <v>568000</v>
       </c>
-      <c r="L9" s="109">
+      <c r="L9" s="81">
         <f t="shared" si="12"/>
         <v>568000</v>
       </c>
-      <c r="M9" s="110">
+      <c r="M9" s="82">
         <f t="shared" si="12"/>
         <v>568000</v>
       </c>
@@ -3353,26 +3385,26 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
-      <c r="N10" s="112"/>
+      <c r="N10" s="84"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1">
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="102"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="106" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="39">
@@ -3413,7 +3445,7 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="85"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="16">
         <f>B12*2000</f>
         <v>4000</v>
@@ -3467,7 +3499,7 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="85"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="16">
         <v>0</v>
       </c>
@@ -3506,7 +3538,7 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="85"/>
+      <c r="A15" s="106"/>
       <c r="B15" s="16">
         <f>B9*$P$15</f>
         <v>4320</v>
@@ -3558,12 +3590,12 @@
       <c r="O15" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="92">
+      <c r="P15" s="68">
         <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1">
-      <c r="A16" s="85"/>
+      <c r="A16" s="106"/>
       <c r="B16" s="30">
         <f>B15+B13</f>
         <v>8320</v>
@@ -3618,7 +3650,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="106" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="19"/>
@@ -3653,7 +3685,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A18" s="85"/>
+      <c r="A18" s="106"/>
       <c r="B18" s="32"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -3686,7 +3718,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A19" s="85"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="30">
         <f t="shared" ref="B19" si="16">B17*B18</f>
         <v>0</v>
@@ -3741,7 +3773,7 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="98" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="19"/>
@@ -3761,7 +3793,7 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="77"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
@@ -3782,7 +3814,7 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="77"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="32">
         <f t="shared" ref="B22" si="28">B20*B21</f>
         <v>0</v>
@@ -3837,7 +3869,7 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="98" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="19"/>
@@ -3873,7 +3905,7 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="77"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="36"/>
@@ -3904,7 +3936,7 @@
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="77"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="32">
         <f t="shared" ref="B25:C25" si="40">B23*B24</f>
         <v>0</v>
@@ -3959,7 +3991,7 @@
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="99" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="19"/>
@@ -3976,7 +4008,7 @@
       <c r="M26" s="22"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="78"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
@@ -4000,7 +4032,7 @@
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="78"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="30">
         <f t="shared" ref="B28" si="51">B26*B27</f>
         <v>0</v>
@@ -4398,7 +4430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23:M25"/>
     </sheetView>
   </sheetViews>
@@ -4450,23 +4482,23 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="112"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="106" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="39">
@@ -4514,7 +4546,7 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="85"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="16">
         <f>'Product Definition'!E16</f>
         <v>18000</v>
@@ -4568,7 +4600,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A5" s="85"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="16">
         <f>'Product Definition'!E15</f>
         <v>3600</v>
@@ -4620,52 +4652,52 @@
       <c r="N5" s="43"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88">
+      <c r="A6" s="64"/>
+      <c r="B6" s="65">
         <f>B3*(B4 + B5)</f>
         <v>43200</v>
       </c>
-      <c r="C6" s="89">
+      <c r="C6" s="66">
         <f>C3*(C4 + C5)</f>
         <v>43200</v>
       </c>
-      <c r="D6" s="89">
+      <c r="D6" s="66">
         <f t="shared" ref="D6:L6" si="0">D3*(D4 + D5)</f>
         <v>43200</v>
       </c>
-      <c r="E6" s="89">
+      <c r="E6" s="66">
         <f t="shared" si="0"/>
         <v>86400</v>
       </c>
-      <c r="F6" s="89">
+      <c r="F6" s="66">
         <f t="shared" si="0"/>
         <v>216400</v>
       </c>
-      <c r="G6" s="89">
+      <c r="G6" s="66">
         <f t="shared" si="0"/>
         <v>324600</v>
       </c>
-      <c r="H6" s="89">
+      <c r="H6" s="66">
         <f t="shared" si="0"/>
         <v>324600</v>
       </c>
-      <c r="I6" s="89">
+      <c r="I6" s="66">
         <f t="shared" si="0"/>
         <v>324600</v>
       </c>
-      <c r="J6" s="89">
+      <c r="J6" s="66">
         <f t="shared" si="0"/>
         <v>426000</v>
       </c>
-      <c r="K6" s="89">
+      <c r="K6" s="66">
         <f t="shared" si="0"/>
         <v>568000</v>
       </c>
-      <c r="L6" s="89">
+      <c r="L6" s="66">
         <f t="shared" si="0"/>
         <v>568000</v>
       </c>
-      <c r="M6" s="90">
+      <c r="M6" s="67">
         <f>M3*(M4 + M5)</f>
         <v>568000</v>
       </c>
@@ -4676,24 +4708,24 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1">
       <c r="A7" s="49"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="102"/>
       <c r="O7" s="26"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="108" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="39">
@@ -4735,7 +4767,7 @@
       <c r="N8" s="44"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="86"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="16">
         <f>B8*2000</f>
         <v>4000</v>
@@ -4789,7 +4821,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1">
-      <c r="A10" s="86"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="16">
         <v>0</v>
       </c>
@@ -4828,7 +4860,7 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="86"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="16">
         <f>B6*$P$11</f>
         <v>4320</v>
@@ -4880,12 +4912,12 @@
       <c r="O11" t="s">
         <v>52</v>
       </c>
-      <c r="P11" s="92">
+      <c r="P11" s="68">
         <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="87"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="30">
         <f>B11+B9</f>
         <v>8320</v>
@@ -4940,7 +4972,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="109" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="19"/>
@@ -4957,7 +4989,7 @@
       <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A14" s="91"/>
+      <c r="A14" s="109"/>
       <c r="B14" s="35"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
@@ -4978,7 +5010,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A15" s="91"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="32">
         <f t="shared" ref="B15:M15" si="4">B13*B14</f>
         <v>0</v>
@@ -5033,7 +5065,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="109" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="19"/>
@@ -5069,7 +5101,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="91"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -5100,7 +5132,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="91"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="32">
         <f t="shared" ref="B18:M18" si="5">B16*B17</f>
         <v>0</v>
@@ -5155,7 +5187,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="109" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="19"/>
@@ -5172,7 +5204,7 @@
       <c r="M19" s="22"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="91"/>
+      <c r="A20" s="109"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
@@ -5193,7 +5225,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="91"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="30">
         <f t="shared" ref="B21:M21" si="6">B19*B20</f>
         <v>0</v>
@@ -5514,58 +5546,58 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1">
       <c r="B28" s="23">
-        <f>B6-B27</f>
+        <f t="shared" ref="B28:M28" si="10">B6-B27</f>
         <v>-74920</v>
       </c>
       <c r="C28" s="24">
-        <f>C6-C27</f>
+        <f t="shared" si="10"/>
         <v>25080</v>
       </c>
       <c r="D28" s="24">
-        <f>D6-D27</f>
+        <f t="shared" si="10"/>
         <v>25080</v>
       </c>
       <c r="E28" s="24">
-        <f>E6-E27</f>
+        <f t="shared" si="10"/>
         <v>-49840</v>
       </c>
       <c r="F28" s="24">
-        <f>F6-F27</f>
+        <f t="shared" si="10"/>
         <v>51160</v>
       </c>
       <c r="G28" s="24">
-        <f>G6-G27</f>
+        <f t="shared" si="10"/>
         <v>248540</v>
       </c>
       <c r="H28" s="24">
-        <f>H6-H27</f>
+        <f t="shared" si="10"/>
         <v>234740</v>
       </c>
       <c r="I28" s="24">
-        <f>I6-I27</f>
+        <f t="shared" si="10"/>
         <v>128740</v>
       </c>
       <c r="J28" s="24">
-        <f>J6-J27</f>
+        <f t="shared" si="10"/>
         <v>220000</v>
       </c>
       <c r="K28" s="24">
-        <f>K6-K27</f>
+        <f t="shared" si="10"/>
         <v>426000</v>
       </c>
       <c r="L28" s="24">
-        <f>L6-L27</f>
+        <f t="shared" si="10"/>
         <v>426000</v>
       </c>
       <c r="M28" s="25">
-        <f>M6-M27</f>
+        <f t="shared" si="10"/>
         <v>426000</v>
       </c>
       <c r="N28" s="47">
         <f>SUM(B28:M28)</f>
         <v>2086580</v>
       </c>
-      <c r="O28" s="93" t="s">
+      <c r="O28" s="69" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Project/School/Revenue Cost Model.xlsx
+++ b/Project/School/Revenue Cost Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Definition" sheetId="4" r:id="rId1"/>
@@ -360,7 +360,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>Software Modules</t>
   </si>
@@ -523,6 +523,9 @@
   <si>
     <t>Profit</t>
   </si>
+  <si>
+    <t>Email Alert (EA)</t>
+  </si>
 </sst>
 </file>
 
@@ -1240,6 +1243,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1260,24 +1281,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1427,28 +1430,28 @@
                   <c:v>86400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>216400</c:v>
+                  <c:v>258000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>324600</c:v>
+                  <c:v>387000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>324600</c:v>
+                  <c:v>387000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>324600</c:v>
+                  <c:v>387000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>426000</c:v>
+                  <c:v>488400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>568000</c:v>
+                  <c:v>651200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>568000</c:v>
+                  <c:v>651200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>568000</c:v>
+                  <c:v>651200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1536,28 +1539,28 @@
                   <c:v>136240</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165240</c:v>
+                  <c:v>169400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76060</c:v>
+                  <c:v>82300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>89860</c:v>
+                  <c:v>96100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>195860</c:v>
+                  <c:v>202100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>206000</c:v>
+                  <c:v>212240</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>142000</c:v>
+                  <c:v>150320</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>142000</c:v>
+                  <c:v>150320</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>142000</c:v>
+                  <c:v>150320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,11 +1568,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82903040"/>
-        <c:axId val="82904576"/>
+        <c:axId val="83787776"/>
+        <c:axId val="83789312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="82903040"/>
+        <c:axId val="83787776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1588,14 +1591,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82904576"/>
+        <c:crossAx val="83789312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="82904576"/>
+        <c:axId val="83789312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,7 +1634,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82903040"/>
+        <c:crossAx val="83787776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1654,7 +1657,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1811,28 +1814,28 @@
                   <c:v>136240</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165240</c:v>
+                  <c:v>169400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76060</c:v>
+                  <c:v>82300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>89860</c:v>
+                  <c:v>96100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>195860</c:v>
+                  <c:v>202100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>206000</c:v>
+                  <c:v>212240</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>142000</c:v>
+                  <c:v>150320</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>142000</c:v>
+                  <c:v>150320</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>142000</c:v>
+                  <c:v>150320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1916,28 +1919,28 @@
                   <c:v>216000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>432400</c:v>
+                  <c:v>474000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>757000</c:v>
+                  <c:v>861000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1081600</c:v>
+                  <c:v>1248000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1406200</c:v>
+                  <c:v>1635000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1832200</c:v>
+                  <c:v>2123400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2400200</c:v>
+                  <c:v>2774600</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2968200</c:v>
+                  <c:v>3425800</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3536200</c:v>
+                  <c:v>4077000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2021,38 +2024,38 @@
                   <c:v>290600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>455840</c:v>
+                  <c:v>460000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>531900</c:v>
+                  <c:v>542300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>621760</c:v>
+                  <c:v>638400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>817620</c:v>
+                  <c:v>840500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1023620</c:v>
+                  <c:v>1052740</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1165620</c:v>
+                  <c:v>1203060</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1307620</c:v>
+                  <c:v>1353380</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1449620</c:v>
+                  <c:v>1503700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="82964864"/>
-        <c:axId val="82966400"/>
+        <c:axId val="83526016"/>
+        <c:axId val="83527552"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="82964864"/>
+        <c:axId val="83526016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,14 +2072,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82966400"/>
+        <c:crossAx val="83527552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="82966400"/>
+        <c:axId val="83527552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2094,7 +2097,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82964864"/>
+        <c:crossAx val="83526016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2117,7 +2120,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2480,11 +2483,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2503,46 +2506,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" thickBot="1">
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="90" t="s">
+      <c r="F2" s="95"/>
+      <c r="G2" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="91" t="s">
+      <c r="H2" s="96"/>
+      <c r="I2" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="91"/>
+      <c r="J2" s="97"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="87" t="s">
+      <c r="B3" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="96" t="s">
+      <c r="F3" s="90"/>
+      <c r="G3" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="97"/>
-      <c r="I3" s="96" t="s">
+      <c r="H3" s="90"/>
+      <c r="I3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="97"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B4" s="86"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="95"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="11" t="s">
         <v>1</v>
       </c>
@@ -2656,35 +2659,37 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="5">
-        <f t="shared" ref="I8:I12" si="0">C8</f>
+        <f t="shared" ref="I8:I13" si="0">C8</f>
         <v>6000</v>
       </c>
       <c r="J8" s="63"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="10" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2">
         <v>5000</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>3000</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="5">
-        <f>C9</f>
-        <v>5000</v>
+        <f>C9+D9</f>
+        <v>8000</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="5">
-        <f t="shared" si="0"/>
-        <v>5000</v>
+        <f>C9 +D9</f>
+        <v>8000</v>
       </c>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2">
         <v>5000</v>
@@ -2705,30 +2710,33 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="D11" s="2">
         <v>8000</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="5">
+        <f>C11</f>
+        <v>5000</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="5">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="D12" s="2">
         <v>10000</v>
@@ -2739,19 +2747,26 @@
       <c r="H12" s="3"/>
       <c r="I12" s="5">
         <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2">
         <v>7000</v>
       </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="10"/>
-      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="5">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="2:10">
@@ -2774,21 +2789,21 @@
       </c>
       <c r="D15" s="51"/>
       <c r="E15" s="52">
-        <f>(E5*$C$15)+(E6*$C$15)+(E7*$C$15)+(E9*$C$15)+(E10*$C$15)+(E11*$C$15)+(E12*$C$15)</f>
+        <f>(E5*$C$15)+(E6*$C$15)+(E7*$C$15)+(E9*$C$15)+(E10*$C$15)+(E11*$C$15)+(E12*$C$15) +(E13*$C$15)</f>
         <v>3600</v>
       </c>
       <c r="F15" s="52"/>
       <c r="G15" s="52">
-        <f>(G5*$C$15)+(G6*$C$15)+(G7*$C$15)+(G9*$C$15)+(G10*$C$15)+(G11*$C$15)+(G12*$C$15)</f>
-        <v>11100</v>
+        <f>(G5*$C$15)+(G6*$C$15)+(G7*$C$15)+(G9*$C$15)+(G10*$C$15)+(G11*$C$15)+(G12*$C$15) +(G13*$C$15)</f>
+        <v>13500</v>
       </c>
       <c r="H15" s="52">
         <f>H7</f>
         <v>12000</v>
       </c>
       <c r="I15" s="52">
-        <f>(I5*$C$15)+(I6*$C$15)+(I7*$C$15)+(I9*$C$15)+(I10*$C$15)+(I11*$C$15)+(I12*$C$15)</f>
-        <v>15000</v>
+        <f>(I5*$C$15)+(I6*$C$15)+(I7*$C$15)+(I9*$C$15)+(I10*$C$15)+(I11*$C$15)+(I12*$C$15) +(I13*$C$15)</f>
+        <v>17400</v>
       </c>
       <c r="J15" s="52">
         <f>J7</f>
@@ -2808,12 +2823,12 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55">
         <f t="shared" ref="G16:I16" si="1">SUM(G5:G14)</f>
-        <v>43000</v>
+        <v>51000</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="55">
         <f t="shared" si="1"/>
-        <v>56000</v>
+        <v>64000</v>
       </c>
       <c r="J16" s="55"/>
     </row>
@@ -2829,15 +2844,15 @@
         <f>C17</f>
         <v>25000</v>
       </c>
-      <c r="F17" s="92"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="56">
         <v>20000</v>
       </c>
-      <c r="H17" s="92"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="56">
         <v>20000</v>
       </c>
-      <c r="J17" s="92"/>
+      <c r="J17" s="85"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" thickBot="1">
       <c r="B18" s="50" t="s">
@@ -2850,15 +2865,15 @@
       <c r="E18" s="52">
         <v>8000</v>
       </c>
-      <c r="F18" s="93"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="52">
         <v>8000</v>
       </c>
-      <c r="H18" s="93"/>
+      <c r="H18" s="86"/>
       <c r="I18" s="52">
         <v>8000</v>
       </c>
-      <c r="J18" s="93"/>
+      <c r="J18" s="86"/>
     </row>
     <row r="19" spans="2:10">
       <c r="E19" s="4">
@@ -2871,7 +2886,7 @@
       </c>
       <c r="G19" s="4">
         <f>SUM(G16:G18)</f>
-        <v>71000</v>
+        <v>79000</v>
       </c>
       <c r="H19" s="4">
         <f>SUM(H16:H18)</f>
@@ -2879,7 +2894,7 @@
       </c>
       <c r="I19" s="4">
         <f t="shared" si="2"/>
-        <v>84000</v>
+        <v>92000</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="2"/>
@@ -2936,6 +2951,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="J17:J18"/>
@@ -2943,11 +2963,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3094,35 +3109,35 @@
       </c>
       <c r="F4" s="17">
         <f>'Product Definition'!G16</f>
-        <v>43000</v>
+        <v>51000</v>
       </c>
       <c r="G4" s="17">
         <f>'Product Definition'!G16</f>
-        <v>43000</v>
+        <v>51000</v>
       </c>
       <c r="H4" s="17">
         <f>'Product Definition'!G16</f>
-        <v>43000</v>
+        <v>51000</v>
       </c>
       <c r="I4" s="17">
         <f>'Product Definition'!G16</f>
-        <v>43000</v>
+        <v>51000</v>
       </c>
       <c r="J4" s="17">
         <f>'Product Definition'!I16</f>
-        <v>56000</v>
+        <v>64000</v>
       </c>
       <c r="K4" s="17">
         <f>'Product Definition'!I16</f>
-        <v>56000</v>
+        <v>64000</v>
       </c>
       <c r="L4" s="17">
         <f>'Product Definition'!I16</f>
-        <v>56000</v>
+        <v>64000</v>
       </c>
       <c r="M4" s="73">
         <f>'Product Definition'!I16</f>
-        <v>56000</v>
+        <v>64000</v>
       </c>
       <c r="O4" t="s">
         <v>20</v>
@@ -3148,39 +3163,39 @@
       </c>
       <c r="F5" s="33">
         <f>'Product Definition'!G15</f>
-        <v>11100</v>
+        <v>13500</v>
       </c>
       <c r="G5" s="33">
         <f>'Product Definition'!G15</f>
-        <v>11100</v>
+        <v>13500</v>
       </c>
       <c r="H5" s="33">
         <f>'Product Definition'!G15</f>
-        <v>11100</v>
+        <v>13500</v>
       </c>
       <c r="I5" s="33">
         <f>'Product Definition'!G15</f>
-        <v>11100</v>
+        <v>13500</v>
       </c>
       <c r="J5" s="33">
         <f>'Product Definition'!I15</f>
-        <v>15000</v>
+        <v>17400</v>
       </c>
       <c r="K5" s="33">
         <f>'Product Definition'!I15</f>
-        <v>15000</v>
+        <v>17400</v>
       </c>
       <c r="L5" s="33">
         <f>'Product Definition'!I15</f>
-        <v>15000</v>
+        <v>17400</v>
       </c>
       <c r="M5" s="75">
         <f>'Product Definition'!I15</f>
-        <v>15000</v>
+        <v>17400</v>
       </c>
       <c r="N5" s="43">
         <f>SUM(B5:M5)</f>
-        <v>118800</v>
+        <v>138000</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3335,39 +3350,39 @@
       </c>
       <c r="F9" s="81">
         <f t="shared" si="12"/>
-        <v>216400</v>
+        <v>258000</v>
       </c>
       <c r="G9" s="81">
         <f t="shared" si="12"/>
-        <v>324600</v>
+        <v>387000</v>
       </c>
       <c r="H9" s="81">
         <f t="shared" si="12"/>
-        <v>324600</v>
+        <v>387000</v>
       </c>
       <c r="I9" s="81">
         <f t="shared" si="12"/>
-        <v>324600</v>
+        <v>387000</v>
       </c>
       <c r="J9" s="81">
         <f t="shared" si="12"/>
-        <v>426000</v>
+        <v>488400</v>
       </c>
       <c r="K9" s="81">
         <f t="shared" si="12"/>
-        <v>568000</v>
+        <v>651200</v>
       </c>
       <c r="L9" s="81">
         <f t="shared" si="12"/>
-        <v>568000</v>
+        <v>651200</v>
       </c>
       <c r="M9" s="82">
         <f t="shared" si="12"/>
-        <v>568000</v>
+        <v>651200</v>
       </c>
       <c r="N9" s="45">
         <f>SUM(B9:M9)</f>
-        <v>3536200</v>
+        <v>4077000</v>
       </c>
       <c r="O9" s="26"/>
     </row>
@@ -3557,35 +3572,35 @@
       </c>
       <c r="F15" s="17">
         <f t="shared" si="14"/>
-        <v>21640</v>
+        <v>25800</v>
       </c>
       <c r="G15" s="17">
         <f t="shared" si="14"/>
-        <v>32460</v>
+        <v>38700</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="14"/>
-        <v>32460</v>
+        <v>38700</v>
       </c>
       <c r="I15" s="17">
         <f t="shared" si="14"/>
-        <v>32460</v>
+        <v>38700</v>
       </c>
       <c r="J15" s="17">
         <f t="shared" si="14"/>
-        <v>42600</v>
+        <v>48840</v>
       </c>
       <c r="K15" s="17">
         <f t="shared" si="14"/>
-        <v>56800</v>
+        <v>65120</v>
       </c>
       <c r="L15" s="17">
         <f t="shared" si="14"/>
-        <v>56800</v>
+        <v>65120</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" si="14"/>
-        <v>56800</v>
+        <v>65120</v>
       </c>
       <c r="O15" t="s">
         <v>52</v>
@@ -3614,39 +3629,39 @@
       </c>
       <c r="F16" s="29">
         <f t="shared" si="15"/>
-        <v>29640</v>
+        <v>33800</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" si="15"/>
-        <v>40460</v>
+        <v>46700</v>
       </c>
       <c r="H16" s="29">
         <f t="shared" si="15"/>
-        <v>44460</v>
+        <v>50700</v>
       </c>
       <c r="I16" s="29">
         <f t="shared" si="15"/>
-        <v>44460</v>
+        <v>50700</v>
       </c>
       <c r="J16" s="29">
         <f t="shared" si="15"/>
-        <v>54600</v>
+        <v>60840</v>
       </c>
       <c r="K16" s="29">
         <f t="shared" si="15"/>
-        <v>72800</v>
+        <v>81120</v>
       </c>
       <c r="L16" s="29">
         <f t="shared" si="15"/>
-        <v>72800</v>
+        <v>81120</v>
       </c>
       <c r="M16" s="31">
         <f t="shared" si="15"/>
-        <v>72800</v>
+        <v>81120</v>
       </c>
       <c r="N16" s="46">
         <f>SUM(B16:M16) * -1</f>
-        <v>-473620</v>
+        <v>-527700</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="14.25" customHeight="1">
@@ -4317,39 +4332,39 @@
       </c>
       <c r="F34" s="24">
         <f t="shared" si="64"/>
-        <v>165240</v>
+        <v>169400</v>
       </c>
       <c r="G34" s="24">
         <f t="shared" si="64"/>
-        <v>76060</v>
+        <v>82300</v>
       </c>
       <c r="H34" s="24">
         <f t="shared" si="64"/>
-        <v>89860</v>
+        <v>96100</v>
       </c>
       <c r="I34" s="24">
         <f t="shared" si="64"/>
-        <v>195860</v>
+        <v>202100</v>
       </c>
       <c r="J34" s="24">
         <f t="shared" si="64"/>
-        <v>206000</v>
+        <v>212240</v>
       </c>
       <c r="K34" s="24">
         <f t="shared" si="64"/>
-        <v>142000</v>
+        <v>150320</v>
       </c>
       <c r="L34" s="24">
         <f t="shared" si="64"/>
-        <v>142000</v>
+        <v>150320</v>
       </c>
       <c r="M34" s="25">
         <f t="shared" si="64"/>
-        <v>142000</v>
+        <v>150320</v>
       </c>
       <c r="N34" s="46">
         <f>SUM(B34:M34)</f>
-        <v>1449620</v>
+        <v>1503700</v>
       </c>
       <c r="O34" s="14"/>
     </row>
@@ -4372,39 +4387,39 @@
       </c>
       <c r="F35" s="24">
         <f t="shared" si="65"/>
-        <v>51160</v>
+        <v>88600</v>
       </c>
       <c r="G35" s="24">
         <f t="shared" si="65"/>
-        <v>248540</v>
+        <v>304700</v>
       </c>
       <c r="H35" s="24">
         <f t="shared" si="65"/>
-        <v>234740</v>
+        <v>290900</v>
       </c>
       <c r="I35" s="24">
         <f t="shared" si="65"/>
-        <v>128740</v>
+        <v>184900</v>
       </c>
       <c r="J35" s="24">
         <f t="shared" si="65"/>
-        <v>220000</v>
+        <v>276160</v>
       </c>
       <c r="K35" s="24">
         <f t="shared" si="65"/>
-        <v>426000</v>
+        <v>500880</v>
       </c>
       <c r="L35" s="24">
         <f t="shared" si="65"/>
-        <v>426000</v>
+        <v>500880</v>
       </c>
       <c r="M35" s="25">
         <f t="shared" si="65"/>
-        <v>426000</v>
+        <v>500880</v>
       </c>
       <c r="N35" s="47">
         <f>SUM(B35:M35)</f>
-        <v>2086580</v>
+        <v>2573300</v>
       </c>
       <c r="O35" s="14"/>
     </row>
@@ -4430,7 +4445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23:M25"/>
     </sheetView>
   </sheetViews>
@@ -4565,35 +4580,35 @@
       </c>
       <c r="F4" s="17">
         <f>'Product Definition'!G16</f>
-        <v>43000</v>
+        <v>51000</v>
       </c>
       <c r="G4" s="17">
         <f>'Product Definition'!G16</f>
-        <v>43000</v>
+        <v>51000</v>
       </c>
       <c r="H4" s="17">
         <f>'Product Definition'!G16</f>
-        <v>43000</v>
+        <v>51000</v>
       </c>
       <c r="I4" s="17">
         <f>'Product Definition'!G16</f>
-        <v>43000</v>
+        <v>51000</v>
       </c>
       <c r="J4" s="17">
         <f>'Product Definition'!I16</f>
-        <v>56000</v>
+        <v>64000</v>
       </c>
       <c r="K4" s="17">
         <f>'Product Definition'!I16</f>
-        <v>56000</v>
+        <v>64000</v>
       </c>
       <c r="L4" s="17">
         <f>'Product Definition'!I16</f>
-        <v>56000</v>
+        <v>64000</v>
       </c>
       <c r="M4" s="18">
         <f>'Product Definition'!I16</f>
-        <v>56000</v>
+        <v>64000</v>
       </c>
       <c r="O4" t="s">
         <v>20</v>
@@ -4619,35 +4634,35 @@
       </c>
       <c r="F5" s="17">
         <f>'Product Definition'!G15</f>
-        <v>11100</v>
+        <v>13500</v>
       </c>
       <c r="G5" s="17">
         <f>'Product Definition'!G15</f>
-        <v>11100</v>
+        <v>13500</v>
       </c>
       <c r="H5" s="17">
         <f>'Product Definition'!G15</f>
-        <v>11100</v>
+        <v>13500</v>
       </c>
       <c r="I5" s="17">
         <f>'Product Definition'!G15</f>
-        <v>11100</v>
+        <v>13500</v>
       </c>
       <c r="J5" s="17">
         <f>'Product Definition'!I15</f>
-        <v>15000</v>
+        <v>17400</v>
       </c>
       <c r="K5" s="17">
         <f>'Product Definition'!I15</f>
-        <v>15000</v>
+        <v>17400</v>
       </c>
       <c r="L5" s="17">
         <f>'Product Definition'!I15</f>
-        <v>15000</v>
+        <v>17400</v>
       </c>
       <c r="M5" s="18">
         <f>'Product Definition'!I15</f>
-        <v>15000</v>
+        <v>17400</v>
       </c>
       <c r="N5" s="43"/>
     </row>
@@ -4671,39 +4686,39 @@
       </c>
       <c r="F6" s="66">
         <f t="shared" si="0"/>
-        <v>216400</v>
+        <v>258000</v>
       </c>
       <c r="G6" s="66">
         <f t="shared" si="0"/>
-        <v>324600</v>
+        <v>387000</v>
       </c>
       <c r="H6" s="66">
         <f t="shared" si="0"/>
-        <v>324600</v>
+        <v>387000</v>
       </c>
       <c r="I6" s="66">
         <f t="shared" si="0"/>
-        <v>324600</v>
+        <v>387000</v>
       </c>
       <c r="J6" s="66">
         <f t="shared" si="0"/>
-        <v>426000</v>
+        <v>488400</v>
       </c>
       <c r="K6" s="66">
         <f t="shared" si="0"/>
-        <v>568000</v>
+        <v>651200</v>
       </c>
       <c r="L6" s="66">
         <f t="shared" si="0"/>
-        <v>568000</v>
+        <v>651200</v>
       </c>
       <c r="M6" s="67">
         <f>M3*(M4 + M5)</f>
-        <v>568000</v>
+        <v>651200</v>
       </c>
       <c r="N6" s="45">
         <f>SUM(B6:M6)</f>
-        <v>3536200</v>
+        <v>4077000</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1">
@@ -4879,35 +4894,35 @@
       </c>
       <c r="F11" s="17">
         <f t="shared" si="2"/>
-        <v>21640</v>
+        <v>25800</v>
       </c>
       <c r="G11" s="17">
         <f t="shared" si="2"/>
-        <v>32460</v>
+        <v>38700</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="2"/>
-        <v>32460</v>
+        <v>38700</v>
       </c>
       <c r="I11" s="17">
         <f t="shared" si="2"/>
-        <v>32460</v>
+        <v>38700</v>
       </c>
       <c r="J11" s="17">
         <f t="shared" si="2"/>
-        <v>42600</v>
+        <v>48840</v>
       </c>
       <c r="K11" s="17">
         <f t="shared" si="2"/>
-        <v>56800</v>
+        <v>65120</v>
       </c>
       <c r="L11" s="17">
         <f t="shared" si="2"/>
-        <v>56800</v>
+        <v>65120</v>
       </c>
       <c r="M11" s="18">
         <f>M6*$P$11</f>
-        <v>56800</v>
+        <v>65120</v>
       </c>
       <c r="O11" t="s">
         <v>52</v>
@@ -4936,39 +4951,39 @@
       </c>
       <c r="F12" s="29">
         <f t="shared" si="3"/>
-        <v>29640</v>
+        <v>33800</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="3"/>
-        <v>40460</v>
+        <v>46700</v>
       </c>
       <c r="H12" s="29">
         <f t="shared" si="3"/>
-        <v>44460</v>
+        <v>50700</v>
       </c>
       <c r="I12" s="29">
         <f t="shared" si="3"/>
-        <v>44460</v>
+        <v>50700</v>
       </c>
       <c r="J12" s="29">
         <f t="shared" si="3"/>
-        <v>54600</v>
+        <v>60840</v>
       </c>
       <c r="K12" s="29">
         <f t="shared" si="3"/>
-        <v>72800</v>
+        <v>81120</v>
       </c>
       <c r="L12" s="29">
         <f t="shared" si="3"/>
-        <v>72800</v>
+        <v>81120</v>
       </c>
       <c r="M12" s="31">
         <f t="shared" si="3"/>
-        <v>72800</v>
+        <v>81120</v>
       </c>
       <c r="N12" s="46">
         <f>SUM(B12:M12) * -1</f>
-        <v>-473620</v>
+        <v>-527700</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1">
@@ -5508,39 +5523,39 @@
       </c>
       <c r="F27" s="24">
         <f t="shared" si="9"/>
-        <v>165240</v>
+        <v>169400</v>
       </c>
       <c r="G27" s="24">
         <f t="shared" si="9"/>
-        <v>76060</v>
+        <v>82300</v>
       </c>
       <c r="H27" s="24">
         <f t="shared" si="9"/>
-        <v>89860</v>
+        <v>96100</v>
       </c>
       <c r="I27" s="24">
         <f t="shared" si="9"/>
-        <v>195860</v>
+        <v>202100</v>
       </c>
       <c r="J27" s="24">
         <f t="shared" si="9"/>
-        <v>206000</v>
+        <v>212240</v>
       </c>
       <c r="K27" s="24">
         <f t="shared" si="9"/>
-        <v>142000</v>
+        <v>150320</v>
       </c>
       <c r="L27" s="24">
         <f t="shared" si="9"/>
-        <v>142000</v>
+        <v>150320</v>
       </c>
       <c r="M27" s="25">
         <f>M12+M15+M18+M21+M26</f>
-        <v>142000</v>
+        <v>150320</v>
       </c>
       <c r="N27" s="46">
         <f>SUM(B27:M27) * -1</f>
-        <v>-1449620</v>
+        <v>-1503700</v>
       </c>
       <c r="O27" s="21"/>
     </row>
@@ -5563,39 +5578,39 @@
       </c>
       <c r="F28" s="24">
         <f t="shared" si="10"/>
-        <v>51160</v>
+        <v>88600</v>
       </c>
       <c r="G28" s="24">
         <f t="shared" si="10"/>
-        <v>248540</v>
+        <v>304700</v>
       </c>
       <c r="H28" s="24">
         <f t="shared" si="10"/>
-        <v>234740</v>
+        <v>290900</v>
       </c>
       <c r="I28" s="24">
         <f t="shared" si="10"/>
-        <v>128740</v>
+        <v>184900</v>
       </c>
       <c r="J28" s="24">
         <f t="shared" si="10"/>
-        <v>220000</v>
+        <v>276160</v>
       </c>
       <c r="K28" s="24">
         <f t="shared" si="10"/>
-        <v>426000</v>
+        <v>500880</v>
       </c>
       <c r="L28" s="24">
         <f t="shared" si="10"/>
-        <v>426000</v>
+        <v>500880</v>
       </c>
       <c r="M28" s="25">
         <f t="shared" si="10"/>
-        <v>426000</v>
+        <v>500880</v>
       </c>
       <c r="N28" s="47">
         <f>SUM(B28:M28)</f>
-        <v>2086580</v>
+        <v>2573300</v>
       </c>
       <c r="O28" s="69" t="s">
         <v>53</v>
@@ -5703,35 +5718,35 @@
       </c>
       <c r="F19" s="13">
         <f>'Software - Profit'!F6</f>
-        <v>216400</v>
+        <v>258000</v>
       </c>
       <c r="G19" s="13">
         <f>'Software - Profit'!G6</f>
-        <v>324600</v>
+        <v>387000</v>
       </c>
       <c r="H19" s="13">
         <f>'Software - Profit'!H6</f>
-        <v>324600</v>
+        <v>387000</v>
       </c>
       <c r="I19" s="13">
         <f>'Software - Profit'!I6</f>
-        <v>324600</v>
+        <v>387000</v>
       </c>
       <c r="J19" s="13">
         <f>'Software - Profit'!J6</f>
-        <v>426000</v>
+        <v>488400</v>
       </c>
       <c r="K19" s="13">
         <f>'Software - Profit'!K6</f>
-        <v>568000</v>
+        <v>651200</v>
       </c>
       <c r="L19" s="13">
         <f>'Software - Profit'!L6</f>
-        <v>568000</v>
+        <v>651200</v>
       </c>
       <c r="M19" s="13">
         <f>'Software - Profit'!M6</f>
-        <v>568000</v>
+        <v>651200</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
@@ -5758,35 +5773,35 @@
       </c>
       <c r="F20" s="13">
         <f>'Software - Profit'!F27</f>
-        <v>165240</v>
+        <v>169400</v>
       </c>
       <c r="G20" s="13">
         <f>'Software - Profit'!G27</f>
-        <v>76060</v>
+        <v>82300</v>
       </c>
       <c r="H20" s="13">
         <f>'Software - Profit'!H27</f>
-        <v>89860</v>
+        <v>96100</v>
       </c>
       <c r="I20" s="13">
         <f>'Software - Profit'!I27</f>
-        <v>195860</v>
+        <v>202100</v>
       </c>
       <c r="J20" s="13">
         <f>'Software - Profit'!J27</f>
-        <v>206000</v>
+        <v>212240</v>
       </c>
       <c r="K20" s="13">
         <f>'Software - Profit'!K27</f>
-        <v>142000</v>
+        <v>150320</v>
       </c>
       <c r="L20" s="13">
         <f>'Software - Profit'!L27</f>
-        <v>142000</v>
+        <v>150320</v>
       </c>
       <c r="M20" s="13">
         <f>'Software - Profit'!M27</f>
-        <v>142000</v>
+        <v>150320</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
@@ -5873,35 +5888,35 @@
       </c>
       <c r="F20" s="13">
         <f>'Software - Profit'!F6</f>
-        <v>216400</v>
+        <v>258000</v>
       </c>
       <c r="G20" s="13">
         <f>'Software - Profit'!G6</f>
-        <v>324600</v>
+        <v>387000</v>
       </c>
       <c r="H20" s="13">
         <f>'Software - Profit'!H6</f>
-        <v>324600</v>
+        <v>387000</v>
       </c>
       <c r="I20" s="13">
         <f>'Software - Profit'!I6</f>
-        <v>324600</v>
+        <v>387000</v>
       </c>
       <c r="J20" s="13">
         <f>'Software - Profit'!J6</f>
-        <v>426000</v>
+        <v>488400</v>
       </c>
       <c r="K20" s="13">
         <f>'Software - Profit'!K6</f>
-        <v>568000</v>
+        <v>651200</v>
       </c>
       <c r="L20" s="13">
         <f>'Software - Profit'!L6</f>
-        <v>568000</v>
+        <v>651200</v>
       </c>
       <c r="M20" s="13">
         <f>'Software - Profit'!M6</f>
-        <v>568000</v>
+        <v>651200</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
@@ -5928,35 +5943,35 @@
       </c>
       <c r="F21" s="13">
         <f>'Software - Profit'!F27</f>
-        <v>165240</v>
+        <v>169400</v>
       </c>
       <c r="G21" s="13">
         <f>'Software - Profit'!G27</f>
-        <v>76060</v>
+        <v>82300</v>
       </c>
       <c r="H21" s="13">
         <f>'Software - Profit'!H27</f>
-        <v>89860</v>
+        <v>96100</v>
       </c>
       <c r="I21" s="13">
         <f>'Software - Profit'!I27</f>
-        <v>195860</v>
+        <v>202100</v>
       </c>
       <c r="J21" s="13">
         <f>'Software - Profit'!J27</f>
-        <v>206000</v>
+        <v>212240</v>
       </c>
       <c r="K21" s="13">
         <f>'Software - Profit'!K27</f>
-        <v>142000</v>
+        <v>150320</v>
       </c>
       <c r="L21" s="13">
         <f>'Software - Profit'!L27</f>
-        <v>142000</v>
+        <v>150320</v>
       </c>
       <c r="M21" s="13">
         <f>'Software - Profit'!M27</f>
-        <v>142000</v>
+        <v>150320</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
@@ -5983,35 +5998,35 @@
       </c>
       <c r="F22" s="13">
         <f>SUM($B$20:F20)</f>
-        <v>432400</v>
+        <v>474000</v>
       </c>
       <c r="G22" s="13">
         <f>SUM($B$20:G20)</f>
-        <v>757000</v>
+        <v>861000</v>
       </c>
       <c r="H22" s="13">
         <f>SUM($B$20:H20)</f>
-        <v>1081600</v>
+        <v>1248000</v>
       </c>
       <c r="I22" s="13">
         <f>SUM($B$20:I20)</f>
-        <v>1406200</v>
+        <v>1635000</v>
       </c>
       <c r="J22" s="13">
         <f>SUM($B$20:J20)</f>
-        <v>1832200</v>
+        <v>2123400</v>
       </c>
       <c r="K22" s="13">
         <f>SUM($B$20:K20)</f>
-        <v>2400200</v>
+        <v>2774600</v>
       </c>
       <c r="L22" s="13">
         <f>SUM($B$20:L20)</f>
-        <v>2968200</v>
+        <v>3425800</v>
       </c>
       <c r="M22" s="13">
         <f>SUM($B$20:M20)</f>
-        <v>3536200</v>
+        <v>4077000</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -6036,35 +6051,35 @@
       </c>
       <c r="F23" s="13">
         <f>SUM($B$21:F21)</f>
-        <v>455840</v>
+        <v>460000</v>
       </c>
       <c r="G23" s="13">
         <f>SUM($B$21:G21)</f>
-        <v>531900</v>
+        <v>542300</v>
       </c>
       <c r="H23" s="13">
         <f>SUM($B$21:H21)</f>
-        <v>621760</v>
+        <v>638400</v>
       </c>
       <c r="I23" s="13">
         <f>SUM($B$21:I21)</f>
-        <v>817620</v>
+        <v>840500</v>
       </c>
       <c r="J23" s="13">
         <f>SUM($B$21:J21)</f>
-        <v>1023620</v>
+        <v>1052740</v>
       </c>
       <c r="K23" s="13">
         <f>SUM($B$21:K21)</f>
-        <v>1165620</v>
+        <v>1203060</v>
       </c>
       <c r="L23" s="13">
         <f>SUM($B$21:L21)</f>
-        <v>1307620</v>
+        <v>1353380</v>
       </c>
       <c r="M23" s="13">
         <f>SUM($B$21:M21)</f>
-        <v>1449620</v>
+        <v>1503700</v>
       </c>
     </row>
     <row r="24" spans="1:15">
